--- a/final_eigenvec_five.xlsx
+++ b/final_eigenvec_five.xlsx
@@ -501,12 +501,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>e13</t>
+          <t>e16</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>e14</t>
+          <t>e16</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -597,97 +597,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.827791517710357e-43</v>
+        <v>9.900701371875323e-36</v>
       </c>
       <c r="B2" t="n">
-        <v>3.314494287260458e-43</v>
+        <v>1.518431279784966e-35</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.123920920444823e-42</v>
+        <v>6.319256724543312e-28</v>
       </c>
       <c r="D2" t="n">
-        <v>1.133710391222919e-33</v>
+        <v>7.523662200363101e-38</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.433232199413159e-35</v>
+        <v>6.727745770199191e-28</v>
       </c>
       <c r="F2" t="n">
-        <v>1.206995636018661e-33</v>
+        <v>-2.192268665493939e-29</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.817242188073276e-33</v>
+        <v>1.012923581711809e-27</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.534990198235331e-44</v>
+        <v>-1.708298584850596e-28</v>
       </c>
       <c r="I2" t="n">
-        <v>1.110106659731903e-35</v>
+        <v>-4.108188273228365e-34</v>
       </c>
       <c r="J2" t="n">
-        <v>3.698968859741574e-35</v>
+        <v>-1.39895946576698e-28</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.918294779810632e-33</v>
+        <v>-1.069249897311412e-27</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.045062583420979e-33</v>
+        <v>-1.389988185270656e-28</v>
       </c>
       <c r="M2" t="n">
-        <v>1.377989965131127e-34</v>
+        <v>1.139910281193405e-27</v>
       </c>
       <c r="N2" t="n">
-        <v>1.528903596886422e-33</v>
+        <v>-8.522047967839601e-28</v>
       </c>
       <c r="O2" t="n">
-        <v>1.61514986679154e-33</v>
+        <v>9.002781253438792e-28</v>
       </c>
       <c r="P2" t="n">
-        <v>-9.156305027489999e-53</v>
+        <v>-5.42526296472876e-43</v>
       </c>
       <c r="Q2" t="n">
-        <v>-5.163601004666334e-23</v>
+        <v>3.497265400471966e-19</v>
       </c>
       <c r="R2" t="n">
-        <v>5.369146545377746e-23</v>
+        <v>-3.636479740832831e-19</v>
       </c>
       <c r="S2" t="n">
-        <v>-7.894932215681879e-23</v>
+        <v>-5.347174046104374e-19</v>
       </c>
       <c r="T2" t="n">
-        <v>4.180649249454384e-24</v>
+        <v>1.075791916155069e-19</v>
       </c>
       <c r="U2" t="n">
-        <v>-7.942897471596553e-23</v>
+        <v>1.890921083973777e-19</v>
       </c>
       <c r="V2" t="n">
-        <v>2.378286992378431e-23</v>
+        <v>5.574776849979709e-19</v>
       </c>
       <c r="W2" t="n">
-        <v>-8.547435988182703e-23</v>
+        <v>-1.124318340314322e-19</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.855071368072411e-23</v>
+        <v>-5.789109599522975e-19</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.293201601908886e-23</v>
+        <v>-4.262334793230714e-19</v>
       </c>
       <c r="Z2" t="n">
-        <v>-6.551043286128563e-23</v>
+        <v>4.436968890676704e-19</v>
       </c>
       <c r="AA2" t="n">
-        <v>-5.518383582351378e-12</v>
+        <v>4.541505477201605e-10</v>
       </c>
       <c r="AB2" t="n">
-        <v>-5.680688981832305e-12</v>
+        <v>-4.675079167707381e-10</v>
       </c>
       <c r="AC2" t="n">
-        <v>-5.85283107219085e-12</v>
+        <v>4.816748233395392e-10</v>
       </c>
       <c r="AD2" t="n">
-        <v>-6.035732043196613e-12</v>
+        <v>4.967271615689276e-10</v>
       </c>
       <c r="AE2" t="n">
-        <v>6.230433076847944e-12</v>
+        <v>-5.127506183937267e-10</v>
       </c>
       <c r="AF2" t="n">
         <v>-1</v>
@@ -695,3040 +695,3040 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5.599442899377583e-19</v>
+        <v>-3.295818488391492e-21</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.662501796322137e-18</v>
+        <v>4.662293738374183e-20</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.663404994658621e-29</v>
+        <v>-2.131591319690026e-20</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.436082087761052e-21</v>
+        <v>-6.110558889290625e-26</v>
       </c>
       <c r="E3" t="n">
-        <v>3.050733518091453e-22</v>
+        <v>4.785905596327804e-19</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.709915514398023e-21</v>
+        <v>-1.632876917307417e-20</v>
       </c>
       <c r="G3" t="n">
-        <v>4.593213044844688e-21</v>
+        <v>1.162189647568767e-18</v>
       </c>
       <c r="H3" t="n">
-        <v>2.253393694355249e-31</v>
+        <v>-1.97645433246615e-19</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.464278670159032e-23</v>
+        <v>-4.432883625837325e-25</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.77343461056347e-22</v>
+        <v>7.843672934553373e-19</v>
       </c>
       <c r="K3" t="n">
-        <v>2.497809381541083e-21</v>
+        <v>-6.301459373670376e-19</v>
       </c>
       <c r="L3" t="n">
-        <v>1.273054200742255e-21</v>
+        <v>8.329148755377394e-19</v>
       </c>
       <c r="M3" t="n">
-        <v>4.965947179878541e-23</v>
+        <v>8.154621182752423e-19</v>
       </c>
       <c r="N3" t="n">
-        <v>-4.37043759878798e-22</v>
+        <v>4.460194140901715e-20</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.251063001649682e-22</v>
+        <v>-1.984676424265804e-20</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.084336335018808e-26</v>
+        <v>-6.618718383422518e-22</v>
       </c>
       <c r="Q3" t="n">
-        <v>-8.047637111532564e-12</v>
+        <v>6.623029043256509e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>8.39755653967923e-12</v>
+        <v>-6.910986599011569e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>-6.219135914660827e-12</v>
+        <v>-5.118196684153812e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>-5.858573533788676e-12</v>
+        <v>6.025101601907836e-10</v>
       </c>
       <c r="U3" t="n">
-        <v>-4.593005456985946e-12</v>
+        <v>6.841150894192139e-10</v>
       </c>
       <c r="V3" t="n">
-        <v>8.092742782704028e-12</v>
+        <v>5.36744273101846e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.249601521086208e-17</v>
+        <v>1.147614695650817e-18</v>
       </c>
       <c r="X3" t="n">
-        <v>-6.026474457999031e-18</v>
+        <v>-1.207800632412747e-17</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.450214928588351e-17</v>
+        <v>1.680854697358677e-17</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.7359365310879e-18</v>
+        <v>-5.120914890023886e-18</v>
       </c>
       <c r="AA3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.011068025664707e-15</v>
+        <v>2.332935607406717e-14</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.580625059469796e-15</v>
+        <v>-6.709458498818232e-15</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.789365212435591e-15</v>
+        <v>1.387172938549831e-15</v>
       </c>
       <c r="AE3" t="n">
-        <v>-4.397839405125657e-15</v>
+        <v>-5.56063858703075e-15</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.517806383741726e-12</v>
+        <v>4.54150250217049e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.145710417158081e-17</v>
+        <v>3.183638076045761e-21</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.521373633383599e-18</v>
+        <v>-1.516552567010459e-20</v>
       </c>
       <c r="C4" t="n">
-        <v>3.287247172728611e-29</v>
+        <v>-9.390485602617499e-19</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.542043306599744e-20</v>
+        <v>-7.999668225965794e-26</v>
       </c>
       <c r="E4" t="n">
-        <v>5.016881052909594e-22</v>
+        <v>-5.649296972333176e-19</v>
       </c>
       <c r="F4" t="n">
-        <v>-9.406169330197017e-21</v>
+        <v>1.714532738966034e-20</v>
       </c>
       <c r="G4" t="n">
-        <v>7.709932492088114e-21</v>
+        <v>1.777642258360699e-19</v>
       </c>
       <c r="H4" t="n">
-        <v>2.878424946169069e-31</v>
+        <v>-6.506640557197139e-19</v>
       </c>
       <c r="I4" t="n">
-        <v>4.831006431156605e-23</v>
+        <v>-2.403906980345202e-24</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.806828215190716e-22</v>
+        <v>6.065433298739464e-19</v>
       </c>
       <c r="K4" t="n">
-        <v>4.242771004529391e-21</v>
+        <v>-4.328676186581157e-19</v>
       </c>
       <c r="L4" t="n">
-        <v>2.136252751985987e-21</v>
+        <v>-1.57916169891708e-19</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.452301421696189e-22</v>
+        <v>1.313577661038016e-18</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.501531561272302e-22</v>
+        <v>-1.043479519864273e-18</v>
       </c>
       <c r="O4" t="n">
-        <v>-2.267485003157184e-22</v>
+        <v>1.138165092499443e-18</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.197331930366016e-26</v>
+        <v>-1.257268096134863e-21</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.208428606772175e-17</v>
+        <v>1.219327082124473e-17</v>
       </c>
       <c r="R4" t="n">
-        <v>1.432677071033885e-17</v>
+        <v>-1.628067402200436e-18</v>
       </c>
       <c r="S4" t="n">
-        <v>5.011157987284977e-18</v>
+        <v>-2.018771327316936e-17</v>
       </c>
       <c r="T4" t="n">
-        <v>-4.932807995385632e-18</v>
+        <v>2.620435702880273e-17</v>
       </c>
       <c r="U4" t="n">
-        <v>-3.85818862294608e-12</v>
+        <v>5.74656761927974e-10</v>
       </c>
       <c r="V4" t="n">
-        <v>6.797974615357644e-12</v>
+        <v>4.508652428635593e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>-5.701793071265472e-12</v>
+        <v>3.673578320181383e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>4.306392329016883e-12</v>
+        <v>-4.692453191937338e-10</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.397552814767802e-12</v>
+        <v>-6.910986449080927e-10</v>
       </c>
       <c r="Z4" t="n">
-        <v>-8.779248664190844e-12</v>
+        <v>7.225122171950304e-10</v>
       </c>
       <c r="AA4" t="n">
-        <v>-4.239298756418482e-15</v>
+        <v>-4.904078045206378e-15</v>
       </c>
       <c r="AB4" t="n">
-        <v>-5.94586853186472e-15</v>
+        <v>4.491199576619727e-15</v>
       </c>
       <c r="AC4" t="n">
-        <v>-7.515134129810308e-15</v>
+        <v>-4.908110097165631e-15</v>
       </c>
       <c r="AD4" t="n">
-        <v>-2.548909230695494e-14</v>
+        <v>4.784239276390822e-15</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.231098231485231e-12</v>
+        <v>5.127510036421319e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.625296816699531e-16</v>
+        <v>-4.746023047177648e-16</v>
       </c>
       <c r="B5" t="n">
-        <v>1.649254185030312e-17</v>
+        <v>-1.454459633668357e-16</v>
       </c>
       <c r="C5" t="n">
-        <v>4.031156212698485e-18</v>
+        <v>1.118057168267979e-16</v>
       </c>
       <c r="D5" t="n">
-        <v>1.037211720409573e-16</v>
+        <v>-1.174963865580175e-16</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.726378863561005e-18</v>
+        <v>-2.043364342563788e-16</v>
       </c>
       <c r="F5" t="n">
-        <v>3.937677359725259e-17</v>
+        <v>-4.300405017136073e-17</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.811454690081348e-12</v>
+        <v>8.074729392542098e-10</v>
       </c>
       <c r="H5" t="n">
-        <v>3.506550446350686e-21</v>
+        <v>-9.229123886034134e-10</v>
       </c>
       <c r="I5" t="n">
-        <v>9.758412147910703e-12</v>
+        <v>-3.2651284373187e-15</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.021633674734625e-11</v>
+        <v>7.363651897515287e-10</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.058823777208951e-11</v>
+        <v>-8.713781027038806e-10</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.143424961572321e-11</v>
+        <v>8.10560111778175e-10</v>
       </c>
       <c r="M5" t="n">
-        <v>1.207263389244443e-11</v>
+        <v>9.409949493257475e-10</v>
       </c>
       <c r="N5" t="n">
-        <v>1.444185177953975e-16</v>
+        <v>-6.233733670262651e-18</v>
       </c>
       <c r="O5" t="n">
-        <v>4.778364243537e-16</v>
+        <v>1.035333739486273e-16</v>
       </c>
       <c r="P5" t="n">
-        <v>-4.439433298510189e-18</v>
+        <v>-2.629535552294076e-17</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.307692634113385e-16</v>
+        <v>4.929403965851327e-16</v>
       </c>
       <c r="R5" t="n">
-        <v>-3.229634260134936e-16</v>
+        <v>-2.922315318384917e-16</v>
       </c>
       <c r="S5" t="n">
-        <v>5.932477248447935e-16</v>
+        <v>4.440450963664663e-15</v>
       </c>
       <c r="T5" t="n">
-        <v>5.131890080165423e-17</v>
+        <v>-5.750288316882038e-15</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.4993902634358277</v>
+        <v>0.9038170929264616</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8799096951630629</v>
+        <v>0.7091184522359714</v>
       </c>
       <c r="W5" t="n">
-        <v>2.669624553217737e-17</v>
+        <v>9.97639363643876e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>1.539145255593097e-15</v>
+        <v>7.846418514680931e-16</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.905449614523166e-16</v>
+        <v>2.268788834737192e-16</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.592595703023294e-16</v>
+        <v>-3.062316449921681e-16</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.197332558559731e-12</v>
+        <v>-7.569174993352347e-10</v>
       </c>
       <c r="AB5" t="n">
-        <v>-2.431835216053149e-17</v>
+        <v>5.130317552035303e-17</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.446541287498567e-18</v>
+        <v>-1.917596192734461e-18</v>
       </c>
       <c r="AD5" t="n">
-        <v>-2.267324473084682e-17</v>
+        <v>-1.336041017479673e-16</v>
       </c>
       <c r="AE5" t="n">
-        <v>-7.72575960397094e-12</v>
+        <v>6.358106590038891e-10</v>
       </c>
       <c r="AF5" t="n">
-        <v>-4.052137814563238e-23</v>
+        <v>-2.744492035318816e-19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.327999100913151e-17</v>
+        <v>-1.230366337186036e-20</v>
       </c>
       <c r="B6" t="n">
-        <v>3.836112651628726e-18</v>
+        <v>1.110802058726508e-19</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.117015989397576e-28</v>
+        <v>9.52587758171647e-19</v>
       </c>
       <c r="D6" t="n">
-        <v>1.533428899339725e-20</v>
+        <v>1.480854910441448e-25</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.143929361385736e-22</v>
+        <v>1.482756862543445e-18</v>
       </c>
       <c r="F6" t="n">
-        <v>9.638846083765877e-21</v>
+        <v>-4.561785917092634e-20</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.1569855345007e-21</v>
+        <v>1.163956389787783e-18</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.175034950546446e-31</v>
+        <v>4.750252797036686e-19</v>
       </c>
       <c r="I6" t="n">
-        <v>-6.27236720943474e-23</v>
+        <v>2.040735593280872e-24</v>
       </c>
       <c r="J6" t="n">
-        <v>1.97740483821963e-22</v>
+        <v>-8.42643682133839e-19</v>
       </c>
       <c r="K6" t="n">
-        <v>-4.731051107484573e-21</v>
+        <v>-9.866283847332012e-19</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.685801559649722e-21</v>
+        <v>6.564545135781482e-19</v>
       </c>
       <c r="M6" t="n">
-        <v>3.017278266394497e-22</v>
+        <v>9.333270567219525e-19</v>
       </c>
       <c r="N6" t="n">
-        <v>1.117027725316286e-21</v>
+        <v>-1.224128100509649e-18</v>
       </c>
       <c r="O6" t="n">
-        <v>6.390144362051721e-22</v>
+        <v>1.271717071667792e-18</v>
       </c>
       <c r="P6" t="n">
-        <v>9.501201567598198e-26</v>
+        <v>3.399802488115781e-21</v>
       </c>
       <c r="Q6" t="n">
-        <v>-3.099144533939137e-18</v>
+        <v>-1.793587050201281e-17</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.278285613281382e-19</v>
+        <v>1.375102152064536e-17</v>
       </c>
       <c r="S6" t="n">
-        <v>-5.472825265568684e-12</v>
+        <v>-4.504012783799096e-10</v>
       </c>
       <c r="T6" t="n">
-        <v>-5.155520638310581e-12</v>
+        <v>5.302088612084903e-10</v>
       </c>
       <c r="U6" t="n">
-        <v>-6.972213244921076e-12</v>
+        <v>-2.834121672626451e-10</v>
       </c>
       <c r="V6" t="n">
-        <v>-3.823818363237572e-12</v>
+        <v>4.669825910562253e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>-5.926240165606262e-12</v>
+        <v>-5.750439445692208e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>-7.094039285469427e-12</v>
+        <v>-4.87711889108189e-10</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.781830282498069e-17</v>
+        <v>8.498797295625891e-18</v>
       </c>
       <c r="Z6" t="n">
-        <v>-9.197299887038122e-12</v>
+        <v>7.56917588027089e-10</v>
       </c>
       <c r="AA6" t="n">
-        <v>-6.002256148291101e-15</v>
+        <v>-1.859550494017344e-15</v>
       </c>
       <c r="AB6" t="n">
-        <v>-9.982378816383604e-15</v>
+        <v>9.904951429226425e-15</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2.863677935082734e-14</v>
+        <v>-4.869484572366012e-15</v>
       </c>
       <c r="AD6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>-2.38105316070829e-14</v>
+        <v>3.901170657297956e-16</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.035421396078717e-12</v>
+        <v>4.967267605243935e-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.896005467167405e-18</v>
+        <v>7.237916570963988e-17</v>
       </c>
       <c r="B7" t="n">
-        <v>1.923159814094679e-16</v>
+        <v>8.461979382834913e-17</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.035028048239015e-17</v>
+        <v>-2.565122590369164e-17</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.276199279300263e-16</v>
+        <v>7.475655805183333e-17</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.353530997380883e-13</v>
+        <v>1.13537613143035e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>1.379615149402467e-11</v>
+        <v>-3.699676841996904e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.044454556999146e-11</v>
+        <v>8.595622872793631e-10</v>
       </c>
       <c r="H7" t="n">
-        <v>7.697411961053205e-22</v>
+        <v>7.121647825496745e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.05022832377712e-11</v>
+        <v>2.888117712036406e-15</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.085901391195206e-16</v>
+        <v>-9.857122754702365e-18</v>
       </c>
       <c r="K7" t="n">
-        <v>-3.803005920876821e-16</v>
+        <v>2.499103439049559e-16</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.247372288882315e-11</v>
+        <v>8.84247439349008e-10</v>
       </c>
       <c r="M7" t="n">
-        <v>1.317015627858246e-11</v>
+        <v>1.026539856997642e-09</v>
       </c>
       <c r="N7" t="n">
-        <v>1.882088533018944e-16</v>
+        <v>1.491781882672035e-17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.60803261644004e-16</v>
+        <v>2.687796577364942e-17</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.345156713769143e-18</v>
+        <v>1.049293830942681e-17</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.97379471067251e-17</v>
+        <v>2.099304890635913e-17</v>
       </c>
       <c r="R7" t="n">
-        <v>-4.952077804270518e-16</v>
+        <v>-1.409134362248186e-16</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.7083889292645417</v>
+        <v>-0.7083889299345945</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.667320287091808</v>
+        <v>0.8339099492233141</v>
       </c>
       <c r="U7" t="n">
-        <v>9.069450277086488e-16</v>
+        <v>1.745213716281274e-15</v>
       </c>
       <c r="V7" t="n">
-        <v>8.869555165479883e-16</v>
+        <v>1.175039314932554e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>4.889166601811551e-16</v>
+        <v>6.030907710489783e-16</v>
       </c>
       <c r="X7" t="n">
-        <v>3.868253255371204e-17</v>
+        <v>1.061872314309068e-15</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.434883937967869e-16</v>
+        <v>-5.84455830230094e-16</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.201024271304929e-17</v>
+        <v>-3.256275679293497e-17</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.779147744706928e-12</v>
+        <v>-7.225121910434708e-10</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.728356380100288e-16</v>
+        <v>1.684280730413157e-16</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.329794448587984e-16</v>
+        <v>2.429383451456487e-16</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.726077544399321e-12</v>
+        <v>-6.358109229557276e-10</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.185382488254083e-17</v>
+        <v>-3.771036981143526e-17</v>
       </c>
       <c r="AF7" t="n">
-        <v>-3.914343562087239e-23</v>
+        <v>-2.651654447476699e-19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.176041144082161e-17</v>
+        <v>1.947304007968709e-20</v>
       </c>
       <c r="B8" t="n">
-        <v>6.349665832679073e-19</v>
+        <v>-1.693503962203657e-19</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.007942450720741e-21</v>
+        <v>-1.031324968128315e-17</v>
       </c>
       <c r="D8" t="n">
-        <v>6.745622676119424e-19</v>
+        <v>5.984079884989223e-18</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.6528499964266e-18</v>
+        <v>-3.106859105962812e-18</v>
       </c>
       <c r="F8" t="n">
-        <v>1.384410044695734e-17</v>
+        <v>-3.64589441278688e-17</v>
       </c>
       <c r="G8" t="n">
-        <v>2.465466678856401e-17</v>
+        <v>2.18383625921075e-17</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.280050498657333e-21</v>
+        <v>3.980146027231476e-18</v>
       </c>
       <c r="I8" t="n">
-        <v>-2.380331058295054e-18</v>
+        <v>-8.66967064144334e-18</v>
       </c>
       <c r="J8" t="n">
-        <v>4.004054272857246e-17</v>
+        <v>5.896775706689692e-17</v>
       </c>
       <c r="K8" t="n">
-        <v>2.863281745821613e-17</v>
+        <v>-5.069685412924832e-17</v>
       </c>
       <c r="L8" t="n">
-        <v>-9.147273720419294e-12</v>
+        <v>6.484481369960542e-10</v>
       </c>
       <c r="M8" t="n">
-        <v>9.658135970442789e-12</v>
+        <v>7.527958246345368e-10</v>
       </c>
       <c r="N8" t="n">
-        <v>1.379592881370294e-11</v>
+        <v>-1.135376383392811e-09</v>
       </c>
       <c r="O8" t="n">
-        <v>1.485715955126756e-11</v>
+        <v>1.222713021820218e-09</v>
       </c>
       <c r="P8" t="n">
-        <v>6.10449927214144e-19</v>
+        <v>-9.567664584444375e-18</v>
       </c>
       <c r="Q8" t="n">
-        <v>-2.51989453547714e-17</v>
+        <v>-1.265592080862456e-16</v>
       </c>
       <c r="R8" t="n">
-        <v>-6.175990703795042e-17</v>
+        <v>3.320282455071927e-17</v>
       </c>
       <c r="S8" t="n">
-        <v>-2.277465136022878e-17</v>
+        <v>2.273013262532456e-16</v>
       </c>
       <c r="T8" t="n">
-        <v>5.364575593849135e-17</v>
+        <v>3.872209059609563e-17</v>
       </c>
       <c r="U8" t="n">
-        <v>-2.915292874817367e-16</v>
+        <v>-1.878423859131111e-17</v>
       </c>
       <c r="V8" t="n">
-        <v>-7.728351734801672e-17</v>
+        <v>5.089427122347062e-17</v>
       </c>
       <c r="W8" t="n">
-        <v>-8.252177686913191e-16</v>
+        <v>-2.130602123557517e-16</v>
       </c>
       <c r="X8" t="n">
-        <v>-4.015185839678959e-16</v>
+        <v>-8.335711780449718e-16</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.780049821014041e-15</v>
+        <v>-2.37723207047589e-15</v>
       </c>
       <c r="Z8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>-3.886783527087603e-16</v>
+        <v>8.973067546745401e-17</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.278396065563398e-16</v>
+        <v>1.537036208591647e-17</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.954171222392723e-16</v>
+        <v>-7.559903238126686e-17</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.19699878225675e-12</v>
+        <v>-7.569175325980967e-10</v>
       </c>
       <c r="AE8" t="n">
-        <v>-8.779309712452336e-12</v>
+        <v>7.225122430485954e-10</v>
       </c>
       <c r="AF8" t="n">
-        <v>-4.470353322230612e-23</v>
+        <v>-3.027532018430951e-19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.59022311570186e-16</v>
+        <v>-4.044027448861074e-16</v>
       </c>
       <c r="B9" t="n">
-        <v>7.585380444528045e-16</v>
+        <v>-1.321381718359843e-16</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.828628464962594e-11</v>
+        <v>-5.759305643114849e-16</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.815915303061136e-16</v>
+        <v>3.973817555200125e-09</v>
       </c>
       <c r="E9" t="n">
-        <v>6.428971820729618e-11</v>
+        <v>-5.1438179174287e-16</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.908215424374069e-16</v>
+        <v>-5.295608689552317e-09</v>
       </c>
       <c r="G9" t="n">
-        <v>1.753474585797721e-15</v>
+        <v>1.423370085675181e-16</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.41479027745298e-24</v>
+        <v>1.334403463031651e-15</v>
       </c>
       <c r="I9" t="n">
-        <v>-7.611350050997464e-16</v>
+        <v>6.556044202638764e-21</v>
       </c>
       <c r="J9" t="n">
-        <v>-4.366288813560088e-16</v>
+        <v>2.70347703214329e-15</v>
       </c>
       <c r="K9" t="n">
-        <v>1.84881871697704e-15</v>
+        <v>1.397545582032922e-15</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.710396016635633</v>
+        <v>0.6119255702908278</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7500703017379651</v>
+        <v>0.7103960698652253</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.16269345583297e-15</v>
+        <v>1.489745447568659e-15</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.206567707693363e-15</v>
+        <v>1.006174426162942e-16</v>
       </c>
       <c r="P9" t="n">
-        <v>-7.206676442687778e-18</v>
+        <v>3.77400697342829e-16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.843476728625131e-17</v>
+        <v>4.06388701662462e-17</v>
       </c>
       <c r="R9" t="n">
-        <v>-1.857003279070689e-17</v>
+        <v>-8.731558237692239e-17</v>
       </c>
       <c r="S9" t="n">
-        <v>1.243822257104773e-11</v>
+        <v>1.023639372434241e-09</v>
       </c>
       <c r="T9" t="n">
-        <v>1.171713350661708e-11</v>
+        <v>-1.205020120431611e-09</v>
       </c>
       <c r="U9" t="n">
-        <v>8.037802148355281e-12</v>
+        <v>-1.197201396303277e-09</v>
       </c>
       <c r="V9" t="n">
-        <v>-1.41624399361826e-11</v>
+        <v>-9.393024187610901e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>1.918579075032489e-18</v>
+        <v>1.259353831082911e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>5.676918438769733e-17</v>
+        <v>1.312008130839019e-17</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.12397196541056e-17</v>
+        <v>6.384761079459298e-17</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.287619104399735e-11</v>
+        <v>-1.059684581958623e-09</v>
       </c>
       <c r="AA9" t="n">
-        <v>-9.979305011737302e-23</v>
+        <v>7.126005661416286e-19</v>
       </c>
       <c r="AB9" t="n">
-        <v>-1.992299436442332e-23</v>
+        <v>-2.851784940021464e-23</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.757285577216639e-23</v>
+        <v>-5.995666722679941e-23</v>
       </c>
       <c r="AD9" t="n">
-        <v>-1.078126106614443e-22</v>
+        <v>6.149875983786367e-19</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.220628439161274e-23</v>
+        <v>-5.835241336911966e-19</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.532299929382381e-34</v>
+        <v>1.969066966037258e-28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7.251386221067388e-18</v>
+        <v>1.176125502961951e-20</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.7706062005431e-18</v>
+        <v>-1.300408807607941e-19</v>
       </c>
       <c r="C10" t="n">
-        <v>9.88394369341003e-29</v>
+        <v>7.72257657228738e-19</v>
       </c>
       <c r="D10" t="n">
-        <v>6.139160373664738e-21</v>
+        <v>-5.239258999875116e-26</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.767518394373101e-22</v>
+        <v>-8.901739831283324e-20</v>
       </c>
       <c r="F10" t="n">
-        <v>3.334718953931226e-21</v>
+        <v>5.590416683253692e-22</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.56580172527913e-21</v>
+        <v>6.254681676805823e-19</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.371834244163742e-31</v>
+        <v>6.101378952965602e-19</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.168021839914819e-23</v>
+        <v>2.421790058667841e-24</v>
       </c>
       <c r="J10" t="n">
-        <v>2.640830907892954e-23</v>
+        <v>-1.947036819056488e-19</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.377258962775251e-21</v>
+        <v>-1.482051256719217e-18</v>
       </c>
       <c r="L10" t="n">
-        <v>-6.161463077929641e-22</v>
+        <v>-9.192850076926143e-19</v>
       </c>
       <c r="M10" t="n">
-        <v>-9.171774780241362e-23</v>
+        <v>7.783284794936224e-19</v>
       </c>
       <c r="N10" t="n">
-        <v>1.065092885544382e-22</v>
+        <v>2.100816831845878e-20</v>
       </c>
       <c r="O10" t="n">
-        <v>2.547832007322488e-22</v>
+        <v>1.321261563904202e-18</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.547293340717473e-25</v>
+        <v>-3.688224434830864e-21</v>
       </c>
       <c r="Q10" t="n">
-        <v>-2.444199914138197e-17</v>
+        <v>2.158626746735082e-17</v>
       </c>
       <c r="R10" t="n">
-        <v>7.725710996436594e-12</v>
+        <v>-6.358107898045086e-10</v>
       </c>
       <c r="S10" t="n">
-        <v>-5.680238178866392e-12</v>
+        <v>-4.674681453737187e-10</v>
       </c>
       <c r="T10" t="n">
-        <v>5.993619625017098e-12</v>
+        <v>-3.655252461090488e-10</v>
       </c>
       <c r="U10" t="n">
-        <v>-3.641335261677615e-17</v>
+        <v>4.906014661050115e-17</v>
       </c>
       <c r="V10" t="n">
-        <v>-6.75854558724401e-18</v>
+        <v>2.693416731727329e-17</v>
       </c>
       <c r="W10" t="n">
-        <v>-6.19548809731904e-12</v>
+        <v>-6.011823102517627e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>-7.416500410904621e-12</v>
+        <v>-5.09880633629541e-10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.197338367138946e-12</v>
+        <v>-7.569176237456921e-10</v>
       </c>
       <c r="Z10" t="n">
-        <v>-1.263496729381115e-18</v>
+        <v>3.135531162050073e-17</v>
       </c>
       <c r="AA10" t="n">
-        <v>-3.472535778792029e-15</v>
+        <v>3.899221237480327e-15</v>
       </c>
       <c r="AB10" t="n">
-        <v>-1.230980615256557e-14</v>
+        <v>-2.281682369691844e-14</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.31468030282595e-14</v>
+        <v>1.020451531134362e-14</v>
       </c>
       <c r="AE10" t="n">
-        <v>-1.045022696129619e-14</v>
+        <v>-3.709056731120005e-15</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.852189952478679e-12</v>
+        <v>4.816743020959947e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.050518573896648e-17</v>
+        <v>1.178045284257516e-17</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.490992143451526e-18</v>
+        <v>2.159618847740867e-17</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.132814208598254e-20</v>
+        <v>1.135376350377231e-09</v>
       </c>
       <c r="D11" t="n">
-        <v>1.379595367844572e-11</v>
+        <v>-3.173573443276196e-17</v>
       </c>
       <c r="E11" t="n">
-        <v>3.876081005469447e-19</v>
+        <v>2.084999900423799e-17</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.059823049973189e-19</v>
+        <v>-6.379159068414611e-17</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.13149036829869e-11</v>
+        <v>9.311922822859762e-10</v>
       </c>
       <c r="H11" t="n">
-        <v>8.338739848924142e-22</v>
+        <v>7.715118269291575e-10</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.137754860473118e-11</v>
+        <v>3.128794061763464e-15</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.207377714630988e-11</v>
+        <v>8.702498299124027e-10</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.251314668447231e-11</v>
+        <v>-1.029810499276602e-09</v>
       </c>
       <c r="L11" t="n">
-        <v>1.503774048859316e-16</v>
+        <v>-1.046179494723542e-16</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.282514568048294e-16</v>
+        <v>-1.063141366626925e-16</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.518169157607068e-17</v>
+        <v>-2.579296632907952e-19</v>
       </c>
       <c r="O11" t="n">
-        <v>-3.184139860560861e-17</v>
+        <v>5.594561097793887e-18</v>
       </c>
       <c r="P11" t="n">
-        <v>4.14584579679361e-19</v>
+        <v>-5.662483059924622e-17</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.223554740561226e-15</v>
+        <v>-3.233287267863829e-16</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S11" t="n">
-        <v>6.750481213483277e-17</v>
+        <v>1.561877549806651e-16</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.146781406204188e-16</v>
+        <v>-4.436369076481736e-17</v>
       </c>
       <c r="U11" t="n">
-        <v>-2.538029009503599e-16</v>
+        <v>-5.263366321771591e-18</v>
       </c>
       <c r="V11" t="n">
-        <v>2.064765076592588e-16</v>
+        <v>-1.674593832184638e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>1.527448997815643e-16</v>
+        <v>-2.614880360201202e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>1.181613577578031e-16</v>
+        <v>-6.315087002587495e-17</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.025037270567193e-16</v>
+        <v>5.527140524995095e-16</v>
       </c>
       <c r="Z11" t="n">
-        <v>-5.371484348373835e-17</v>
+        <v>1.60083985066616e-16</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.397539903279134e-12</v>
+        <v>-6.910986593899528e-10</v>
       </c>
       <c r="AB11" t="n">
-        <v>4.792891359355173e-19</v>
+        <v>3.434958041451979e-19</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.725736789931233e-12</v>
+        <v>-6.358107665396034e-10</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.842258355736337e-20</v>
+        <v>-1.073200941008127e-19</v>
       </c>
       <c r="AE11" t="n">
-        <v>-2.899170088529137e-21</v>
+        <v>-1.85371551496592e-20</v>
       </c>
       <c r="AF11" t="n">
-        <v>-3.785701619808781e-23</v>
+        <v>-2.564683624544493e-19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.561830808281025e-18</v>
+        <v>1.660440204546061e-19</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.879376815423292e-18</v>
+        <v>4.541725453218862e-18</v>
       </c>
       <c r="C12" t="n">
-        <v>3.912943848958239e-22</v>
+        <v>3.815941539378199e-17</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.115772868980395e-17</v>
+        <v>-1.105590421736427e-22</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.303914283817869e-17</v>
+        <v>-2.559075062244097e-17</v>
       </c>
       <c r="F12" t="n">
-        <v>2.552637323639902e-17</v>
+        <v>5.348723380156996e-19</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.491958165494816e-17</v>
+        <v>-4.663012186358761e-17</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.748630103388389e-21</v>
+        <v>5.907640033150866e-17</v>
       </c>
       <c r="I12" t="n">
-        <v>-3.155728857908501e-17</v>
+        <v>-1.184320049453412e-17</v>
       </c>
       <c r="J12" t="n">
-        <v>-8.854298400029667e-12</v>
+        <v>6.381830716490374e-10</v>
       </c>
       <c r="K12" t="n">
-        <v>-9.176427971824885e-12</v>
+        <v>-7.551941988372545e-10</v>
       </c>
       <c r="L12" t="n">
-        <v>-9.709812902200798e-12</v>
+        <v>-8.979865565241294e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>-9.123962100534512e-12</v>
+        <v>7.990803705690623e-10</v>
       </c>
       <c r="N12" t="n">
-        <v>2.200247168238183e-17</v>
+        <v>3.512701974537426e-17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.609528928310573e-11</v>
+        <v>1.324605809330139e-09</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.314444540842876e-18</v>
+        <v>2.844942684571422e-17</v>
       </c>
       <c r="Q12" t="n">
-        <v>-1.691257942561192e-17</v>
+        <v>2.375535156671217e-16</v>
       </c>
       <c r="R12" t="n">
-        <v>-7.060835671191483e-17</v>
+        <v>-6.021926512641612e-16</v>
       </c>
       <c r="S12" t="n">
-        <v>6.310368145180035e-16</v>
+        <v>2.540405936134628e-16</v>
       </c>
       <c r="T12" t="n">
-        <v>4.171694914743279e-17</v>
+        <v>9.12032691637594e-17</v>
       </c>
       <c r="U12" t="n">
-        <v>1.406350723584733e-15</v>
+        <v>-2.365436148698294e-16</v>
       </c>
       <c r="V12" t="n">
-        <v>-2.377870695063711e-16</v>
+        <v>-2.777215023127451e-16</v>
       </c>
       <c r="W12" t="n">
-        <v>4.528992220812812e-15</v>
+        <v>9.365883939943694e-17</v>
       </c>
       <c r="X12" t="n">
-        <v>1.273515875723304e-15</v>
+        <v>8.69302330598993e-16</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.952296068201018e-15</v>
+        <v>-2.575468050567643e-15</v>
       </c>
       <c r="AA12" t="n">
-        <v>-3.753109300320779e-16</v>
+        <v>1.666738002956925e-16</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.096847872060817e-16</v>
+        <v>2.774643831301973e-16</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.196946690872131e-12</v>
+        <v>-7.569174016141742e-10</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.745820771332714e-17</v>
+        <v>-5.200308881826914e-17</v>
       </c>
       <c r="AE12" t="n">
-        <v>-8.397533562112269e-12</v>
+        <v>6.910986537359021e-10</v>
       </c>
       <c r="AF12" t="n">
-        <v>-4.321826401513394e-23</v>
+        <v>-2.927157988554312e-19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.970557649770544e-17</v>
+        <v>1.204621213093213e-15</v>
       </c>
       <c r="B13" t="n">
-        <v>4.828609474224179e-11</v>
+        <v>3.973816864869551e-09</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.287693589481867e-17</v>
+        <v>-1.058498901066461e-17</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.32785206905392e-15</v>
+        <v>5.7950452528858e-16</v>
       </c>
       <c r="E13" t="n">
-        <v>9.643657146313432e-11</v>
+        <v>-8.680355947205729e-16</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.075185497509984e-16</v>
+        <v>-7.943416863319239e-09</v>
       </c>
       <c r="G13" t="n">
-        <v>4.329605258944857e-15</v>
+        <v>-4.043089995700883e-15</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.40768388753365e-22</v>
+        <v>-2.440734271687321e-15</v>
       </c>
       <c r="I13" t="n">
-        <v>-6.477836613309771e-16</v>
+        <v>2.672949922921004e-21</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.6876377600019935</v>
+        <v>0.6022387527575143</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.7126595065101969</v>
+        <v>-0.712659503098834</v>
       </c>
       <c r="L13" t="n">
-        <v>7.410438756825186e-17</v>
+        <v>-5.5920871259594e-17</v>
       </c>
       <c r="M13" t="n">
-        <v>7.615755679318811e-16</v>
+        <v>-2.944317122415591e-15</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.733431216376593e-15</v>
+        <v>1.040929558958102e-15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.042948811283637e-15</v>
+        <v>5.00372361115659e-16</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.958129370076705e-17</v>
+        <v>-7.613383827934862e-16</v>
       </c>
       <c r="Q13" t="n">
-        <v>-9.930324223210887e-18</v>
+        <v>-4.865112128057483e-18</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.755854017325068e-11</v>
+        <v>1.445024456421276e-09</v>
       </c>
       <c r="S13" t="n">
-        <v>-5.380707539996812e-17</v>
+        <v>-1.086725890860776e-19</v>
       </c>
       <c r="T13" t="n">
-        <v>-6.484508470833158e-17</v>
+        <v>1.703186041544032e-16</v>
       </c>
       <c r="U13" t="n">
-        <v>7.41952295568464e-12</v>
+        <v>-1.105108816133521e-09</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.307309656988442e-11</v>
+        <v>-8.670483864708651e-10</v>
       </c>
       <c r="W13" t="n">
-        <v>4.015370792844393e-17</v>
+        <v>1.35002084547567e-17</v>
       </c>
       <c r="X13" t="n">
-        <v>-9.272940551278782e-17</v>
+        <v>-3.537635258666277e-17</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.287616252986652e-11</v>
+        <v>1.059684635409106e-09</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.116267752113787e-17</v>
+        <v>3.525789575969367e-18</v>
       </c>
       <c r="AA13" t="n">
-        <v>-9.994595779306226e-23</v>
+        <v>6.769588599432265e-19</v>
       </c>
       <c r="AB13" t="n">
-        <v>-7.513044855409456e-27</v>
+        <v>-2.880826907553511e-25</v>
       </c>
       <c r="AC13" t="n">
-        <v>-9.078977708645138e-23</v>
+        <v>6.149385114911358e-19</v>
       </c>
       <c r="AD13" t="n">
-        <v>-9.225310755360608e-28</v>
+        <v>6.095987510512666e-26</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.194995441283652e-23</v>
+        <v>-5.550416215762202e-19</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.403383292370398e-34</v>
+        <v>1.897371454443058e-28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.618998048407235e-16</v>
+        <v>2.597208473709957e-16</v>
       </c>
       <c r="B14" t="n">
-        <v>1.365440182482259e-17</v>
+        <v>1.61550353825043e-16</v>
       </c>
       <c r="C14" t="n">
-        <v>3.340255611368529e-18</v>
+        <v>-1.445406343072627e-16</v>
       </c>
       <c r="D14" t="n">
-        <v>1.272812639183953e-16</v>
+        <v>1.248933478137636e-17</v>
       </c>
       <c r="E14" t="n">
-        <v>-9.841976791936682e-17</v>
+        <v>2.560748080473441e-16</v>
       </c>
       <c r="F14" t="n">
-        <v>9.475461595328266e-17</v>
+        <v>-8.682930484071015e-17</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.051721474713564e-12</v>
+        <v>7.449534714039582e-10</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.441549721985919e-21</v>
+        <v>6.172094748065766e-10</v>
       </c>
       <c r="I14" t="n">
-        <v>-9.101851007200779e-12</v>
+        <v>2.481980268320941e-15</v>
       </c>
       <c r="J14" t="n">
-        <v>1.001658759871978e-11</v>
+        <v>-9.063891655245495e-10</v>
       </c>
       <c r="K14" t="n">
-        <v>-9.677940315762467e-12</v>
+        <v>-7.964780343619014e-10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.158915190301926e-16</v>
+        <v>-2.903582318026211e-18</v>
       </c>
       <c r="M14" t="n">
-        <v>9.918804416296765e-17</v>
+        <v>1.159139623768881e-17</v>
       </c>
       <c r="N14" t="n">
-        <v>-9.339603775942703e-17</v>
+        <v>2.472901523951737e-17</v>
       </c>
       <c r="O14" t="n">
-        <v>1.755844254771573e-11</v>
+        <v>1.445024678855417e-09</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.003116418674392e-18</v>
+        <v>3.781067189399242e-17</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.426369017209313e-16</v>
+        <v>7.890650167726803e-17</v>
       </c>
       <c r="R14" t="n">
-        <v>2.594482644298611e-16</v>
+        <v>8.438843330376148e-17</v>
       </c>
       <c r="S14" t="n">
-        <v>1.759891645015436e-16</v>
+        <v>-2.056603207785415e-16</v>
       </c>
       <c r="T14" t="n">
-        <v>-5.457513180916628e-18</v>
+        <v>2.198442507797588e-16</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.804571691482377e-16</v>
+        <v>9.978009940763665e-16</v>
       </c>
       <c r="V14" t="n">
-        <v>8.845679002716817e-16</v>
+        <v>1.304512054093712e-15</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.7057051861400027</v>
+        <v>-0.8320721452816489</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.8447788908741686</v>
+        <v>-0.7057051861399987</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.932639682383314e-15</v>
+        <v>4.661695744533611e-16</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.271537282806681e-15</v>
+        <v>-4.998877985267156e-16</v>
       </c>
       <c r="AA14" t="n">
-        <v>-8.130636645535994e-17</v>
+        <v>9.111322030481646e-18</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.293968706933628e-16</v>
+        <v>1.521898400214412e-17</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.779173023416845e-12</v>
+        <v>-7.225122252113256e-10</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.397556903545099e-12</v>
+        <v>-6.910986624539689e-10</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.032341379834974e-18</v>
+        <v>-3.262308737605025e-19</v>
       </c>
       <c r="AF14" t="n">
-        <v>-4.17408138757401e-23</v>
+        <v>-2.827623081753592e-19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.828578947763873e-11</v>
+        <v>3.973817272713211e-09</v>
       </c>
       <c r="B15" t="n">
-        <v>2.672147354645915e-16</v>
+        <v>7.408804692786574e-16</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.517837201445736e-15</v>
+        <v>3.544127995575825e-16</v>
       </c>
       <c r="D15" t="n">
-        <v>1.569775671877718e-15</v>
+        <v>-8.599950379868566e-16</v>
       </c>
       <c r="E15" t="n">
-        <v>1.928764219988239e-10</v>
+        <v>6.181671024757484e-15</v>
       </c>
       <c r="F15" t="n">
-        <v>2.017180072717474e-15</v>
+        <v>-1.588682835938456e-08</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7029957855296922</v>
+        <v>0.7029957881315931</v>
       </c>
       <c r="H15" t="n">
-        <v>5.180824794999463e-11</v>
+        <v>0.582446387588015</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.7068863215358885</v>
+        <v>2.362056850369739e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>3.358534099929186e-16</v>
+        <v>3.871002389986302e-15</v>
       </c>
       <c r="K15" t="n">
-        <v>-5.084525238185868e-15</v>
+        <v>-3.848281538556857e-16</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.548094910773733e-15</v>
+        <v>-3.856381610312862e-16</v>
       </c>
       <c r="M15" t="n">
-        <v>6.992992025482975e-16</v>
+        <v>-5.881359073844168e-16</v>
       </c>
       <c r="N15" t="n">
-        <v>1.297719455258268e-15</v>
+        <v>8.909308150371052e-17</v>
       </c>
       <c r="O15" t="n">
-        <v>7.494690476282042e-17</v>
+        <v>6.307311605289271e-16</v>
       </c>
       <c r="P15" t="n">
-        <v>-6.8157160494415e-18</v>
+        <v>2.187964225684078e-16</v>
       </c>
       <c r="Q15" t="n">
-        <v>-2.092195921706088e-21</v>
+        <v>2.189155013159341e-19</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.609528546152448e-11</v>
+        <v>1.324605765578718e-09</v>
       </c>
       <c r="S15" t="n">
-        <v>1.05246664604456e-11</v>
+        <v>8.661563603277173e-10</v>
       </c>
       <c r="T15" t="n">
-        <v>9.914369085452773e-12</v>
+        <v>-1.019632359560601e-09</v>
       </c>
       <c r="U15" t="n">
-        <v>-2.191039881171526e-17</v>
+        <v>2.402367299853642e-16</v>
       </c>
       <c r="V15" t="n">
-        <v>-8.011634392448169e-17</v>
+        <v>-3.765268446527542e-18</v>
       </c>
       <c r="W15" t="n">
-        <v>9.086821102313574e-12</v>
+        <v>8.817339648284759e-10</v>
       </c>
       <c r="X15" t="n">
-        <v>1.087769772927368e-11</v>
+        <v>7.478249228407654e-10</v>
       </c>
       <c r="Y15" t="n">
-        <v>-1.788927951989921e-20</v>
+        <v>1.882761313789803e-18</v>
       </c>
       <c r="Z15" t="n">
-        <v>-3.385629017969034e-21</v>
+        <v>3.437231001603572e-19</v>
       </c>
       <c r="AA15" t="n">
-        <v>-9.478648062653826e-23</v>
+        <v>6.4199213993157e-19</v>
       </c>
       <c r="AB15" t="n">
-        <v>-3.697453940389444e-27</v>
+        <v>-6.028891719834931e-26</v>
       </c>
       <c r="AC15" t="n">
-        <v>-8.615380858921242e-23</v>
+        <v>5.835380308574161e-19</v>
       </c>
       <c r="AD15" t="n">
-        <v>-8.195206904347162e-23</v>
+        <v>5.550416838423192e-19</v>
       </c>
       <c r="AE15" t="n">
-        <v>-4.157899995736412e-28</v>
+        <v>8.589400785221379e-27</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.275648931793248e-34</v>
+        <v>1.82658127543399e-28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.450684181609891e-16</v>
+        <v>7.244714612234301e-19</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.053057927501342e-18</v>
+        <v>-2.727820071642336e-18</v>
       </c>
       <c r="C16" t="n">
-        <v>1.260938099219042e-22</v>
+        <v>2.319646113229472e-16</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.806742089078454e-16</v>
+        <v>3.500458148999012e-23</v>
       </c>
       <c r="E16" t="n">
-        <v>3.857357963943553e-11</v>
+        <v>2.270253828385641e-16</v>
       </c>
       <c r="F16" t="n">
-        <v>-6.29706127381219e-16</v>
+        <v>-3.177365745185848e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>1.108282313359457e-16</v>
+        <v>-6.109152916654857e-16</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.828585634557351e-11</v>
+        <v>-8.385216877755736e-16</v>
       </c>
       <c r="I16" t="n">
-        <v>1.859126730059567e-16</v>
+        <v>-3.973817292525302e-09</v>
       </c>
       <c r="J16" t="n">
-        <v>-2.365307501652552e-16</v>
+        <v>1.342899876464518e-16</v>
       </c>
       <c r="K16" t="n">
-        <v>2.136877937652946e-15</v>
+        <v>3.779595215114809e-16</v>
       </c>
       <c r="L16" t="n">
-        <v>6.951581043923995e-16</v>
+        <v>3.269812927510409e-16</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.566835183239503e-16</v>
+        <v>-4.017107269537571e-16</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.521530159303024e-15</v>
+        <v>1.000618293387787e-18</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>-4.63680821519306e-18</v>
+        <v>-8.037495763872911e-17</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.329883134724133e-22</v>
+        <v>3.080097625459435e-17</v>
       </c>
       <c r="R16" t="n">
-        <v>2.38918407131638e-21</v>
+        <v>1.991325642070151e-17</v>
       </c>
       <c r="S16" t="n">
-        <v>4.00898542354594e-21</v>
+        <v>-4.81157630047668e-18</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.221506401856436e-16</v>
+        <v>6.301404118141895e-17</v>
       </c>
       <c r="U16" t="n">
-        <v>1.261495711994627e-16</v>
+        <v>-1.921183702638517e-16</v>
       </c>
       <c r="V16" t="n">
-        <v>4.605313942228268e-16</v>
+        <v>-1.229939628160436e-18</v>
       </c>
       <c r="W16" t="n">
-        <v>1.239111972768128e-11</v>
+        <v>1.202364726704947e-09</v>
       </c>
       <c r="X16" t="n">
-        <v>1.483312314469519e-11</v>
+        <v>1.019761262247058e-09</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.609528544622576e-11</v>
+        <v>1.324605764330917e-09</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.48571865682725e-11</v>
+        <v>-1.222713013067433e-09</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.324300704521883e-26</v>
+        <v>-3.435168328648526e-25</v>
       </c>
       <c r="AB16" t="n">
-        <v>-1.398434941135865e-26</v>
+        <v>-4.077813391206529e-25</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.052125256169595e-22</v>
+        <v>7.126039379302811e-19</v>
       </c>
       <c r="AD16" t="n">
-        <v>-9.99479853252379e-23</v>
+        <v>6.769590705671529e-19</v>
       </c>
       <c r="AE16" t="n">
-        <v>9.478891055774497e-23</v>
+        <v>-6.419921637790399e-19</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.794275281619934e-34</v>
+        <v>2.115107540934844e-28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.018693924454947e-15</v>
+        <v>-8.829293212134298e-17</v>
       </c>
       <c r="B17" t="n">
-        <v>2.416544938313844e-16</v>
+        <v>4.170594486428112e-16</v>
       </c>
       <c r="C17" t="n">
-        <v>3.953410741257515e-15</v>
+        <v>-4.782622326763973e-16</v>
       </c>
       <c r="D17" t="n">
-        <v>3.32357024131788e-16</v>
+        <v>-5.155441473053867e-16</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9985785688324923</v>
+        <v>2.910214141680868e-08</v>
       </c>
       <c r="F17" t="n">
-        <v>3.535357531171507e-10</v>
+        <v>-0.9994689529886366</v>
       </c>
       <c r="G17" t="n">
-        <v>1.357835768331094e-10</v>
+        <v>-1.117430592776911e-08</v>
       </c>
       <c r="H17" t="n">
-        <v>6.770804458920449e-21</v>
+        <v>-9.258143453839211e-09</v>
       </c>
       <c r="I17" t="n">
-        <v>1.365418681711706e-10</v>
+        <v>-3.743183212007089e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>6.640752212856787e-11</v>
+        <v>-4.786375950502648e-09</v>
       </c>
       <c r="K17" t="n">
-        <v>6.882577350645431e-11</v>
+        <v>5.663957283046261e-09</v>
       </c>
       <c r="L17" t="n">
-        <v>4.573392540016975e-11</v>
+        <v>-3.242239141065832e-09</v>
       </c>
       <c r="M17" t="n">
-        <v>-4.829253480823932e-11</v>
+        <v>-3.763978599124492e-09</v>
       </c>
       <c r="N17" t="n">
-        <v>-8.945449461498526e-18</v>
+        <v>-7.805871323830755e-16</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.862902129017676e-11</v>
+        <v>-3.179054105442253e-09</v>
       </c>
       <c r="P17" t="n">
-        <v>3.219060859124264e-11</v>
+        <v>2.649211306368453e-09</v>
       </c>
       <c r="Q17" t="n">
-        <v>-9.405286867870698e-24</v>
+        <v>-1.261199883598959e-21</v>
       </c>
       <c r="R17" t="n">
-        <v>4.519035644143052e-22</v>
+        <v>-3.392943105473523e-18</v>
       </c>
       <c r="S17" t="n">
-        <v>-3.920734140010277e-22</v>
+        <v>-2.135459260398019e-18</v>
       </c>
       <c r="T17" t="n">
-        <v>-4.938962471980519e-18</v>
+        <v>6.59180884554448e-17</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.871737483482705e-17</v>
+        <v>3.587819164683455e-17</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.832742040320197e-17</v>
+        <v>1.926564585362861e-18</v>
       </c>
       <c r="W17" t="n">
-        <v>-3.243067700017342e-22</v>
+        <v>-2.069618656032028e-16</v>
       </c>
       <c r="X17" t="n">
-        <v>-7.186190306794865e-18</v>
+        <v>-1.747214646178274e-18</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.93437906771641e-22</v>
+        <v>-2.23418230576849e-18</v>
       </c>
       <c r="Z17" t="n">
-        <v>-3.03527893224726e-22</v>
+        <v>2.014714370293217e-18</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.601655626152388e-33</v>
+        <v>-8.968457326162839e-28</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.778692658310584e-35</v>
+        <v>5.616600756962772e-31</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.395704797863369e-33</v>
+        <v>-7.98641797588714e-28</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.374260812893186e-33</v>
+        <v>-7.532147231047242e-28</v>
       </c>
       <c r="AE17" t="n">
-        <v>-1.263896635807493e-33</v>
+        <v>7.074633166374317e-28</v>
       </c>
       <c r="AF17" t="n">
-        <v>-3.809282770116118e-45</v>
+        <v>-1.748056916110761e-37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-8.514328769702723e-18</v>
+        <v>6.54923941585299e-22</v>
       </c>
       <c r="B18" t="n">
-        <v>4.118368977299578e-18</v>
+        <v>-1.249669429707227e-20</v>
       </c>
       <c r="C18" t="n">
-        <v>1.583198036680906e-29</v>
+        <v>2.09792100335411e-18</v>
       </c>
       <c r="D18" t="n">
-        <v>3.805692811039431e-21</v>
+        <v>4.575016565015094e-26</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.392655721967186e-22</v>
+        <v>1.697707314394898e-18</v>
       </c>
       <c r="F18" t="n">
-        <v>2.58621757737561e-21</v>
+        <v>-5.368063410316116e-20</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.238972566644152e-21</v>
+        <v>1.331360852700347e-18</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.217939321729865e-32</v>
+        <v>-9.891586716331907e-19</v>
       </c>
       <c r="I18" t="n">
-        <v>1.147599187133554e-22</v>
+        <v>-3.424504973883001e-24</v>
       </c>
       <c r="J18" t="n">
-        <v>1.47091919542629e-22</v>
+        <v>-9.608395657497716e-19</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.317574053023166e-21</v>
+        <v>-1.109828906699977e-18</v>
       </c>
       <c r="L18" t="n">
-        <v>-8.27367949458325e-22</v>
+        <v>-1.006805462506691e-18</v>
       </c>
       <c r="M18" t="n">
-        <v>-6.592426777039759e-23</v>
+        <v>1.03584337129091e-18</v>
       </c>
       <c r="N18" t="n">
-        <v>3.940225026047958e-22</v>
+        <v>-1.390123128710393e-18</v>
       </c>
       <c r="O18" t="n">
-        <v>1.099785104306432e-22</v>
+        <v>2.681871056086288e-20</v>
       </c>
       <c r="P18" t="n">
-        <v>1.125340010495979e-25</v>
+        <v>2.207561879375329e-21</v>
       </c>
       <c r="Q18" t="n">
-        <v>-7.725727171463226e-12</v>
+        <v>6.358107287602614e-10</v>
       </c>
       <c r="R18" t="n">
-        <v>-4.285507413085029e-18</v>
+        <v>1.117574805796469e-17</v>
       </c>
       <c r="S18" t="n">
-        <v>-5.927130255457018e-12</v>
+        <v>-4.87792858969974e-10</v>
       </c>
       <c r="T18" t="n">
-        <v>6.254262130012176e-12</v>
+        <v>-3.814177660896404e-10</v>
       </c>
       <c r="U18" t="n">
-        <v>-7.60619123556253e-12</v>
+        <v>-3.091767351096162e-10</v>
       </c>
       <c r="V18" t="n">
-        <v>-4.171287556062074e-12</v>
+        <v>5.094356548144213e-10</v>
       </c>
       <c r="W18" t="n">
-        <v>-6.516356508965889e-12</v>
+        <v>4.198375216073029e-10</v>
       </c>
       <c r="X18" t="n">
-        <v>4.921606237860466e-12</v>
+        <v>-5.36280335229447e-10</v>
       </c>
       <c r="Y18" t="n">
-        <v>-3.166104569398718e-17</v>
+        <v>4.227444829287771e-18</v>
       </c>
       <c r="Z18" t="n">
-        <v>-7.50017104856441e-18</v>
+        <v>-1.690450230512226e-17</v>
       </c>
       <c r="AA18" t="n">
-        <v>-5.408572285523834e-15</v>
+        <v>2.083361182061988e-14</v>
       </c>
       <c r="AB18" t="n">
         <v>-1</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.310482133824094e-14</v>
+        <v>-1.903277925322532e-14</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.053981697034129e-14</v>
+        <v>7.24563901526281e-15</v>
       </c>
       <c r="AE18" t="n">
-        <v>-6.318611053026026e-15</v>
+        <v>-4.54719938388702e-15</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.680019017070716e-12</v>
+        <v>4.675074891591326e-10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.358556515662466e-18</v>
+        <v>1.408877459921126e-17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.584704036558932e-18</v>
+        <v>2.357651391142719e-17</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.702737059371377e-20</v>
+        <v>1.222713012773715e-09</v>
       </c>
       <c r="D19" t="n">
-        <v>1.485718881898678e-11</v>
+        <v>-5.024039037480114e-18</v>
       </c>
       <c r="E19" t="n">
-        <v>-8.57851296437797e-13</v>
+        <v>1.324605775717149e-09</v>
       </c>
       <c r="F19" t="n">
-        <v>1.609527350707517e-11</v>
+        <v>-4.316286026871383e-11</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.248752047243278e-11</v>
+        <v>1.02769273219288e-09</v>
       </c>
       <c r="H19" t="n">
-        <v>4.462836335786021e-21</v>
+        <v>-1.174615800392831e-09</v>
       </c>
       <c r="I19" t="n">
-        <v>1.241963361534635e-11</v>
+        <v>-4.155618159468353e-15</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.288100367381171e-17</v>
+        <v>-5.681538656460842e-17</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.118773244146454e-17</v>
+        <v>3.425886042472066e-17</v>
       </c>
       <c r="L19" t="n">
-        <v>2.287024573461181e-16</v>
+        <v>-8.115846110609158e-17</v>
       </c>
       <c r="M19" t="n">
-        <v>-2.159554945084654e-16</v>
+        <v>-1.014660128250539e-16</v>
       </c>
       <c r="N19" t="n">
-        <v>7.306323020554249e-18</v>
+        <v>1.928061922073557e-17</v>
       </c>
       <c r="O19" t="n">
-        <v>2.565208636985983e-17</v>
+        <v>-2.42461637680885e-17</v>
       </c>
       <c r="P19" t="n">
-        <v>-5.124257717057516e-19</v>
+        <v>-1.154769250733277e-17</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>2.989511230137039e-16</v>
+        <v>3.02613471494365e-17</v>
       </c>
       <c r="S19" t="n">
-        <v>1.258085724667177e-16</v>
+        <v>3.676494380315655e-16</v>
       </c>
       <c r="T19" t="n">
-        <v>-3.227931910350987e-17</v>
+        <v>6.801610500931589e-17</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.567754866340005e-16</v>
+        <v>-2.180793867566651e-16</v>
       </c>
       <c r="V19" t="n">
-        <v>-6.530859836609528e-17</v>
+        <v>-2.20768729912113e-16</v>
       </c>
       <c r="W19" t="n">
-        <v>5.358413881617996e-17</v>
+        <v>-6.015165684730288e-17</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.37172085167503e-17</v>
+        <v>-3.719959399652479e-16</v>
       </c>
       <c r="Y19" t="n">
-        <v>-2.330355245071372e-16</v>
+        <v>-1.611925945110821e-16</v>
       </c>
       <c r="Z19" t="n">
-        <v>-2.151509074395908e-16</v>
+        <v>-4.770504030803325e-16</v>
       </c>
       <c r="AA19" t="n">
-        <v>8.04764268913121e-12</v>
+        <v>-6.623028820342516e-10</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.725737064051296e-12</v>
+        <v>6.358107669340791e-10</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.06407991995797e-20</v>
+        <v>1.223548597152885e-19</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.325282059390787e-21</v>
+        <v>-6.177512365321321e-20</v>
       </c>
       <c r="AE19" t="n">
-        <v>-5.969863508563939e-22</v>
+        <v>-1.305603941160174e-20</v>
       </c>
       <c r="AF19" t="n">
-        <v>-3.665165752023069e-23</v>
+        <v>-2.483047747451594e-19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.184845731599077e-17</v>
+        <v>-3.403871961750086e-16</v>
       </c>
       <c r="B20" t="n">
-        <v>1.265409430473218e-17</v>
+        <v>-2.045312331781379e-16</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.328947528857213e-18</v>
+        <v>1.242455733226351e-16</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.260692300656012e-17</v>
+        <v>-2.036266807267186e-18</v>
       </c>
       <c r="E20" t="n">
-        <v>7.241965521334062e-17</v>
+        <v>-2.318035138152429e-16</v>
       </c>
       <c r="F20" t="n">
-        <v>-9.060573035333154e-18</v>
+        <v>7.177554242593211e-17</v>
       </c>
       <c r="G20" t="n">
-        <v>-9.157600302028439e-12</v>
+        <v>7.536414832790866e-10</v>
       </c>
       <c r="H20" t="n">
-        <v>1.200249564545116e-21</v>
+        <v>-8.613848580967488e-10</v>
       </c>
       <c r="I20" t="n">
-        <v>9.107511267233878e-12</v>
+        <v>-3.061489703007134e-15</v>
       </c>
       <c r="J20" t="n">
-        <v>1.029219748520806e-16</v>
+        <v>1.029876981933831e-16</v>
       </c>
       <c r="K20" t="n">
-        <v>2.04952271129892e-17</v>
+        <v>3.113739067399328e-18</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.045673699341076e-11</v>
+        <v>-9.67062371794668e-10</v>
       </c>
       <c r="M20" t="n">
-        <v>-9.825846198787514e-12</v>
+        <v>8.605481682323802e-10</v>
       </c>
       <c r="N20" t="n">
-        <v>1.609545141088755e-11</v>
+        <v>-1.324605754417069e-09</v>
       </c>
       <c r="O20" t="n">
-        <v>4.097104187066222e-17</v>
+        <v>-2.455281568146069e-16</v>
       </c>
       <c r="P20" t="n">
-        <v>3.670487573096461e-18</v>
+        <v>1.789853318963777e-17</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.872931486645887e-16</v>
+        <v>1.822983694419362e-16</v>
       </c>
       <c r="R20" t="n">
-        <v>2.656760051880545e-16</v>
+        <v>3.809961341558641e-17</v>
       </c>
       <c r="S20" t="n">
-        <v>-2.502909090311568e-16</v>
+        <v>-2.924044893211132e-16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.425235186079024e-16</v>
+        <v>-2.066681194392237e-16</v>
       </c>
       <c r="U20" t="n">
-        <v>1.224567068404644e-16</v>
+        <v>-5.216822451453684e-16</v>
       </c>
       <c r="V20" t="n">
-        <v>-5.6889769389592e-16</v>
+        <v>3.608224829192447e-16</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.7085056035453101</v>
+        <v>0.5546674184107035</v>
       </c>
       <c r="X20" t="n">
-        <v>0.5351155254086818</v>
+        <v>-0.708505603545314</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.127394385029152e-15</v>
+        <v>2.247165803352059e-16</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.459110156715913e-15</v>
+        <v>-4.487403037284561e-16</v>
       </c>
       <c r="AA20" t="n">
-        <v>-8.162901392591548e-17</v>
+        <v>9.156260205495408e-18</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.197435880956226e-12</v>
+        <v>7.569175948470382e-10</v>
       </c>
       <c r="AC20" t="n">
-        <v>-7.387691210585373e-17</v>
+        <v>9.886597044490725e-18</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.673571095744574e-17</v>
+        <v>-2.923541986278428e-18</v>
       </c>
       <c r="AE20" t="n">
-        <v>-8.04764168781675e-12</v>
+        <v>6.623028817564771e-10</v>
       </c>
       <c r="AF20" t="n">
-        <v>-4.182746236252502e-23</v>
+        <v>-2.832994455358744e-19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.019842542885117e-16</v>
+        <v>5.918377493363325e-16</v>
       </c>
       <c r="B21" t="n">
-        <v>6.438128968783902e-11</v>
+        <v>5.298423386353552e-09</v>
       </c>
       <c r="C21" t="n">
-        <v>-9.657021235075445e-11</v>
+        <v>-3.823715653503361e-16</v>
       </c>
       <c r="D21" t="n">
-        <v>1.279002440046603e-15</v>
+        <v>7.947635435182887e-09</v>
       </c>
       <c r="E21" t="n">
-        <v>1.996017780973648e-15</v>
+        <v>4.497339013609398e-15</v>
       </c>
       <c r="F21" t="n">
-        <v>1.92201871310575e-16</v>
+        <v>4.328266860541211e-15</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7111940139845744</v>
+        <v>0.7111940114126662</v>
       </c>
       <c r="H21" t="n">
-        <v>2.541705576056948e-10</v>
+        <v>-0.8128691195916207</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7073271721243716</v>
+        <v>-2.875811530261696e-06</v>
       </c>
       <c r="J21" t="n">
-        <v>6.238358810697738e-16</v>
+        <v>6.290362455827037e-16</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.260256748361702e-15</v>
+        <v>1.805180884171536e-15</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.282865554826218e-15</v>
+        <v>9.978639953113688e-16</v>
       </c>
       <c r="M21" t="n">
-        <v>-4.859084250838419e-16</v>
+        <v>-1.024384034406387e-16</v>
       </c>
       <c r="N21" t="n">
-        <v>9.733229326603179e-16</v>
+        <v>8.456907042040284e-16</v>
       </c>
       <c r="O21" t="n">
-        <v>1.968867248478643e-16</v>
+        <v>2.8592086960635e-16</v>
       </c>
       <c r="P21" t="n">
-        <v>9.844446540749885e-18</v>
+        <v>2.855578236309685e-16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75584932165872e-11</v>
+        <v>-1.445024469979936e-09</v>
       </c>
       <c r="R21" t="n">
-        <v>-7.265485288255056e-23</v>
+        <v>3.192022571504019e-19</v>
       </c>
       <c r="S21" t="n">
-        <v>-3.517129556226158e-22</v>
+        <v>-7.159537301942574e-19</v>
       </c>
       <c r="T21" t="n">
-        <v>-2.653572341427514e-16</v>
+        <v>6.334725965536898e-17</v>
       </c>
       <c r="U21" t="n">
-        <v>6.889597240704699e-12</v>
+        <v>-1.026172492649866e-09</v>
       </c>
       <c r="V21" t="n">
-        <v>-1.213908975530842e-11</v>
+        <v>-8.051163348655024e-10</v>
       </c>
       <c r="W21" t="n">
-        <v>9.122879944053237e-12</v>
+        <v>-5.877723272787534e-10</v>
       </c>
       <c r="X21" t="n">
-        <v>-6.890307510498648e-12</v>
+        <v>7.507924840860287e-10</v>
       </c>
       <c r="Y21" t="n">
-        <v>-4.934572373775107e-22</v>
+        <v>6.991471297621449e-19</v>
       </c>
       <c r="Z21" t="n">
-        <v>-1.027477667094473e-22</v>
+        <v>1.375213788560128e-19</v>
       </c>
       <c r="AA21" t="n">
-        <v>-9.516331344162347e-23</v>
+        <v>6.445396496536699e-19</v>
       </c>
       <c r="AB21" t="n">
-        <v>-9.079503662501475e-23</v>
+        <v>-6.149387572172189e-19</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.212745805227031e-28</v>
+        <v>3.970677926250275e-26</v>
       </c>
       <c r="AD21" t="n">
-        <v>-1.056282389163728e-28</v>
+        <v>1.140665327798525e-26</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.811601019659711e-23</v>
+        <v>-5.290734384565057e-19</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.283111984919822e-34</v>
+        <v>1.830346685799718e-28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.976070136958277e-16</v>
+        <v>4.03415961051603e-16</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.608055746243687e-17</v>
+        <v>1.26554346260051e-16</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.058735984866998e-18</v>
+        <v>-1.589577126072569e-16</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.870878679832503e-16</v>
+        <v>1.490285684696216e-16</v>
       </c>
       <c r="E22" t="n">
-        <v>-6.862920846491575e-13</v>
+        <v>1.059684977387203e-09</v>
       </c>
       <c r="F22" t="n">
-        <v>1.287618146400002e-11</v>
+        <v>-3.453028915134948e-11</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.061198038561287e-16</v>
+        <v>-1.737524817499529e-16</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.552821720086788e-21</v>
+        <v>5.393764868935834e-17</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.545101673552699e-16</v>
+        <v>-2.40626479935545e-17</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07871932499781e-11</v>
+        <v>-9.761113406322826e-10</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.042223308924015e-11</v>
+        <v>-8.577455284881282e-10</v>
       </c>
       <c r="L22" t="n">
-        <v>9.889200226344805e-17</v>
+        <v>6.525381130374152e-17</v>
       </c>
       <c r="M22" t="n">
-        <v>5.8942319242429e-17</v>
+        <v>-2.517237395286196e-16</v>
       </c>
       <c r="N22" t="n">
-        <v>1.755824415189476e-11</v>
+        <v>-1.445024441194838e-09</v>
       </c>
       <c r="O22" t="n">
-        <v>-4.095778326215616e-16</v>
+        <v>-8.555717122252008e-17</v>
       </c>
       <c r="P22" t="n">
-        <v>5.113509598695357e-18</v>
+        <v>4.586830950202563e-17</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.522176305472954e-16</v>
+        <v>-2.803091084271019e-17</v>
       </c>
       <c r="R22" t="n">
-        <v>-2.849117873793781e-16</v>
+        <v>-7.195700024694582e-16</v>
       </c>
       <c r="S22" t="n">
-        <v>-4.283075554213911e-16</v>
+        <v>1.695204909952115e-15</v>
       </c>
       <c r="T22" t="n">
-        <v>3.0651432256425e-16</v>
+        <v>1.575098095533841e-15</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.8663771492747803</v>
+        <v>-0.4279189906208415</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.4751409563045954</v>
+        <v>0.7050893707172591</v>
       </c>
       <c r="W22" t="n">
-        <v>5.400350096300004e-17</v>
+        <v>-2.065074835948518e-15</v>
       </c>
       <c r="X22" t="n">
-        <v>-7.443715413755453e-16</v>
+        <v>4.245653464163837e-16</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.560315718542146e-16</v>
+        <v>2.113700517836429e-16</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.212364442484088e-16</v>
+        <v>-2.906637247929813e-16</v>
       </c>
       <c r="AA22" t="n">
-        <v>-1.539106234562988e-17</v>
+        <v>1.321611390439895e-20</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.779270494441582e-12</v>
+        <v>7.225122350601988e-10</v>
       </c>
       <c r="AC22" t="n">
-        <v>-1.297024201992785e-17</v>
+        <v>7.353388246221192e-20</v>
       </c>
       <c r="AD22" t="n">
-        <v>8.047645367362024e-12</v>
+        <v>-6.623028821392118e-10</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.027448485405164e-19</v>
+        <v>-1.144113325635809e-20</v>
       </c>
       <c r="AF22" t="n">
-        <v>-4.040143417731284e-23</v>
+        <v>-2.736918560317797e-19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-6.438151319381303e-11</v>
+        <v>5.298421691014332e-09</v>
       </c>
       <c r="B23" t="n">
-        <v>6.38216650726405e-16</v>
+        <v>3.162369398833881e-17</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.931434253820391e-10</v>
+        <v>3.048712533616336e-15</v>
       </c>
       <c r="D23" t="n">
-        <v>3.095448239366099e-15</v>
+        <v>1.589526917020455e-08</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.05329954848262446</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>-0.03258545705983294</v>
       </c>
       <c r="G23" t="n">
-        <v>3.995606054508534e-15</v>
+        <v>-9.273392538946388e-16</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.087485749246175e-25</v>
+        <v>1.017568548752021e-16</v>
       </c>
       <c r="I23" t="n">
-        <v>-3.391032041971428e-16</v>
+        <v>2.08589305096889e-22</v>
       </c>
       <c r="J23" t="n">
-        <v>2.438332223802205e-16</v>
+        <v>1.705314242193734e-15</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.810120042876638e-15</v>
+        <v>2.893459783531071e-15</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.377672200791176e-16</v>
+        <v>7.281997344368519e-16</v>
       </c>
       <c r="M23" t="n">
-        <v>-2.718165831303883e-16</v>
+        <v>4.097699077877923e-16</v>
       </c>
       <c r="N23" t="n">
-        <v>-9.968487516694007e-16</v>
+        <v>-5.689871042571283e-16</v>
       </c>
       <c r="O23" t="n">
-        <v>-7.134772208458685e-16</v>
+        <v>8.659150292587318e-17</v>
       </c>
       <c r="P23" t="n">
-        <v>-4.881025947709385e-19</v>
+        <v>1.684139355461312e-16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.609528544727614e-11</v>
+        <v>-1.324605764154088e-09</v>
       </c>
       <c r="R23" t="n">
-        <v>-8.035572677026786e-21</v>
+        <v>2.955898664341388e-19</v>
       </c>
       <c r="S23" t="n">
-        <v>9.77290457758808e-12</v>
+        <v>8.04288050613107e-10</v>
       </c>
       <c r="T23" t="n">
-        <v>9.206211213540803e-12</v>
+        <v>-9.468018358168639e-10</v>
       </c>
       <c r="U23" t="n">
-        <v>1.115561278316278e-11</v>
+        <v>4.534590762448575e-10</v>
       </c>
       <c r="V23" t="n">
-        <v>6.117814431032568e-12</v>
+        <v>-7.471723569490729e-10</v>
       </c>
       <c r="W23" t="n">
-        <v>-1.836106007651523e-20</v>
+        <v>-2.031859440523792e-16</v>
       </c>
       <c r="X23" t="n">
-        <v>1.331670061080568e-16</v>
+        <v>-1.057518672947006e-18</v>
       </c>
       <c r="Y23" t="n">
-        <v>-1.1572011205099e-20</v>
+        <v>7.014955794824975e-19</v>
       </c>
       <c r="Z23" t="n">
-        <v>-2.186560853895081e-21</v>
+        <v>1.360785073691866e-19</v>
       </c>
       <c r="AA23" t="n">
-        <v>-9.027721135761385e-23</v>
+        <v>6.114446748290709e-19</v>
       </c>
       <c r="AB23" t="n">
-        <v>-8.615944337124053e-23</v>
+        <v>-5.835381775454546e-19</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.329495507301737e-27</v>
+        <v>-1.075303794829131e-25</v>
       </c>
       <c r="AD23" t="n">
-        <v>-7.811737257235263e-23</v>
+        <v>5.290735510584375e-19</v>
       </c>
       <c r="AE23" t="n">
-        <v>-3.073225302830034e-28</v>
+        <v>1.589407040608549e-26</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.160286263148838e-34</v>
+        <v>1.762272032470623e-28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.369207815953375e-15</v>
+        <v>-3.631291690040582e-16</v>
       </c>
       <c r="B24" t="n">
-        <v>-8.741168750540305e-17</v>
+        <v>-3.226605082568292e-19</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.862868507637165e-11</v>
+        <v>3.46616516914982e-16</v>
       </c>
       <c r="D24" t="n">
-        <v>2.608871679570179e-16</v>
+        <v>3.179053834040649e-09</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.293565600655702e-16</v>
+        <v>-2.649156856723096e-17</v>
       </c>
       <c r="F24" t="n">
-        <v>4.172829396667415e-16</v>
+        <v>-1.069973504070449e-17</v>
       </c>
       <c r="G24" t="n">
-        <v>2.483116709568638e-15</v>
+        <v>8.462270751360799e-16</v>
       </c>
       <c r="H24" t="n">
-        <v>-6.438114179409798e-11</v>
+        <v>-7.770330741165883e-16</v>
       </c>
       <c r="I24" t="n">
-        <v>-6.982920285131305e-17</v>
+        <v>-5.298423056698687e-09</v>
       </c>
       <c r="J24" t="n">
-        <v>-5.77934493484734e-18</v>
+        <v>-1.747705495654833e-16</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.895050298055452e-15</v>
+        <v>-6.37173645774257e-16</v>
       </c>
       <c r="L24" t="n">
-        <v>1.757134788109664e-15</v>
+        <v>-3.024640364951947e-16</v>
       </c>
       <c r="M24" t="n">
-        <v>-2.988220712399329e-16</v>
+        <v>2.950592714690016e-15</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O24" t="n">
-        <v>-2.100810249513916e-16</v>
+        <v>-7.157938440751186e-16</v>
       </c>
       <c r="P24" t="n">
-        <v>-7.792751785152352e-19</v>
+        <v>-1.102628427343051e-17</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.962232227474773e-23</v>
+        <v>1.765811222719847e-20</v>
       </c>
       <c r="R24" t="n">
-        <v>5.734591165930082e-22</v>
+        <v>2.815897958663259e-20</v>
       </c>
       <c r="S24" t="n">
-        <v>9.974745824493123e-22</v>
+        <v>-3.278059267517767e-20</v>
       </c>
       <c r="T24" t="n">
-        <v>4.130050548285943e-16</v>
+        <v>2.562210482238596e-16</v>
       </c>
       <c r="U24" t="n">
-        <v>1.521230485527997e-11</v>
+        <v>6.183531865578302e-10</v>
       </c>
       <c r="V24" t="n">
-        <v>8.342859859868795e-12</v>
+        <v>-1.018871394269645e-09</v>
       </c>
       <c r="W24" t="n">
-        <v>1.14035999320755e-11</v>
+        <v>-7.347156990575405e-10</v>
       </c>
       <c r="X24" t="n">
-        <v>-8.612805292131269e-12</v>
+        <v>9.38490606398987e-10</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.514521058460334e-22</v>
+        <v>-2.751376477035688e-21</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.379595895603382e-11</v>
+        <v>-1.135376369303696e-09</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.946261457040397e-27</v>
+        <v>-1.138601061339942e-25</v>
       </c>
       <c r="AB24" t="n">
-        <v>-1.052179994663127e-22</v>
+        <v>-7.126041317465027e-19</v>
       </c>
       <c r="AC24" t="n">
-        <v>-4.038432273999872e-27</v>
+        <v>7.352227691888733e-26</v>
       </c>
       <c r="AD24" t="n">
-        <v>-9.516031952146328e-23</v>
+        <v>6.445397000682374e-19</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.027871444839243e-23</v>
+        <v>-6.114447042824379e-19</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.658908046882643e-34</v>
+        <v>2.039680443221584e-28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-2.543618068673498e-16</v>
+        <v>5.61313810173282e-17</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.126110537197177e-15</v>
+        <v>1.160878859470306e-16</v>
       </c>
       <c r="C25" t="n">
-        <v>-1</v>
+        <v>2.807089807118234e-08</v>
       </c>
       <c r="D25" t="n">
-        <v>3.410894979689433e-10</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E25" t="n">
-        <v>1.029799991164243e-11</v>
+        <v>-1.589526917020568e-08</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.931434253822527e-10</v>
+        <v>5.179537652449487e-10</v>
       </c>
       <c r="G25" t="n">
-        <v>6.868122398621891e-11</v>
+        <v>-5.652310121821275e-09</v>
       </c>
       <c r="H25" t="n">
-        <v>2.491202727206501e-17</v>
+        <v>6.460388205684133e-09</v>
       </c>
       <c r="I25" t="n">
-        <v>-6.830598375593226e-11</v>
+        <v>2.496354070650718e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>2.520447207737764e-17</v>
+        <v>-9.59502326954393e-17</v>
       </c>
       <c r="K25" t="n">
-        <v>-4.296527542922236e-23</v>
+        <v>-1.005417339480967e-22</v>
       </c>
       <c r="L25" t="n">
-        <v>3.43020800077724e-11</v>
+        <v>-2.431680321973471e-09</v>
       </c>
       <c r="M25" t="n">
-        <v>-3.621837550515173e-11</v>
+        <v>-2.822984186990963e-09</v>
       </c>
       <c r="N25" t="n">
-        <v>-3.862868507642939e-11</v>
+        <v>3.179053834041057e-09</v>
       </c>
       <c r="O25" t="n">
-        <v>-7.958736687806829e-24</v>
+        <v>1.115715452138012e-23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.759236383136416e-11</v>
+        <v>2.2707527539721e-09</v>
       </c>
       <c r="Q25" t="n">
-        <v>-4.999984844651243e-22</v>
+        <v>3.386462786882018e-18</v>
       </c>
       <c r="R25" t="n">
-        <v>8.603013818052376e-28</v>
+        <v>3.532079263727017e-26</v>
       </c>
       <c r="S25" t="n">
-        <v>-2.859852266940827e-22</v>
+        <v>-1.937026585557774e-18</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.424953425285012e-17</v>
+        <v>-4.49518211579974e-17</v>
       </c>
       <c r="U25" t="n">
-        <v>5.413006053201128e-18</v>
+        <v>-5.765280995872361e-17</v>
       </c>
       <c r="V25" t="n">
-        <v>1.976224869244745e-17</v>
+        <v>3.487484092347897e-18</v>
       </c>
       <c r="W25" t="n">
-        <v>-2.33209748505626e-22</v>
+        <v>-4.253347255199362e-18</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.523529806816586e-17</v>
+        <v>-1.579506483716559e-18</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.951610073474605e-28</v>
+        <v>-9.947547758004266e-26</v>
       </c>
       <c r="Z25" t="n">
-        <v>-2.711346795208423e-22</v>
+        <v>1.836372905087163e-18</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.532653220166887e-33</v>
+        <v>-8.458272365845959e-28</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.379691185851196e-33</v>
+        <v>7.989855751793355e-28</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.228615479585555e-35</v>
+        <v>-5.44605356553055e-31</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.232348229873844e-33</v>
+        <v>-7.104172289272578e-28</v>
       </c>
       <c r="AE25" t="n">
-        <v>-1.208663849342864e-33</v>
+        <v>6.684695893535169e-28</v>
       </c>
       <c r="AF25" t="n">
-        <v>-3.656838627191826e-45</v>
+        <v>-1.678132570294556e-37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7.654300227807331e-17</v>
+        <v>-1.005840345185497e-16</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.948296903199971e-16</v>
+        <v>-3.077474396815563e-17</v>
       </c>
       <c r="C26" t="n">
-        <v>1.036530545777099e-17</v>
+        <v>1.059684751494876e-09</v>
       </c>
       <c r="D26" t="n">
-        <v>1.287638360197513e-11</v>
+        <v>-8.351734551688882e-17</v>
       </c>
       <c r="E26" t="n">
-        <v>2.608273566505261e-17</v>
+        <v>1.364359042443336e-16</v>
       </c>
       <c r="F26" t="n">
-        <v>1.3637313130855e-16</v>
+        <v>4.23904591146215e-18</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.979404296620199e-17</v>
+        <v>-2.944922178842763e-16</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.304368116353333e-21</v>
+        <v>1.429617825147337e-17</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.600356047816171e-17</v>
+        <v>-2.9153043131928e-17</v>
       </c>
       <c r="J26" t="n">
-        <v>1.168596828229479e-11</v>
+        <v>-1.057454159591688e-09</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.129078913898356e-11</v>
+        <v>-9.292244777423369e-10</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.235749472571253e-11</v>
+        <v>-1.142892011744517e-09</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.161246641792682e-11</v>
+        <v>1.017010875295406e-09</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.044166965188797e-16</v>
+        <v>-1.911456729761316e-16</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.545807764598952e-16</v>
+        <v>-1.786610846918101e-16</v>
       </c>
       <c r="P26" t="n">
-        <v>1.370158432354618e-18</v>
+        <v>9.063148997478354e-18</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.39219813371627e-16</v>
+        <v>1.657309832137343e-16</v>
       </c>
       <c r="R26" t="n">
-        <v>-3.133526569110879e-16</v>
+        <v>-1.866460173149305e-16</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.7058223040506982</v>
+        <v>-0.7058223033782087</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7447708603561951</v>
+        <v>-0.5519005314242503</v>
       </c>
       <c r="U26" t="n">
-        <v>9.045294005444738e-16</v>
+        <v>5.980589222168326e-17</v>
       </c>
       <c r="V26" t="n">
-        <v>4.583006598728654e-16</v>
+        <v>1.51611760213026e-15</v>
       </c>
       <c r="W26" t="n">
-        <v>2.070349169006094e-16</v>
+        <v>5.197895819780778e-16</v>
       </c>
       <c r="X26" t="n">
-        <v>-2.187351720207739e-16</v>
+        <v>7.619654775882108e-16</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.123285161867417e-16</v>
+        <v>-2.011166665129502e-16</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.297772778708159e-17</v>
+        <v>5.101297593124231e-17</v>
       </c>
       <c r="AA26" t="n">
-        <v>-2.476191981487008e-18</v>
+        <v>3.029214225387115e-19</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.397543960409865e-12</v>
+        <v>6.910986601010855e-10</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.047640820741351e-12</v>
+        <v>-6.62302881725071e-10</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.27629553622998e-19</v>
+        <v>-1.246165213205793e-19</v>
       </c>
       <c r="AE26" t="n">
-        <v>-1.077557036530475e-21</v>
+        <v>-1.8016987510279e-20</v>
       </c>
       <c r="AF26" t="n">
-        <v>-3.907032971930983e-23</v>
+        <v>-2.646926074284151e-19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-9.657275376049427e-11</v>
+        <v>7.947635231301941e-09</v>
       </c>
       <c r="B27" t="n">
-        <v>1.931448134156839e-10</v>
+        <v>1.58952677589675e-08</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.532328213458258e-09</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>-2.795183876962082e-08</v>
       </c>
       <c r="E27" t="n">
-        <v>-2.748677759563194e-16</v>
+        <v>-8.293908113770457e-15</v>
       </c>
       <c r="F27" t="n">
-        <v>1.261212591644083e-15</v>
+        <v>5.412053935352388e-16</v>
       </c>
       <c r="G27" t="n">
-        <v>2.752478982784629e-15</v>
+        <v>-1.973221434801846e-15</v>
       </c>
       <c r="H27" t="n">
-        <v>2.231109449157424e-28</v>
+        <v>2.352099570322209e-16</v>
       </c>
       <c r="I27" t="n">
-        <v>6.551933393861583e-16</v>
+        <v>3.647280671836821e-22</v>
       </c>
       <c r="J27" t="n">
-        <v>7.333849373048153e-17</v>
+        <v>5.802984670311603e-17</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.500764655710846e-15</v>
+        <v>-7.751347325496325e-16</v>
       </c>
       <c r="L27" t="n">
-        <v>-4.472945669126809e-16</v>
+        <v>4.236675059909138e-16</v>
       </c>
       <c r="M27" t="n">
-        <v>1.568189122208512e-16</v>
+        <v>-8.104019457105407e-16</v>
       </c>
       <c r="N27" t="n">
-        <v>-5.236966439592809e-16</v>
+        <v>-1.428571299612407e-16</v>
       </c>
       <c r="O27" t="n">
-        <v>6.034638361918262e-17</v>
+        <v>-1.958518579557836e-16</v>
       </c>
       <c r="P27" t="n">
-        <v>7.974921773391406e-19</v>
+        <v>-8.537813307520623e-16</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.485718656961375e-11</v>
+        <v>-1.222713013036763e-09</v>
       </c>
       <c r="R27" t="n">
-        <v>-1.379595894472684e-11</v>
+        <v>1.135376369914795e-09</v>
       </c>
       <c r="S27" t="n">
-        <v>9.088329189250905e-12</v>
+        <v>7.479490316475234e-10</v>
       </c>
       <c r="T27" t="n">
-        <v>-9.589719375416563e-12</v>
+        <v>5.848404918564845e-10</v>
       </c>
       <c r="U27" t="n">
-        <v>-9.654527332868136e-19</v>
+        <v>1.2450369448443e-17</v>
       </c>
       <c r="V27" t="n">
-        <v>-3.402181232370913e-18</v>
+        <v>-2.827436372258496e-18</v>
       </c>
       <c r="W27" t="n">
-        <v>2.753908179583623e-20</v>
+        <v>-1.405070450278233e-16</v>
       </c>
       <c r="X27" t="n">
-        <v>1.319291895427377e-16</v>
+        <v>-2.725662963264098e-18</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.816020666787715e-20</v>
+        <v>1.934005338841873e-18</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.603109444895723e-21</v>
+        <v>3.999624785197474e-19</v>
       </c>
       <c r="AA27" t="n">
-        <v>-8.584534055110993e-23</v>
+        <v>5.814238319380692e-19</v>
       </c>
       <c r="AB27" t="n">
-        <v>-8.19501867446091e-23</v>
+        <v>-5.550416453860037e-19</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.811598734222024e-23</v>
+        <v>5.290734833218275e-19</v>
       </c>
       <c r="AD27" t="n">
-        <v>-4.592102572171213e-30</v>
+        <v>2.252074993389259e-29</v>
       </c>
       <c r="AE27" t="n">
-        <v>7.074731526526881e-32</v>
+        <v>-1.436896587818146e-29</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.046081128445057e-34</v>
+        <v>1.698728042184279e-28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.107907385409888e-17</v>
+        <v>-1.848388669486362e-16</v>
       </c>
       <c r="B28" t="n">
-        <v>3.862929690097095e-11</v>
+        <v>3.179053709462332e-09</v>
       </c>
       <c r="C28" t="n">
-        <v>4.323165444692641e-16</v>
+        <v>-6.098449080894675e-16</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.663204967857599e-16</v>
+        <v>-2.651089943332778e-16</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.968754428190492e-15</v>
+        <v>-4.302256331975396e-18</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.811809907543436e-17</v>
+        <v>-4.356487968884399e-16</v>
       </c>
       <c r="G28" t="n">
-        <v>2.332876675325622e-15</v>
+        <v>8.631811928438503e-16</v>
       </c>
       <c r="H28" t="n">
-        <v>-9.657171269114236e-11</v>
+        <v>-2.286282978683092e-15</v>
       </c>
       <c r="I28" t="n">
-        <v>5.757569785576735e-16</v>
+        <v>-7.947634585053915e-09</v>
       </c>
       <c r="J28" t="n">
-        <v>-3.877868514142798e-16</v>
+        <v>-2.493279555283552e-15</v>
       </c>
       <c r="K28" t="n">
-        <v>7.738193209439668e-16</v>
+        <v>-3.596852936306027e-15</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.7038021735887333</v>
+        <v>-0.790915353514044</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.6613581045475426</v>
+        <v>0.7038021198604347</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.291226405394404e-15</v>
+        <v>1.134964805781905e-15</v>
       </c>
       <c r="O28" t="n">
-        <v>-9.693765834043644e-16</v>
+        <v>4.961954324728188e-16</v>
       </c>
       <c r="P28" t="n">
-        <v>6.530330261305997e-18</v>
+        <v>1.239374278498025e-16</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.769022354410981e-22</v>
+        <v>3.390625472115882e-20</v>
       </c>
       <c r="R28" t="n">
-        <v>2.055194481267716e-21</v>
+        <v>2.210258184782541e-19</v>
       </c>
       <c r="S28" t="n">
-        <v>1.23931761411227e-11</v>
+        <v>1.019930499440638e-09</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.307709242147447e-11</v>
+        <v>7.975095702463025e-10</v>
       </c>
       <c r="U28" t="n">
-        <v>4.525521166047075e-18</v>
+        <v>-9.053899625054182e-17</v>
       </c>
       <c r="V28" t="n">
-        <v>1.653619336942481e-17</v>
+        <v>-6.215920867317677e-19</v>
       </c>
       <c r="W28" t="n">
-        <v>1.052639993910658e-11</v>
+        <v>-6.781989875458705e-10</v>
       </c>
       <c r="X28" t="n">
-        <v>-7.95037696590037e-12</v>
+        <v>8.662990207864512e-10</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.379595895441388e-11</v>
+        <v>1.135376369628047e-09</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.133345799909777e-22</v>
+        <v>6.178079698767133e-20</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.434017320789371e-27</v>
+        <v>-2.007020859519428e-25</v>
       </c>
       <c r="AB28" t="n">
-        <v>-9.996125564127592e-23</v>
+        <v>-6.769593892673166e-19</v>
       </c>
       <c r="AC28" t="n">
-        <v>-9.515815419397226e-23</v>
+        <v>6.445395362727934e-19</v>
       </c>
       <c r="AD28" t="n">
-        <v>-1.460920969535942e-27</v>
+        <v>6.22160438133563e-26</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.584527008928187e-23</v>
+        <v>-5.814238255110056e-19</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.524953024514632e-34</v>
+        <v>1.965185825446625e-28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.214221107409671e-15</v>
+        <v>1.606688164617203e-15</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.628281122543138e-15</v>
+        <v>-1.589526637543465e-08</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.931440048515908e-10</v>
+        <v>2.81348125110423e-16</v>
       </c>
       <c r="E29" t="n">
-        <v>6.025396181933356e-18</v>
+        <v>1.238486266653426e-15</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.354130496627366e-15</v>
+        <v>1.144787380188957e-15</v>
       </c>
       <c r="G29" t="n">
-        <v>4.578778927858527e-11</v>
+        <v>-3.768207478802887e-09</v>
       </c>
       <c r="H29" t="n">
-        <v>-7.659434286830611e-21</v>
+        <v>4.306924073067525e-09</v>
       </c>
       <c r="I29" t="n">
-        <v>-4.553845069206648e-11</v>
+        <v>1.529621829927048e-14</v>
       </c>
       <c r="J29" t="n">
-        <v>3.32032079026982e-11</v>
+        <v>-2.393186959761079e-09</v>
       </c>
       <c r="K29" t="n">
-        <v>3.441034348556628e-11</v>
+        <v>2.83197779616248e-09</v>
       </c>
       <c r="L29" t="n">
-        <v>2.718792259763794e-11</v>
+        <v>2.514362259271445e-09</v>
       </c>
       <c r="M29" t="n">
-        <v>2.554730969604176e-11</v>
+        <v>-2.237424767212898e-09</v>
       </c>
       <c r="N29" t="n">
-        <v>-2.485056480265208e-16</v>
+        <v>-1.844429030471915e-19</v>
       </c>
       <c r="O29" t="n">
-        <v>8.943289561089159e-19</v>
+        <v>1.582389072004184e-21</v>
       </c>
       <c r="P29" t="n">
-        <v>2.414292859233286e-11</v>
+        <v>1.986908637998274e-09</v>
       </c>
       <c r="Q29" t="n">
-        <v>-4.47205312510586e-22</v>
+        <v>3.0288861118915e-18</v>
       </c>
       <c r="R29" t="n">
-        <v>4.037273138112501e-22</v>
+        <v>-2.734411013313317e-18</v>
       </c>
       <c r="S29" t="n">
-        <v>-2.596364954868359e-22</v>
+        <v>-1.756307624342216e-18</v>
       </c>
       <c r="T29" t="n">
-        <v>4.252902696418299e-16</v>
+        <v>-1.651615023586165e-16</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.240077871682292e-17</v>
+        <v>-1.565268774313524e-17</v>
       </c>
       <c r="V29" t="n">
-        <v>-4.526840882603466e-17</v>
+        <v>1.563500403582729e-18</v>
       </c>
       <c r="W29" t="n">
-        <v>-2.10841661475358e-22</v>
+        <v>-7.540326962138151e-17</v>
       </c>
       <c r="X29" t="n">
-        <v>2.276729425403376e-17</v>
+        <v>-1.428005859637085e-18</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.7113352630533e-22</v>
+        <v>-1.836372878620766e-18</v>
       </c>
       <c r="Z29" t="n">
-        <v>-2.749787796086362e-28</v>
+        <v>4.971954852897479e-27</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.427914266205024e-33</v>
+        <v>-7.959856150504202e-28</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.350698713975846e-33</v>
+        <v>7.527595074338687e-28</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.274985833637319e-33</v>
+        <v>-7.107375263506345e-28</v>
       </c>
       <c r="AD29" t="n">
-        <v>2.798329498615697e-38</v>
+        <v>-1.107694666907586e-34</v>
       </c>
       <c r="AE29" t="n">
-        <v>-1.130859222646716e-33</v>
+        <v>6.303378237996849e-28</v>
       </c>
       <c r="AF29" t="n">
-        <v>-3.506810987368344e-45</v>
+        <v>-1.609475905102495e-37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-3.862872813060573e-11</v>
+        <v>3.179054355766228e-09</v>
       </c>
       <c r="B30" t="n">
-        <v>1.487658746235958e-16</v>
+        <v>-3.856348544990749e-16</v>
       </c>
       <c r="C30" t="n">
-        <v>1.308498554013805e-17</v>
+        <v>2.402662988644155e-16</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.298836493980962e-15</v>
+        <v>-5.887150290080276e-16</v>
       </c>
       <c r="E30" t="n">
-        <v>3.229032195148777e-17</v>
+        <v>3.875131656563946e-16</v>
       </c>
       <c r="F30" t="n">
-        <v>-6.243684832078159e-16</v>
+        <v>2.821232790754116e-15</v>
       </c>
       <c r="G30" t="n">
-        <v>4.783756040538189e-15</v>
+        <v>8.558237008216454e-16</v>
       </c>
       <c r="H30" t="n">
-        <v>-1.931434253821508e-10</v>
+        <v>2.949125643956883e-16</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.548442359212949e-15</v>
+        <v>-1.589526917009962e-08</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7260539312058304</v>
+        <v>-0.7983160305775362</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.7015101052591064</v>
+        <v>-0.7015101087246874</v>
       </c>
       <c r="L30" t="n">
-        <v>-1.420642688686208e-15</v>
+        <v>4.657765407592275e-15</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13657234818616e-15</v>
+        <v>-2.535174268078627e-15</v>
       </c>
       <c r="N30" t="n">
-        <v>-3.073109921579532e-15</v>
+        <v>3.863615455900346e-16</v>
       </c>
       <c r="O30" t="n">
-        <v>9.401624204301479e-16</v>
+        <v>8.023226980118059e-16</v>
       </c>
       <c r="P30" t="n">
-        <v>4.295795813835529e-17</v>
+        <v>-4.931419018001571e-16</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.695502497621338e-22</v>
+        <v>1.862488778068712e-20</v>
       </c>
       <c r="R30" t="n">
-        <v>2.903563622680367e-21</v>
+        <v>1.567821926598216e-19</v>
       </c>
       <c r="S30" t="n">
-        <v>1.136041146501221e-11</v>
+        <v>9.34936291196571e-10</v>
       </c>
       <c r="T30" t="n">
-        <v>-1.198733397768974e-11</v>
+        <v>7.3105075931563e-10</v>
       </c>
       <c r="U30" t="n">
-        <v>1.287193184871864e-11</v>
+        <v>5.232220659691368e-10</v>
       </c>
       <c r="V30" t="n">
-        <v>7.059275764269444e-12</v>
+        <v>-8.621219495201e-10</v>
       </c>
       <c r="W30" t="n">
-        <v>9.735879789070949e-12</v>
+        <v>9.44714859060076e-10</v>
       </c>
       <c r="X30" t="n">
-        <v>1.165458424837865e-11</v>
+        <v>8.012409915557051e-10</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.75348423578532e-21</v>
+        <v>3.118329594257061e-19</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.810086316430483e-22</v>
+        <v>5.960960272481791e-20</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.390219297139382e-27</v>
+        <v>-1.068684594773242e-26</v>
       </c>
       <c r="AB30" t="n">
-        <v>-9.47902985068353e-23</v>
+        <v>-6.419921797787746e-19</v>
       </c>
       <c r="AC30" t="n">
-        <v>-9.027662384972853e-23</v>
+        <v>6.11444684223341e-19</v>
       </c>
       <c r="AD30" t="n">
-        <v>-8.584565200009885e-23</v>
+        <v>5.814238356377722e-19</v>
       </c>
       <c r="AE30" t="n">
-        <v>-1.574664618226707e-29</v>
+        <v>3.365194921047323e-28</v>
       </c>
       <c r="AF30" t="n">
-        <v>3.392244941584839e-34</v>
+        <v>1.891640818907252e-28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B31" t="n">
-        <v>-7.712745181729469e-16</v>
+        <v>-4.968069410686772e-16</v>
       </c>
       <c r="C31" t="n">
-        <v>1.331555527755083e-16</v>
+        <v>-7.947633852818583e-09</v>
       </c>
       <c r="D31" t="n">
-        <v>-9.657299909139188e-11</v>
+        <v>7.780004282528156e-17</v>
       </c>
       <c r="E31" t="n">
-        <v>3.430381776757096e-12</v>
+        <v>-5.298421592205522e-09</v>
       </c>
       <c r="F31" t="n">
-        <v>-6.438017162200621e-11</v>
+        <v>1.726514675253329e-10</v>
       </c>
       <c r="G31" t="n">
-        <v>3.394463509719579e-11</v>
+        <v>-2.793577227984814e-09</v>
       </c>
       <c r="H31" t="n">
-        <v>8.689798796430738e-21</v>
+        <v>-2.314535116302087e-09</v>
       </c>
       <c r="I31" t="n">
-        <v>3.413322401572071e-11</v>
+        <v>-9.310583024662379e-15</v>
       </c>
       <c r="J31" t="n">
-        <v>-2.80465659280333e-11</v>
+        <v>2.537889280053945e-09</v>
       </c>
       <c r="K31" t="n">
-        <v>2.709789139931206e-11</v>
+        <v>2.230138359498287e-09</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.529170519464753e-16</v>
+        <v>6.592007930954459e-17</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.773989776097541e-16</v>
+        <v>-1.982835381282357e-16</v>
       </c>
       <c r="N31" t="n">
-        <v>7.059621934410753e-16</v>
+        <v>-2.997833309700977e-16</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.110223024613427e-15</v>
+        <v>5.145304329762109e-21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.146037781328441e-11</v>
+        <v>1.766141016496508e-09</v>
       </c>
       <c r="Q31" t="n">
-        <v>-3.985510978921083e-22</v>
+        <v>2.699375687550562e-18</v>
       </c>
       <c r="R31" t="n">
-        <v>3.608310834262667e-22</v>
+        <v>-2.443865259951539e-18</v>
       </c>
       <c r="S31" t="n">
-        <v>-4.633422618872318e-22</v>
+        <v>-3.13542006056842e-18</v>
       </c>
       <c r="T31" t="n">
-        <v>5.368218833531711e-16</v>
+        <v>-1.929771439818049e-16</v>
       </c>
       <c r="U31" t="n">
-        <v>1.17431046730784e-17</v>
+        <v>-6.423682915969306e-17</v>
       </c>
       <c r="V31" t="n">
-        <v>4.286923637733526e-17</v>
+        <v>1.421119471756135e-18</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.913411064965892e-22</v>
+        <v>9.39599194251217e-17</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.587784187243157e-16</v>
+        <v>-1.295938060013437e-18</v>
       </c>
       <c r="Y31" t="n">
-        <v>-3.562436149972793e-30</v>
+        <v>5.718428547628126e-26</v>
       </c>
       <c r="Z31" t="n">
-        <v>-8.648985718640565e-31</v>
+        <v>9.080000245124948e-27</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.341627028772059e-33</v>
+        <v>-7.47835982653249e-28</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.269476521892213e-33</v>
+        <v>7.07566822328241e-28</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.199096525241462e-33</v>
+        <v>-6.683984181647998e-28</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.130881261225128e-33</v>
+        <v>-6.30337905009662e-28</v>
       </c>
       <c r="AE31" t="n">
-        <v>3.491687953817414e-39</v>
+        <v>-9.770540172578653e-36</v>
       </c>
       <c r="AF31" t="n">
-        <v>-3.358990050557561e-45</v>
+        <v>-1.542098543278508e-37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-2.901325835064928e-21</v>
+        <v>1.965130603188921e-17</v>
       </c>
       <c r="B32" t="n">
-        <v>4.04129546115227e-21</v>
+        <v>2.737146799066392e-17</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.493301987936694e-17</v>
+        <v>-3.029437641733467e-23</v>
       </c>
       <c r="D32" t="n">
-        <v>7.22870069851293e-25</v>
+        <v>8.383698007595824e-17</v>
       </c>
       <c r="E32" t="n">
-        <v>1.365225760493857e-20</v>
+        <v>1.128671466284069e-22</v>
       </c>
       <c r="F32" t="n">
-        <v>1.480723882084551e-25</v>
+        <v>-9.259217428806256e-17</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.531465889139642e-10</v>
+        <v>2.083339453618062e-08</v>
       </c>
       <c r="H32" t="n">
-        <v>-1</v>
+        <v>-1.236664919923197e-07</v>
       </c>
       <c r="I32" t="n">
-        <v>5.763729294210241e-10</v>
+        <v>-0.9999999999930751</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.402325432851742e-10</v>
+        <v>1.26894481889196e-08</v>
       </c>
       <c r="K32" t="n">
-        <v>1.354920646700379e-10</v>
+        <v>1.1150692003799e-08</v>
       </c>
       <c r="L32" t="n">
-        <v>6.796738129921532e-11</v>
+        <v>6.285906217476927e-09</v>
       </c>
       <c r="M32" t="n">
-        <v>6.386848485832015e-11</v>
+        <v>-5.593562068871368e-09</v>
       </c>
       <c r="N32" t="n">
-        <v>-6.438114179409674e-11</v>
+        <v>5.29842305673509e-09</v>
       </c>
       <c r="O32" t="n">
-        <v>-4.828585634557375e-11</v>
+        <v>-3.973817292551348e-09</v>
       </c>
       <c r="P32" t="n">
-        <v>3.862868507537852e-11</v>
+        <v>3.179053834041073e-09</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.41501851691345e-32</v>
+        <v>-1.222125638306481e-25</v>
       </c>
       <c r="R32" t="n">
-        <v>2.660928536771404e-31</v>
+        <v>-7.668086558172887e-26</v>
       </c>
       <c r="S32" t="n">
-        <v>-3.52911482195329e-22</v>
+        <v>-2.390241051409988e-18</v>
       </c>
       <c r="T32" t="n">
-        <v>3.723240972841814e-22</v>
+        <v>-1.868992733926777e-18</v>
       </c>
       <c r="U32" t="n">
-        <v>-3.874630003697868e-22</v>
+        <v>-1.296117912712045e-18</v>
       </c>
       <c r="V32" t="n">
-        <v>-2.125384217898404e-22</v>
+        <v>2.135635388212292e-18</v>
       </c>
       <c r="W32" t="n">
-        <v>-5.672879844757411e-22</v>
+        <v>-7.779828591419847e-19</v>
       </c>
       <c r="X32" t="n">
-        <v>-1.278921316560353e-22</v>
+        <v>-3.842195868400047e-18</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.608310834283884e-22</v>
+        <v>-2.443879880843626e-18</v>
       </c>
       <c r="Z32" t="n">
-        <v>-3.255392161376623e-22</v>
+        <v>2.204850910258152e-18</v>
       </c>
       <c r="AA32" t="n">
-        <v>-3.354341201868264e-37</v>
+        <v>6.555588288796816e-34</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.609652804107673e-33</v>
+        <v>8.970040877874507e-28</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.517183517755415e-33</v>
+        <v>-8.457089958023746e-28</v>
       </c>
       <c r="AD32" t="n">
-        <v>1.427990177061757e-33</v>
+        <v>-7.959860265572903e-28</v>
       </c>
       <c r="AE32" t="n">
-        <v>-1.341677359024754e-33</v>
+        <v>7.478360161351283e-28</v>
       </c>
       <c r="AF32" t="n">
-        <v>-3.964274377193976e-45</v>
+        <v>-1.819235461200591e-37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-2.146038059803279e-11</v>
+        <v>1.766141018911725e-09</v>
       </c>
       <c r="B33" t="n">
-        <v>2.414292817278645e-11</v>
+        <v>1.986908646316122e-09</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.759236057160663e-11</v>
+        <v>-6.032906554009099e-16</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.054084421708095e-21</v>
+        <v>2.270752624536577e-09</v>
       </c>
       <c r="E33" t="n">
-        <v>3.214485592077874e-11</v>
+        <v>4.964180983316252e-16</v>
       </c>
       <c r="F33" t="n">
-        <v>3.090645829509124e-21</v>
+        <v>-2.647804211308775e-09</v>
       </c>
       <c r="G33" t="n">
-        <v>1.199397861480085e-21</v>
+        <v>5.706723454766083e-16</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.862868507537839e-11</v>
+        <v>-8.267174167441259e-16</v>
       </c>
       <c r="I33" t="n">
-        <v>2.370476649773176e-17</v>
+        <v>-3.179053834020602e-09</v>
       </c>
       <c r="J33" t="n">
-        <v>-2.720592151571474e-16</v>
+        <v>-1.279751713294662e-16</v>
       </c>
       <c r="K33" t="n">
-        <v>1.283564062971503e-20</v>
+        <v>4.076648856620204e-16</v>
       </c>
       <c r="L33" t="n">
-        <v>1.127903890593191e-20</v>
+        <v>5.553029185580396e-16</v>
       </c>
       <c r="M33" t="n">
-        <v>1.282405855940294e-17</v>
+        <v>1.065727686507689e-15</v>
       </c>
       <c r="N33" t="n">
-        <v>-9.947821908208798e-21</v>
+        <v>6.737588500326655e-17</v>
       </c>
       <c r="O33" t="n">
-        <v>-1.67870683074411e-20</v>
+        <v>-1.13696816270113e-16</v>
       </c>
       <c r="P33" t="n">
         <v>-1</v>
       </c>
       <c r="Q33" t="n">
-        <v>4.368410026020534e-32</v>
+        <v>-2.414502392089022e-26</v>
       </c>
       <c r="R33" t="n">
-        <v>-3.328366719055526e-32</v>
+        <v>1.944601502872716e-26</v>
       </c>
       <c r="S33" t="n">
-        <v>4.27212593442614e-32</v>
+        <v>2.258703703305802e-26</v>
       </c>
       <c r="T33" t="n">
-        <v>1.48394440846727e-26</v>
+        <v>2.004730054774996e-24</v>
       </c>
       <c r="U33" t="n">
-        <v>1.351639012212709e-27</v>
+        <v>2.091056278868302e-22</v>
       </c>
       <c r="V33" t="n">
-        <v>4.934067199416498e-27</v>
+        <v>-1.857412544011061e-26</v>
       </c>
       <c r="W33" t="n">
-        <v>2.979840205994453e-32</v>
+        <v>1.456990037744391e-23</v>
       </c>
       <c r="X33" t="n">
-        <v>-5.497901365190389e-27</v>
+        <v>1.574576734943777e-26</v>
       </c>
       <c r="Y33" t="n">
-        <v>-1.608982258502564e-32</v>
+        <v>9.402645665708151e-27</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.45141656147904e-32</v>
+        <v>-8.023460105837521e-27</v>
       </c>
       <c r="AA33" t="n">
-        <v>-3.799850917212641e-44</v>
+        <v>1.741328277633716e-36</v>
       </c>
       <c r="AB33" t="n">
-        <v>-3.513214508250902e-44</v>
+        <v>-1.618676744024765e-36</v>
       </c>
       <c r="AC33" t="n">
-        <v>-3.29505065608134e-44</v>
+        <v>1.502133503683738e-36</v>
       </c>
       <c r="AD33" t="n">
-        <v>-3.023033060778813e-44</v>
+        <v>1.392012156676302e-36</v>
       </c>
       <c r="AE33" t="n">
-        <v>2.809222801471871e-44</v>
+        <v>-1.287567884201524e-36</v>
       </c>
       <c r="AF33" t="n">
-        <v>5.433546500919073e-56</v>
+        <v>2.053413318689756e-46</v>
       </c>
     </row>
   </sheetData>

--- a/final_eigenvec_five.xlsx
+++ b/final_eigenvec_five.xlsx
@@ -597,97 +597,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.900701371875323e-36</v>
+        <v>-1.827791517710357e-43</v>
       </c>
       <c r="B2" t="n">
-        <v>1.518431279784966e-35</v>
+        <v>3.314494287260458e-43</v>
       </c>
       <c r="C2" t="n">
-        <v>6.319256724543312e-28</v>
+        <v>-2.123920920444823e-42</v>
       </c>
       <c r="D2" t="n">
-        <v>7.523662200363101e-38</v>
+        <v>1.133710391222919e-33</v>
       </c>
       <c r="E2" t="n">
-        <v>6.727745770199191e-28</v>
+        <v>-6.433232199413159e-35</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.192268665493939e-29</v>
+        <v>1.206995636018661e-33</v>
       </c>
       <c r="G2" t="n">
-        <v>1.012923581711809e-27</v>
+        <v>-1.817242188073276e-33</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.708298584850596e-28</v>
+        <v>-6.534990198235331e-44</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.108188273228365e-34</v>
+        <v>1.110106659731903e-35</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.39895946576698e-28</v>
+        <v>3.698968859741574e-35</v>
       </c>
       <c r="K2" t="n">
-        <v>-1.069249897311412e-27</v>
+        <v>-1.918294779810632e-33</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.389988185270656e-28</v>
+        <v>-2.045062583420979e-33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.139910281193405e-27</v>
+        <v>1.377989965131127e-34</v>
       </c>
       <c r="N2" t="n">
-        <v>-8.522047967839601e-28</v>
+        <v>1.528903596886422e-33</v>
       </c>
       <c r="O2" t="n">
-        <v>9.002781253438792e-28</v>
+        <v>1.61514986679154e-33</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.42526296472876e-43</v>
+        <v>-9.156305027489999e-53</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.497265400471966e-19</v>
+        <v>-5.163601004666334e-23</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.636479740832831e-19</v>
+        <v>5.369146545377746e-23</v>
       </c>
       <c r="S2" t="n">
-        <v>-5.347174046104374e-19</v>
+        <v>-7.894932215681879e-23</v>
       </c>
       <c r="T2" t="n">
-        <v>1.075791916155069e-19</v>
+        <v>4.180649249454384e-24</v>
       </c>
       <c r="U2" t="n">
-        <v>1.890921083973777e-19</v>
+        <v>-7.942897471596553e-23</v>
       </c>
       <c r="V2" t="n">
-        <v>5.574776849979709e-19</v>
+        <v>2.378286992378431e-23</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.124318340314322e-19</v>
+        <v>-8.547435988182703e-23</v>
       </c>
       <c r="X2" t="n">
-        <v>-5.789109599522975e-19</v>
+        <v>-1.855071368072411e-23</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.262334793230714e-19</v>
+        <v>6.293201601908886e-23</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.436968890676704e-19</v>
+        <v>-6.551043286128563e-23</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.541505477201605e-10</v>
+        <v>-5.518383582351378e-12</v>
       </c>
       <c r="AB2" t="n">
-        <v>-4.675079167707381e-10</v>
+        <v>-5.680688981832305e-12</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.816748233395392e-10</v>
+        <v>-5.85283107219085e-12</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.967271615689276e-10</v>
+        <v>-6.035732043196613e-12</v>
       </c>
       <c r="AE2" t="n">
-        <v>-5.127506183937267e-10</v>
+        <v>6.230433076847944e-12</v>
       </c>
       <c r="AF2" t="n">
         <v>-1</v>
@@ -695,3040 +695,3040 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.295818488391492e-21</v>
+        <v>-5.599442899377583e-19</v>
       </c>
       <c r="B3" t="n">
-        <v>4.662293738374183e-20</v>
+        <v>-1.662501796322137e-18</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.131591319690026e-20</v>
+        <v>-3.663404994658621e-29</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.110558889290625e-26</v>
+        <v>-9.436082087761052e-21</v>
       </c>
       <c r="E3" t="n">
-        <v>4.785905596327804e-19</v>
+        <v>3.050733518091453e-22</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.632876917307417e-20</v>
+        <v>-5.709915514398023e-21</v>
       </c>
       <c r="G3" t="n">
-        <v>1.162189647568767e-18</v>
+        <v>4.593213044844688e-21</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.97645433246615e-19</v>
+        <v>2.253393694355249e-31</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.432883625837325e-25</v>
+        <v>-2.464278670159032e-23</v>
       </c>
       <c r="J3" t="n">
-        <v>7.843672934553373e-19</v>
+        <v>-1.77343461056347e-22</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.301459373670376e-19</v>
+        <v>2.497809381541083e-21</v>
       </c>
       <c r="L3" t="n">
-        <v>8.329148755377394e-19</v>
+        <v>1.273054200742255e-21</v>
       </c>
       <c r="M3" t="n">
-        <v>8.154621182752423e-19</v>
+        <v>4.965947179878541e-23</v>
       </c>
       <c r="N3" t="n">
-        <v>4.460194140901715e-20</v>
+        <v>-4.37043759878798e-22</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.984676424265804e-20</v>
+        <v>-2.251063001649682e-22</v>
       </c>
       <c r="P3" t="n">
-        <v>-6.618718383422518e-22</v>
+        <v>-3.084336335018808e-26</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.623029043256509e-10</v>
+        <v>-8.047637111532564e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>-6.910986599011569e-10</v>
+        <v>8.39755653967923e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>-5.118196684153812e-10</v>
+        <v>-6.219135914660827e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>6.025101601907836e-10</v>
+        <v>-5.858573533788676e-12</v>
       </c>
       <c r="U3" t="n">
-        <v>6.841150894192139e-10</v>
+        <v>-4.593005456985946e-12</v>
       </c>
       <c r="V3" t="n">
-        <v>5.36744273101846e-10</v>
+        <v>8.092742782704028e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>1.147614695650817e-18</v>
+        <v>-1.249601521086208e-17</v>
       </c>
       <c r="X3" t="n">
-        <v>-1.207800632412747e-17</v>
+        <v>-6.026474457999031e-18</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.680854697358677e-17</v>
+        <v>1.450214928588351e-17</v>
       </c>
       <c r="Z3" t="n">
-        <v>-5.120914890023886e-18</v>
+        <v>4.7359365310879e-18</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.332935607406717e-14</v>
+        <v>8.011068025664707e-15</v>
       </c>
       <c r="AC3" t="n">
-        <v>-6.709458498818232e-15</v>
+        <v>4.580625059469796e-15</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.387172938549831e-15</v>
+        <v>7.789365212435591e-15</v>
       </c>
       <c r="AE3" t="n">
-        <v>-5.56063858703075e-15</v>
+        <v>-4.397839405125657e-15</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.54150250217049e-10</v>
+        <v>5.517806383741726e-12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.183638076045761e-21</v>
+        <v>-1.145710417158081e-17</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.516552567010459e-20</v>
+        <v>-1.521373633383599e-18</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.390485602617499e-19</v>
+        <v>3.287247172728611e-29</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.999668225965794e-26</v>
+        <v>-1.542043306599744e-20</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.649296972333176e-19</v>
+        <v>5.016881052909594e-22</v>
       </c>
       <c r="F4" t="n">
-        <v>1.714532738966034e-20</v>
+        <v>-9.406169330197017e-21</v>
       </c>
       <c r="G4" t="n">
-        <v>1.777642258360699e-19</v>
+        <v>7.709932492088114e-21</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.506640557197139e-19</v>
+        <v>2.878424946169069e-31</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.403906980345202e-24</v>
+        <v>4.831006431156605e-23</v>
       </c>
       <c r="J4" t="n">
-        <v>6.065433298739464e-19</v>
+        <v>-1.806828215190716e-22</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.328676186581157e-19</v>
+        <v>4.242771004529391e-21</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.57916169891708e-19</v>
+        <v>2.136252751985987e-21</v>
       </c>
       <c r="M4" t="n">
-        <v>1.313577661038016e-18</v>
+        <v>-1.452301421696189e-22</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.043479519864273e-18</v>
+        <v>-6.501531561272302e-22</v>
       </c>
       <c r="O4" t="n">
-        <v>1.138165092499443e-18</v>
+        <v>-2.267485003157184e-22</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.257268096134863e-21</v>
+        <v>-2.197331930366016e-26</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.219327082124473e-17</v>
+        <v>1.208428606772175e-17</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.628067402200436e-18</v>
+        <v>1.432677071033885e-17</v>
       </c>
       <c r="S4" t="n">
-        <v>-2.018771327316936e-17</v>
+        <v>5.011157987284977e-18</v>
       </c>
       <c r="T4" t="n">
-        <v>2.620435702880273e-17</v>
+        <v>-4.932807995385632e-18</v>
       </c>
       <c r="U4" t="n">
-        <v>5.74656761927974e-10</v>
+        <v>-3.85818862294608e-12</v>
       </c>
       <c r="V4" t="n">
-        <v>4.508652428635593e-10</v>
+        <v>6.797974615357644e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>3.673578320181383e-10</v>
+        <v>-5.701793071265472e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>-4.692453191937338e-10</v>
+        <v>4.306392329016883e-12</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.910986449080927e-10</v>
+        <v>8.397552814767802e-12</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.225122171950304e-10</v>
+        <v>-8.779248664190844e-12</v>
       </c>
       <c r="AA4" t="n">
-        <v>-4.904078045206378e-15</v>
+        <v>-4.239298756418482e-15</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.491199576619727e-15</v>
+        <v>-5.94586853186472e-15</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.908110097165631e-15</v>
+        <v>-7.515134129810308e-15</v>
       </c>
       <c r="AD4" t="n">
-        <v>4.784239276390822e-15</v>
+        <v>-2.548909230695494e-14</v>
       </c>
       <c r="AE4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.127510036421319e-10</v>
+        <v>6.231098231485231e-12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.746023047177648e-16</v>
+        <v>-2.625296816699531e-16</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.454459633668357e-16</v>
+        <v>1.649254185030312e-17</v>
       </c>
       <c r="C5" t="n">
-        <v>1.118057168267979e-16</v>
+        <v>4.031156212698485e-18</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.174963865580175e-16</v>
+        <v>1.037211720409573e-16</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.043364342563788e-16</v>
+        <v>-7.726378863561005e-18</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.300405017136073e-17</v>
+        <v>3.937677359725259e-17</v>
       </c>
       <c r="G5" t="n">
-        <v>8.074729392542098e-10</v>
+        <v>-9.811454690081348e-12</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.229123886034134e-10</v>
+        <v>3.506550446350686e-21</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.2651284373187e-15</v>
+        <v>9.758412147910703e-12</v>
       </c>
       <c r="J5" t="n">
-        <v>7.363651897515287e-10</v>
+        <v>-1.021633674734625e-11</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.713781027038806e-10</v>
+        <v>-1.058823777208951e-11</v>
       </c>
       <c r="L5" t="n">
-        <v>8.10560111778175e-10</v>
+        <v>-1.143424961572321e-11</v>
       </c>
       <c r="M5" t="n">
-        <v>9.409949493257475e-10</v>
+        <v>1.207263389244443e-11</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.233733670262651e-18</v>
+        <v>1.444185177953975e-16</v>
       </c>
       <c r="O5" t="n">
-        <v>1.035333739486273e-16</v>
+        <v>4.778364243537e-16</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.629535552294076e-17</v>
+        <v>-4.439433298510189e-18</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.929403965851327e-16</v>
+        <v>4.307692634113385e-16</v>
       </c>
       <c r="R5" t="n">
-        <v>-2.922315318384917e-16</v>
+        <v>-3.229634260134936e-16</v>
       </c>
       <c r="S5" t="n">
-        <v>4.440450963664663e-15</v>
+        <v>5.932477248447935e-16</v>
       </c>
       <c r="T5" t="n">
-        <v>-5.750288316882038e-15</v>
+        <v>5.131890080165423e-17</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9038170929264616</v>
+        <v>-0.4993902634358277</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7091184522359714</v>
+        <v>0.8799096951630629</v>
       </c>
       <c r="W5" t="n">
-        <v>9.97639363643876e-16</v>
+        <v>2.669624553217737e-17</v>
       </c>
       <c r="X5" t="n">
-        <v>7.846418514680931e-16</v>
+        <v>1.539145255593097e-15</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.268788834737192e-16</v>
+        <v>9.905449614523166e-16</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.062316449921681e-16</v>
+        <v>3.592595703023294e-16</v>
       </c>
       <c r="AA5" t="n">
-        <v>-7.569174993352347e-10</v>
+        <v>9.197332558559731e-12</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.130317552035303e-17</v>
+        <v>-2.431835216053149e-17</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.917596192734461e-18</v>
+        <v>-3.446541287498567e-18</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1.336041017479673e-16</v>
+        <v>-2.267324473084682e-17</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.358106590038891e-10</v>
+        <v>-7.72575960397094e-12</v>
       </c>
       <c r="AF5" t="n">
-        <v>-2.744492035318816e-19</v>
+        <v>-4.052137814563238e-23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.230366337186036e-20</v>
+        <v>1.327999100913151e-17</v>
       </c>
       <c r="B6" t="n">
-        <v>1.110802058726508e-19</v>
+        <v>3.836112651628726e-18</v>
       </c>
       <c r="C6" t="n">
-        <v>9.52587758171647e-19</v>
+        <v>-1.117015989397576e-28</v>
       </c>
       <c r="D6" t="n">
-        <v>1.480854910441448e-25</v>
+        <v>1.533428899339725e-20</v>
       </c>
       <c r="E6" t="n">
-        <v>1.482756862543445e-18</v>
+        <v>-5.143929361385736e-22</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.561785917092634e-20</v>
+        <v>9.638846083765877e-21</v>
       </c>
       <c r="G6" t="n">
-        <v>1.163956389787783e-18</v>
+        <v>-8.1569855345007e-21</v>
       </c>
       <c r="H6" t="n">
-        <v>4.750252797036686e-19</v>
+        <v>-3.175034950546446e-31</v>
       </c>
       <c r="I6" t="n">
-        <v>2.040735593280872e-24</v>
+        <v>-6.27236720943474e-23</v>
       </c>
       <c r="J6" t="n">
-        <v>-8.42643682133839e-19</v>
+        <v>1.97740483821963e-22</v>
       </c>
       <c r="K6" t="n">
-        <v>-9.866283847332012e-19</v>
+        <v>-4.731051107484573e-21</v>
       </c>
       <c r="L6" t="n">
-        <v>6.564545135781482e-19</v>
+        <v>-2.685801559649722e-21</v>
       </c>
       <c r="M6" t="n">
-        <v>9.333270567219525e-19</v>
+        <v>3.017278266394497e-22</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.224128100509649e-18</v>
+        <v>1.117027725316286e-21</v>
       </c>
       <c r="O6" t="n">
-        <v>1.271717071667792e-18</v>
+        <v>6.390144362051721e-22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.399802488115781e-21</v>
+        <v>9.501201567598198e-26</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.793587050201281e-17</v>
+        <v>-3.099144533939137e-18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.375102152064536e-17</v>
+        <v>-3.278285613281382e-19</v>
       </c>
       <c r="S6" t="n">
-        <v>-4.504012783799096e-10</v>
+        <v>-5.472825265568684e-12</v>
       </c>
       <c r="T6" t="n">
-        <v>5.302088612084903e-10</v>
+        <v>-5.155520638310581e-12</v>
       </c>
       <c r="U6" t="n">
-        <v>-2.834121672626451e-10</v>
+        <v>-6.972213244921076e-12</v>
       </c>
       <c r="V6" t="n">
-        <v>4.669825910562253e-10</v>
+        <v>-3.823818363237572e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>-5.750439445692208e-10</v>
+        <v>-5.926240165606262e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>-4.87711889108189e-10</v>
+        <v>-7.094039285469427e-12</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.498797295625891e-18</v>
+        <v>-2.781830282498069e-17</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.56917588027089e-10</v>
+        <v>-9.197299887038122e-12</v>
       </c>
       <c r="AA6" t="n">
-        <v>-1.859550494017344e-15</v>
+        <v>-6.002256148291101e-15</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.904951429226425e-15</v>
+        <v>-9.982378816383604e-15</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.869484572366012e-15</v>
+        <v>-2.863677935082734e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.901170657297956e-16</v>
+        <v>-2.38105316070829e-14</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.967267605243935e-10</v>
+        <v>6.035421396078717e-12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.237916570963988e-17</v>
+        <v>-4.896005467167405e-18</v>
       </c>
       <c r="B7" t="n">
-        <v>8.461979382834913e-17</v>
+        <v>1.923159814094679e-16</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.565122590369164e-17</v>
+        <v>-1.035028048239015e-17</v>
       </c>
       <c r="D7" t="n">
-        <v>7.475655805183333e-17</v>
+        <v>-2.276199279300263e-16</v>
       </c>
       <c r="E7" t="n">
-        <v>1.13537613143035e-09</v>
+        <v>-7.353530997380883e-13</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.699676841996904e-11</v>
+        <v>1.379615149402467e-11</v>
       </c>
       <c r="G7" t="n">
-        <v>8.595622872793631e-10</v>
+        <v>-1.044454556999146e-11</v>
       </c>
       <c r="H7" t="n">
-        <v>7.121647825496745e-10</v>
+        <v>7.697411961053205e-22</v>
       </c>
       <c r="I7" t="n">
-        <v>2.888117712036406e-15</v>
+        <v>-1.05022832377712e-11</v>
       </c>
       <c r="J7" t="n">
-        <v>-9.857122754702365e-18</v>
+        <v>-1.085901391195206e-16</v>
       </c>
       <c r="K7" t="n">
-        <v>2.499103439049559e-16</v>
+        <v>-3.803005920876821e-16</v>
       </c>
       <c r="L7" t="n">
-        <v>8.84247439349008e-10</v>
+        <v>-1.247372288882315e-11</v>
       </c>
       <c r="M7" t="n">
-        <v>1.026539856997642e-09</v>
+        <v>1.317015627858246e-11</v>
       </c>
       <c r="N7" t="n">
-        <v>1.491781882672035e-17</v>
+        <v>1.882088533018944e-16</v>
       </c>
       <c r="O7" t="n">
-        <v>2.687796577364942e-17</v>
+        <v>1.60803261644004e-16</v>
       </c>
       <c r="P7" t="n">
-        <v>1.049293830942681e-17</v>
+        <v>-2.345156713769143e-18</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.099304890635913e-17</v>
+        <v>-1.97379471067251e-17</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.409134362248186e-16</v>
+        <v>-4.952077804270518e-16</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.7083889299345945</v>
+        <v>-0.7083889292645417</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8339099492233141</v>
+        <v>-0.667320287091808</v>
       </c>
       <c r="U7" t="n">
-        <v>1.745213716281274e-15</v>
+        <v>9.069450277086488e-16</v>
       </c>
       <c r="V7" t="n">
-        <v>1.175039314932554e-15</v>
+        <v>8.869555165479883e-16</v>
       </c>
       <c r="W7" t="n">
-        <v>6.030907710489783e-16</v>
+        <v>4.889166601811551e-16</v>
       </c>
       <c r="X7" t="n">
-        <v>1.061872314309068e-15</v>
+        <v>3.868253255371204e-17</v>
       </c>
       <c r="Y7" t="n">
-        <v>-5.84455830230094e-16</v>
+        <v>5.434883937967869e-16</v>
       </c>
       <c r="Z7" t="n">
-        <v>-3.256275679293497e-17</v>
+        <v>4.201024271304929e-17</v>
       </c>
       <c r="AA7" t="n">
-        <v>-7.225121910434708e-10</v>
+        <v>8.779147744706928e-12</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.684280730413157e-16</v>
+        <v>3.728356380100288e-16</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.429383451456487e-16</v>
+        <v>-5.329794448587984e-16</v>
       </c>
       <c r="AD7" t="n">
-        <v>-6.358109229557276e-10</v>
+        <v>7.726077544399321e-12</v>
       </c>
       <c r="AE7" t="n">
-        <v>-3.771036981143526e-17</v>
+        <v>8.185382488254083e-17</v>
       </c>
       <c r="AF7" t="n">
-        <v>-2.651654447476699e-19</v>
+        <v>-3.914343562087239e-23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.947304007968709e-20</v>
+        <v>4.176041144082161e-17</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.693503962203657e-19</v>
+        <v>6.349665832679073e-19</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.031324968128315e-17</v>
+        <v>-1.007942450720741e-21</v>
       </c>
       <c r="D8" t="n">
-        <v>5.984079884989223e-18</v>
+        <v>6.745622676119424e-19</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.106859105962812e-18</v>
+        <v>-7.6528499964266e-18</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.64589441278688e-17</v>
+        <v>1.384410044695734e-17</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18383625921075e-17</v>
+        <v>2.465466678856401e-17</v>
       </c>
       <c r="H8" t="n">
-        <v>3.980146027231476e-18</v>
+        <v>-1.280050498657333e-21</v>
       </c>
       <c r="I8" t="n">
-        <v>-8.66967064144334e-18</v>
+        <v>-2.380331058295054e-18</v>
       </c>
       <c r="J8" t="n">
-        <v>5.896775706689692e-17</v>
+        <v>4.004054272857246e-17</v>
       </c>
       <c r="K8" t="n">
-        <v>-5.069685412924832e-17</v>
+        <v>2.863281745821613e-17</v>
       </c>
       <c r="L8" t="n">
-        <v>6.484481369960542e-10</v>
+        <v>-9.147273720419294e-12</v>
       </c>
       <c r="M8" t="n">
-        <v>7.527958246345368e-10</v>
+        <v>9.658135970442789e-12</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.135376383392811e-09</v>
+        <v>1.379592881370294e-11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.222713021820218e-09</v>
+        <v>1.485715955126756e-11</v>
       </c>
       <c r="P8" t="n">
-        <v>-9.567664584444375e-18</v>
+        <v>6.10449927214144e-19</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1.265592080862456e-16</v>
+        <v>-2.51989453547714e-17</v>
       </c>
       <c r="R8" t="n">
-        <v>3.320282455071927e-17</v>
+        <v>-6.175990703795042e-17</v>
       </c>
       <c r="S8" t="n">
-        <v>2.273013262532456e-16</v>
+        <v>-2.277465136022878e-17</v>
       </c>
       <c r="T8" t="n">
-        <v>3.872209059609563e-17</v>
+        <v>5.364575593849135e-17</v>
       </c>
       <c r="U8" t="n">
-        <v>-1.878423859131111e-17</v>
+        <v>-2.915292874817367e-16</v>
       </c>
       <c r="V8" t="n">
-        <v>5.089427122347062e-17</v>
+        <v>-7.728351734801672e-17</v>
       </c>
       <c r="W8" t="n">
-        <v>-2.130602123557517e-16</v>
+        <v>-8.252177686913191e-16</v>
       </c>
       <c r="X8" t="n">
-        <v>-8.335711780449718e-16</v>
+        <v>-4.015185839678959e-16</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.37723207047589e-15</v>
+        <v>2.780049821014041e-15</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.973067546745401e-17</v>
+        <v>-3.886783527087603e-16</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.537036208591647e-17</v>
+        <v>1.278396065563398e-16</v>
       </c>
       <c r="AC8" t="n">
-        <v>-7.559903238126686e-17</v>
+        <v>3.954171222392723e-16</v>
       </c>
       <c r="AD8" t="n">
-        <v>-7.569175325980967e-10</v>
+        <v>9.19699878225675e-12</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.225122430485954e-10</v>
+        <v>-8.779309712452336e-12</v>
       </c>
       <c r="AF8" t="n">
-        <v>-3.027532018430951e-19</v>
+        <v>-4.470353322230612e-23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.044027448861074e-16</v>
+        <v>-3.59022311570186e-16</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.321381718359843e-16</v>
+        <v>7.585380444528045e-16</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.759305643114849e-16</v>
+        <v>-4.828628464962594e-11</v>
       </c>
       <c r="D9" t="n">
-        <v>3.973817555200125e-09</v>
+        <v>-6.815915303061136e-16</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.1438179174287e-16</v>
+        <v>6.428971820729618e-11</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.295608689552317e-09</v>
+        <v>-2.908215424374069e-16</v>
       </c>
       <c r="G9" t="n">
-        <v>1.423370085675181e-16</v>
+        <v>1.753474585797721e-15</v>
       </c>
       <c r="H9" t="n">
-        <v>1.334403463031651e-15</v>
+        <v>-4.41479027745298e-24</v>
       </c>
       <c r="I9" t="n">
-        <v>6.556044202638764e-21</v>
+        <v>-7.611350050997464e-16</v>
       </c>
       <c r="J9" t="n">
-        <v>2.70347703214329e-15</v>
+        <v>-4.366288813560088e-16</v>
       </c>
       <c r="K9" t="n">
-        <v>1.397545582032922e-15</v>
+        <v>1.84881871697704e-15</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6119255702908278</v>
+        <v>-0.710396016635633</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7103960698652253</v>
+        <v>0.7500703017379651</v>
       </c>
       <c r="N9" t="n">
-        <v>1.489745447568659e-15</v>
+        <v>-1.16269345583297e-15</v>
       </c>
       <c r="O9" t="n">
-        <v>1.006174426162942e-16</v>
+        <v>-1.206567707693363e-15</v>
       </c>
       <c r="P9" t="n">
-        <v>3.77400697342829e-16</v>
+        <v>-7.206676442687778e-18</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.06388701662462e-17</v>
+        <v>1.843476728625131e-17</v>
       </c>
       <c r="R9" t="n">
-        <v>-8.731558237692239e-17</v>
+        <v>-1.857003279070689e-17</v>
       </c>
       <c r="S9" t="n">
-        <v>1.023639372434241e-09</v>
+        <v>1.243822257104773e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>-1.205020120431611e-09</v>
+        <v>1.171713350661708e-11</v>
       </c>
       <c r="U9" t="n">
-        <v>-1.197201396303277e-09</v>
+        <v>8.037802148355281e-12</v>
       </c>
       <c r="V9" t="n">
-        <v>-9.393024187610901e-10</v>
+        <v>-1.41624399361826e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.259353831082911e-16</v>
+        <v>1.918579075032489e-18</v>
       </c>
       <c r="X9" t="n">
-        <v>1.312008130839019e-17</v>
+        <v>5.676918438769733e-17</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.384761079459298e-17</v>
+        <v>4.12397196541056e-17</v>
       </c>
       <c r="Z9" t="n">
-        <v>-1.059684581958623e-09</v>
+        <v>1.287619104399735e-11</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.126005661416286e-19</v>
+        <v>-9.979305011737302e-23</v>
       </c>
       <c r="AB9" t="n">
-        <v>-2.851784940021464e-23</v>
+        <v>-1.992299436442332e-23</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.995666722679941e-23</v>
+        <v>2.757285577216639e-23</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.149875983786367e-19</v>
+        <v>-1.078126106614443e-22</v>
       </c>
       <c r="AE9" t="n">
-        <v>-5.835241336911966e-19</v>
+        <v>8.220628439161274e-23</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.969066966037258e-28</v>
+        <v>3.532299929382381e-34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.176125502961951e-20</v>
+        <v>7.251386221067388e-18</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.300408807607941e-19</v>
+        <v>-4.7706062005431e-18</v>
       </c>
       <c r="C10" t="n">
-        <v>7.72257657228738e-19</v>
+        <v>9.88394369341003e-29</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.239258999875116e-26</v>
+        <v>6.139160373664738e-21</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.901739831283324e-20</v>
+        <v>-1.767518394373101e-22</v>
       </c>
       <c r="F10" t="n">
-        <v>5.590416683253692e-22</v>
+        <v>3.334718953931226e-21</v>
       </c>
       <c r="G10" t="n">
-        <v>6.254681676805823e-19</v>
+        <v>-2.56580172527913e-21</v>
       </c>
       <c r="H10" t="n">
-        <v>6.101378952965602e-19</v>
+        <v>-1.371834244163742e-31</v>
       </c>
       <c r="I10" t="n">
-        <v>2.421790058667841e-24</v>
+        <v>-7.168021839914819e-23</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.947036819056488e-19</v>
+        <v>2.640830907892954e-23</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.482051256719217e-18</v>
+        <v>-1.377258962775251e-21</v>
       </c>
       <c r="L10" t="n">
-        <v>-9.192850076926143e-19</v>
+        <v>-6.161463077929641e-22</v>
       </c>
       <c r="M10" t="n">
-        <v>7.783284794936224e-19</v>
+        <v>-9.171774780241362e-23</v>
       </c>
       <c r="N10" t="n">
-        <v>2.100816831845878e-20</v>
+        <v>1.065092885544382e-22</v>
       </c>
       <c r="O10" t="n">
-        <v>1.321261563904202e-18</v>
+        <v>2.547832007322488e-22</v>
       </c>
       <c r="P10" t="n">
-        <v>-3.688224434830864e-21</v>
+        <v>-1.547293340717473e-25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.158626746735082e-17</v>
+        <v>-2.444199914138197e-17</v>
       </c>
       <c r="R10" t="n">
-        <v>-6.358107898045086e-10</v>
+        <v>7.725710996436594e-12</v>
       </c>
       <c r="S10" t="n">
-        <v>-4.674681453737187e-10</v>
+        <v>-5.680238178866392e-12</v>
       </c>
       <c r="T10" t="n">
-        <v>-3.655252461090488e-10</v>
+        <v>5.993619625017098e-12</v>
       </c>
       <c r="U10" t="n">
-        <v>4.906014661050115e-17</v>
+        <v>-3.641335261677615e-17</v>
       </c>
       <c r="V10" t="n">
-        <v>2.693416731727329e-17</v>
+        <v>-6.75854558724401e-18</v>
       </c>
       <c r="W10" t="n">
-        <v>-6.011823102517627e-10</v>
+        <v>-6.19548809731904e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>-5.09880633629541e-10</v>
+        <v>-7.416500410904621e-12</v>
       </c>
       <c r="Y10" t="n">
-        <v>-7.569176237456921e-10</v>
+        <v>9.197338367138946e-12</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.135531162050073e-17</v>
+        <v>-1.263496729381115e-18</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.899221237480327e-15</v>
+        <v>-3.472535778792029e-15</v>
       </c>
       <c r="AB10" t="n">
-        <v>-2.281682369691844e-14</v>
+        <v>-1.230980615256557e-14</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.020451531134362e-14</v>
+        <v>2.31468030282595e-14</v>
       </c>
       <c r="AE10" t="n">
-        <v>-3.709056731120005e-15</v>
+        <v>-1.045022696129619e-14</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.816743020959947e-10</v>
+        <v>5.852189952478679e-12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.178045284257516e-17</v>
+        <v>4.050518573896648e-17</v>
       </c>
       <c r="B11" t="n">
-        <v>2.159618847740867e-17</v>
+        <v>-7.490992143451526e-18</v>
       </c>
       <c r="C11" t="n">
-        <v>1.135376350377231e-09</v>
+        <v>-2.132814208598254e-20</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.173573443276196e-17</v>
+        <v>1.379595367844572e-11</v>
       </c>
       <c r="E11" t="n">
-        <v>2.084999900423799e-17</v>
+        <v>3.876081005469447e-19</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.379159068414611e-17</v>
+        <v>-6.059823049973189e-19</v>
       </c>
       <c r="G11" t="n">
-        <v>9.311922822859762e-10</v>
+        <v>-1.13149036829869e-11</v>
       </c>
       <c r="H11" t="n">
-        <v>7.715118269291575e-10</v>
+        <v>8.338739848924142e-22</v>
       </c>
       <c r="I11" t="n">
-        <v>3.128794061763464e-15</v>
+        <v>-1.137754860473118e-11</v>
       </c>
       <c r="J11" t="n">
-        <v>8.702498299124027e-10</v>
+        <v>-1.207377714630988e-11</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.029810499276602e-09</v>
+        <v>-1.251314668447231e-11</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.046179494723542e-16</v>
+        <v>1.503774048859316e-16</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.063141366626925e-16</v>
+        <v>-1.282514568048294e-16</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.579296632907952e-19</v>
+        <v>-1.518169157607068e-17</v>
       </c>
       <c r="O11" t="n">
-        <v>5.594561097793887e-18</v>
+        <v>-3.184139860560861e-17</v>
       </c>
       <c r="P11" t="n">
-        <v>-5.662483059924622e-17</v>
+        <v>4.14584579679361e-19</v>
       </c>
       <c r="Q11" t="n">
-        <v>-3.233287267863829e-16</v>
+        <v>1.223554740561226e-15</v>
       </c>
       <c r="R11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.561877549806651e-16</v>
+        <v>6.750481213483277e-17</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.436369076481736e-17</v>
+        <v>-2.146781406204188e-16</v>
       </c>
       <c r="U11" t="n">
-        <v>-5.263366321771591e-18</v>
+        <v>-2.538029009503599e-16</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.674593832184638e-16</v>
+        <v>2.064765076592588e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>-2.614880360201202e-16</v>
+        <v>1.527448997815643e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>-6.315087002587495e-17</v>
+        <v>1.181613577578031e-16</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.527140524995095e-16</v>
+        <v>1.025037270567193e-16</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.60083985066616e-16</v>
+        <v>-5.371484348373835e-17</v>
       </c>
       <c r="AA11" t="n">
-        <v>-6.910986593899528e-10</v>
+        <v>8.397539903279134e-12</v>
       </c>
       <c r="AB11" t="n">
-        <v>3.434958041451979e-19</v>
+        <v>4.792891359355173e-19</v>
       </c>
       <c r="AC11" t="n">
-        <v>-6.358107665396034e-10</v>
+        <v>7.725736789931233e-12</v>
       </c>
       <c r="AD11" t="n">
-        <v>-1.073200941008127e-19</v>
+        <v>2.842258355736337e-20</v>
       </c>
       <c r="AE11" t="n">
-        <v>-1.85371551496592e-20</v>
+        <v>-2.899170088529137e-21</v>
       </c>
       <c r="AF11" t="n">
-        <v>-2.564683624544493e-19</v>
+        <v>-3.785701619808781e-23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.660440204546061e-19</v>
+        <v>1.561830808281025e-18</v>
       </c>
       <c r="B12" t="n">
-        <v>4.541725453218862e-18</v>
+        <v>-1.879376815423292e-18</v>
       </c>
       <c r="C12" t="n">
-        <v>3.815941539378199e-17</v>
+        <v>3.912943848958239e-22</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.105590421736427e-22</v>
+        <v>-2.115772868980395e-17</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.559075062244097e-17</v>
+        <v>-3.303914283817869e-17</v>
       </c>
       <c r="F12" t="n">
-        <v>5.348723380156996e-19</v>
+        <v>2.552637323639902e-17</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.663012186358761e-17</v>
+        <v>-2.491958165494816e-17</v>
       </c>
       <c r="H12" t="n">
-        <v>5.907640033150866e-17</v>
+        <v>-1.748630103388389e-21</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.184320049453412e-17</v>
+        <v>-3.155728857908501e-17</v>
       </c>
       <c r="J12" t="n">
-        <v>6.381830716490374e-10</v>
+        <v>-8.854298400029667e-12</v>
       </c>
       <c r="K12" t="n">
-        <v>-7.551941988372545e-10</v>
+        <v>-9.176427971824885e-12</v>
       </c>
       <c r="L12" t="n">
-        <v>-8.979865565241294e-10</v>
+        <v>-9.709812902200798e-12</v>
       </c>
       <c r="M12" t="n">
-        <v>7.990803705690623e-10</v>
+        <v>-9.123962100534512e-12</v>
       </c>
       <c r="N12" t="n">
-        <v>3.512701974537426e-17</v>
+        <v>2.200247168238183e-17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.324605809330139e-09</v>
+        <v>1.609528928310573e-11</v>
       </c>
       <c r="P12" t="n">
-        <v>2.844942684571422e-17</v>
+        <v>-1.314444540842876e-18</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.375535156671217e-16</v>
+        <v>-1.691257942561192e-17</v>
       </c>
       <c r="R12" t="n">
-        <v>-6.021926512641612e-16</v>
+        <v>-7.060835671191483e-17</v>
       </c>
       <c r="S12" t="n">
-        <v>2.540405936134628e-16</v>
+        <v>6.310368145180035e-16</v>
       </c>
       <c r="T12" t="n">
-        <v>9.12032691637594e-17</v>
+        <v>4.171694914743279e-17</v>
       </c>
       <c r="U12" t="n">
-        <v>-2.365436148698294e-16</v>
+        <v>1.406350723584733e-15</v>
       </c>
       <c r="V12" t="n">
-        <v>-2.777215023127451e-16</v>
+        <v>-2.377870695063711e-16</v>
       </c>
       <c r="W12" t="n">
-        <v>9.365883939943694e-17</v>
+        <v>4.528992220812812e-15</v>
       </c>
       <c r="X12" t="n">
-        <v>8.69302330598993e-16</v>
+        <v>1.273515875723304e-15</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
-        <v>-2.575468050567643e-15</v>
+        <v>2.952296068201018e-15</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.666738002956925e-16</v>
+        <v>-3.753109300320779e-16</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.774643831301973e-16</v>
+        <v>6.096847872060817e-16</v>
       </c>
       <c r="AC12" t="n">
-        <v>-7.569174016141742e-10</v>
+        <v>9.196946690872131e-12</v>
       </c>
       <c r="AD12" t="n">
-        <v>-5.200308881826914e-17</v>
+        <v>8.745820771332714e-17</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.910986537359021e-10</v>
+        <v>-8.397533562112269e-12</v>
       </c>
       <c r="AF12" t="n">
-        <v>-2.927157988554312e-19</v>
+        <v>-4.321826401513394e-23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.204621213093213e-15</v>
+        <v>2.970557649770544e-17</v>
       </c>
       <c r="B13" t="n">
-        <v>3.973816864869551e-09</v>
+        <v>4.828609474224179e-11</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.058498901066461e-17</v>
+        <v>-1.287693589481867e-17</v>
       </c>
       <c r="D13" t="n">
-        <v>5.7950452528858e-16</v>
+        <v>-1.32785206905392e-15</v>
       </c>
       <c r="E13" t="n">
-        <v>-8.680355947205729e-16</v>
+        <v>9.643657146313432e-11</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.943416863319239e-09</v>
+        <v>-4.075185497509984e-16</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.043089995700883e-15</v>
+        <v>4.329605258944857e-15</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.440734271687321e-15</v>
+        <v>-1.40768388753365e-22</v>
       </c>
       <c r="I13" t="n">
-        <v>2.672949922921004e-21</v>
+        <v>-6.477836613309771e-16</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6022387527575143</v>
+        <v>-0.6876377600019935</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.712659503098834</v>
+        <v>-0.7126595065101969</v>
       </c>
       <c r="L13" t="n">
-        <v>-5.5920871259594e-17</v>
+        <v>7.410438756825186e-17</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.944317122415591e-15</v>
+        <v>7.615755679318811e-16</v>
       </c>
       <c r="N13" t="n">
-        <v>1.040929558958102e-15</v>
+        <v>-2.733431216376593e-15</v>
       </c>
       <c r="O13" t="n">
-        <v>5.00372361115659e-16</v>
+        <v>1.042948811283637e-15</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.613383827934862e-16</v>
+        <v>-1.958129370076705e-17</v>
       </c>
       <c r="Q13" t="n">
-        <v>-4.865112128057483e-18</v>
+        <v>-9.930324223210887e-18</v>
       </c>
       <c r="R13" t="n">
-        <v>1.445024456421276e-09</v>
+        <v>-1.755854017325068e-11</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.086725890860776e-19</v>
+        <v>-5.380707539996812e-17</v>
       </c>
       <c r="T13" t="n">
-        <v>1.703186041544032e-16</v>
+        <v>-6.484508470833158e-17</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.105108816133521e-09</v>
+        <v>7.41952295568464e-12</v>
       </c>
       <c r="V13" t="n">
-        <v>-8.670483864708651e-10</v>
+        <v>-1.307309656988442e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35002084547567e-17</v>
+        <v>4.015370792844393e-17</v>
       </c>
       <c r="X13" t="n">
-        <v>-3.537635258666277e-17</v>
+        <v>-9.272940551278782e-17</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.059684635409106e-09</v>
+        <v>-1.287616252986652e-11</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.525789575969367e-18</v>
+        <v>2.116267752113787e-17</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.769588599432265e-19</v>
+        <v>-9.994595779306226e-23</v>
       </c>
       <c r="AB13" t="n">
-        <v>-2.880826907553511e-25</v>
+        <v>-7.513044855409456e-27</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.149385114911358e-19</v>
+        <v>-9.078977708645138e-23</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.095987510512666e-26</v>
+        <v>-9.225310755360608e-28</v>
       </c>
       <c r="AE13" t="n">
-        <v>-5.550416215762202e-19</v>
+        <v>8.194995441283652e-23</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.897371454443058e-28</v>
+        <v>3.403383292370398e-34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.597208473709957e-16</v>
+        <v>-1.618998048407235e-16</v>
       </c>
       <c r="B14" t="n">
-        <v>1.61550353825043e-16</v>
+        <v>1.365440182482259e-17</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.445406343072627e-16</v>
+        <v>3.340255611368529e-18</v>
       </c>
       <c r="D14" t="n">
-        <v>1.248933478137636e-17</v>
+        <v>1.272812639183953e-16</v>
       </c>
       <c r="E14" t="n">
-        <v>2.560748080473441e-16</v>
+        <v>-9.841976791936682e-17</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.682930484071015e-17</v>
+        <v>9.475461595328266e-17</v>
       </c>
       <c r="G14" t="n">
-        <v>7.449534714039582e-10</v>
+        <v>-9.051721474713564e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>6.172094748065766e-10</v>
+        <v>-2.441549721985919e-21</v>
       </c>
       <c r="I14" t="n">
-        <v>2.481980268320941e-15</v>
+        <v>-9.101851007200779e-12</v>
       </c>
       <c r="J14" t="n">
-        <v>-9.063891655245495e-10</v>
+        <v>1.001658759871978e-11</v>
       </c>
       <c r="K14" t="n">
-        <v>-7.964780343619014e-10</v>
+        <v>-9.677940315762467e-12</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.903582318026211e-18</v>
+        <v>1.158915190301926e-16</v>
       </c>
       <c r="M14" t="n">
-        <v>1.159139623768881e-17</v>
+        <v>9.918804416296765e-17</v>
       </c>
       <c r="N14" t="n">
-        <v>2.472901523951737e-17</v>
+        <v>-9.339603775942703e-17</v>
       </c>
       <c r="O14" t="n">
-        <v>1.445024678855417e-09</v>
+        <v>1.755844254771573e-11</v>
       </c>
       <c r="P14" t="n">
-        <v>3.781067189399242e-17</v>
+        <v>-2.003116418674392e-18</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.890650167726803e-17</v>
+        <v>3.426369017209313e-16</v>
       </c>
       <c r="R14" t="n">
-        <v>8.438843330376148e-17</v>
+        <v>2.594482644298611e-16</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.056603207785415e-16</v>
+        <v>1.759891645015436e-16</v>
       </c>
       <c r="T14" t="n">
-        <v>2.198442507797588e-16</v>
+        <v>-5.457513180916628e-18</v>
       </c>
       <c r="U14" t="n">
-        <v>9.978009940763665e-16</v>
+        <v>-1.804571691482377e-16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.304512054093712e-15</v>
+        <v>8.845679002716817e-16</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.8320721452816489</v>
+        <v>-0.7057051861400027</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.7057051861399987</v>
+        <v>-0.8447788908741686</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.661695744533611e-16</v>
+        <v>3.932639682383314e-15</v>
       </c>
       <c r="Z14" t="n">
-        <v>-4.998877985267156e-16</v>
+        <v>1.271537282806681e-15</v>
       </c>
       <c r="AA14" t="n">
-        <v>9.111322030481646e-18</v>
+        <v>-8.130636645535994e-17</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.521898400214412e-17</v>
+        <v>1.293968706933628e-16</v>
       </c>
       <c r="AC14" t="n">
-        <v>-7.225122252113256e-10</v>
+        <v>8.779173023416845e-12</v>
       </c>
       <c r="AD14" t="n">
-        <v>-6.910986624539689e-10</v>
+        <v>8.397556903545099e-12</v>
       </c>
       <c r="AE14" t="n">
-        <v>-3.262308737605025e-19</v>
+        <v>1.032341379834974e-18</v>
       </c>
       <c r="AF14" t="n">
-        <v>-2.827623081753592e-19</v>
+        <v>-4.17408138757401e-23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.973817272713211e-09</v>
+        <v>-4.828578947763873e-11</v>
       </c>
       <c r="B15" t="n">
-        <v>7.408804692786574e-16</v>
+        <v>2.672147354645915e-16</v>
       </c>
       <c r="C15" t="n">
-        <v>3.544127995575825e-16</v>
+        <v>-1.517837201445736e-15</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.599950379868566e-16</v>
+        <v>1.569775671877718e-15</v>
       </c>
       <c r="E15" t="n">
-        <v>6.181671024757484e-15</v>
+        <v>1.928764219988239e-10</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.588682835938456e-08</v>
+        <v>2.017180072717474e-15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7029957881315931</v>
+        <v>-0.7029957855296922</v>
       </c>
       <c r="H15" t="n">
-        <v>0.582446387588015</v>
+        <v>5.180824794999463e-11</v>
       </c>
       <c r="I15" t="n">
-        <v>2.362056850369739e-06</v>
+        <v>-0.7068863215358885</v>
       </c>
       <c r="J15" t="n">
-        <v>3.871002389986302e-15</v>
+        <v>3.358534099929186e-16</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.848281538556857e-16</v>
+        <v>-5.084525238185868e-15</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.856381610312862e-16</v>
+        <v>-1.548094910773733e-15</v>
       </c>
       <c r="M15" t="n">
-        <v>-5.881359073844168e-16</v>
+        <v>6.992992025482975e-16</v>
       </c>
       <c r="N15" t="n">
-        <v>8.909308150371052e-17</v>
+        <v>1.297719455258268e-15</v>
       </c>
       <c r="O15" t="n">
-        <v>6.307311605289271e-16</v>
+        <v>7.494690476282042e-17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.187964225684078e-16</v>
+        <v>-6.8157160494415e-18</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.189155013159341e-19</v>
+        <v>-2.092195921706088e-21</v>
       </c>
       <c r="R15" t="n">
-        <v>1.324605765578718e-09</v>
+        <v>-1.609528546152448e-11</v>
       </c>
       <c r="S15" t="n">
-        <v>8.661563603277173e-10</v>
+        <v>1.05246664604456e-11</v>
       </c>
       <c r="T15" t="n">
-        <v>-1.019632359560601e-09</v>
+        <v>9.914369085452773e-12</v>
       </c>
       <c r="U15" t="n">
-        <v>2.402367299853642e-16</v>
+        <v>-2.191039881171526e-17</v>
       </c>
       <c r="V15" t="n">
-        <v>-3.765268446527542e-18</v>
+        <v>-8.011634392448169e-17</v>
       </c>
       <c r="W15" t="n">
-        <v>8.817339648284759e-10</v>
+        <v>9.086821102313574e-12</v>
       </c>
       <c r="X15" t="n">
-        <v>7.478249228407654e-10</v>
+        <v>1.087769772927368e-11</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.882761313789803e-18</v>
+        <v>-1.788927951989921e-20</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.437231001603572e-19</v>
+        <v>-3.385629017969034e-21</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.4199213993157e-19</v>
+        <v>-9.478648062653826e-23</v>
       </c>
       <c r="AB15" t="n">
-        <v>-6.028891719834931e-26</v>
+        <v>-3.697453940389444e-27</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.835380308574161e-19</v>
+        <v>-8.615380858921242e-23</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.550416838423192e-19</v>
+        <v>-8.195206904347162e-23</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.589400785221379e-27</v>
+        <v>-4.157899995736412e-28</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.82658127543399e-28</v>
+        <v>3.275648931793248e-34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.244714612234301e-19</v>
+        <v>-6.450684181609891e-16</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.727820071642336e-18</v>
+        <v>-3.053057927501342e-18</v>
       </c>
       <c r="C16" t="n">
-        <v>2.319646113229472e-16</v>
+        <v>1.260938099219042e-22</v>
       </c>
       <c r="D16" t="n">
-        <v>3.500458148999012e-23</v>
+        <v>-2.806742089078454e-16</v>
       </c>
       <c r="E16" t="n">
-        <v>2.270253828385641e-16</v>
+        <v>3.857357963943553e-11</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.177365745185848e-09</v>
+        <v>-6.29706127381219e-16</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.109152916654857e-16</v>
+        <v>1.108282313359457e-16</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.385216877755736e-16</v>
+        <v>-4.828585634557351e-11</v>
       </c>
       <c r="I16" t="n">
-        <v>-3.973817292525302e-09</v>
+        <v>1.859126730059567e-16</v>
       </c>
       <c r="J16" t="n">
-        <v>1.342899876464518e-16</v>
+        <v>-2.365307501652552e-16</v>
       </c>
       <c r="K16" t="n">
-        <v>3.779595215114809e-16</v>
+        <v>2.136877937652946e-15</v>
       </c>
       <c r="L16" t="n">
-        <v>3.269812927510409e-16</v>
+        <v>6.951581043923995e-16</v>
       </c>
       <c r="M16" t="n">
-        <v>-4.017107269537571e-16</v>
+        <v>-2.566835183239503e-16</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000618293387787e-18</v>
+        <v>-1.521530159303024e-15</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>-8.037495763872911e-17</v>
+        <v>-4.63680821519306e-18</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.080097625459435e-17</v>
+        <v>4.329883134724133e-22</v>
       </c>
       <c r="R16" t="n">
-        <v>1.991325642070151e-17</v>
+        <v>2.38918407131638e-21</v>
       </c>
       <c r="S16" t="n">
-        <v>-4.81157630047668e-18</v>
+        <v>4.00898542354594e-21</v>
       </c>
       <c r="T16" t="n">
-        <v>6.301404118141895e-17</v>
+        <v>-1.221506401856436e-16</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.921183702638517e-16</v>
+        <v>1.261495711994627e-16</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.229939628160436e-18</v>
+        <v>4.605313942228268e-16</v>
       </c>
       <c r="W16" t="n">
-        <v>1.202364726704947e-09</v>
+        <v>1.239111972768128e-11</v>
       </c>
       <c r="X16" t="n">
-        <v>1.019761262247058e-09</v>
+        <v>1.483312314469519e-11</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.324605764330917e-09</v>
+        <v>-1.609528544622576e-11</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1.222713013067433e-09</v>
+        <v>1.48571865682725e-11</v>
       </c>
       <c r="AA16" t="n">
-        <v>-3.435168328648526e-25</v>
+        <v>1.324300704521883e-26</v>
       </c>
       <c r="AB16" t="n">
-        <v>-4.077813391206529e-25</v>
+        <v>-1.398434941135865e-26</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.126039379302811e-19</v>
+        <v>-1.052125256169595e-22</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.769590705671529e-19</v>
+        <v>-9.99479853252379e-23</v>
       </c>
       <c r="AE16" t="n">
-        <v>-6.419921637790399e-19</v>
+        <v>9.478891055774497e-23</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.115107540934844e-28</v>
+        <v>3.794275281619934e-34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-8.829293212134298e-17</v>
+        <v>-1.018693924454947e-15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.170594486428112e-16</v>
+        <v>2.416544938313844e-16</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.782622326763973e-16</v>
+        <v>3.953410741257515e-15</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.155441473053867e-16</v>
+        <v>3.32357024131788e-16</v>
       </c>
       <c r="E17" t="n">
-        <v>2.910214141680868e-08</v>
+        <v>0.9985785688324923</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9994689529886366</v>
+        <v>3.535357531171507e-10</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.117430592776911e-08</v>
+        <v>1.357835768331094e-10</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.258143453839211e-09</v>
+        <v>6.770804458920449e-21</v>
       </c>
       <c r="I17" t="n">
-        <v>-3.743183212007089e-14</v>
+        <v>1.365418681711706e-10</v>
       </c>
       <c r="J17" t="n">
-        <v>-4.786375950502648e-09</v>
+        <v>6.640752212856787e-11</v>
       </c>
       <c r="K17" t="n">
-        <v>5.663957283046261e-09</v>
+        <v>6.882577350645431e-11</v>
       </c>
       <c r="L17" t="n">
-        <v>-3.242239141065832e-09</v>
+        <v>4.573392540016975e-11</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.763978599124492e-09</v>
+        <v>-4.829253480823932e-11</v>
       </c>
       <c r="N17" t="n">
-        <v>-7.805871323830755e-16</v>
+        <v>-8.945449461498526e-18</v>
       </c>
       <c r="O17" t="n">
-        <v>-3.179054105442253e-09</v>
+        <v>-3.862902129017676e-11</v>
       </c>
       <c r="P17" t="n">
-        <v>2.649211306368453e-09</v>
+        <v>3.219060859124264e-11</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.261199883598959e-21</v>
+        <v>-9.405286867870698e-24</v>
       </c>
       <c r="R17" t="n">
-        <v>-3.392943105473523e-18</v>
+        <v>4.519035644143052e-22</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.135459260398019e-18</v>
+        <v>-3.920734140010277e-22</v>
       </c>
       <c r="T17" t="n">
-        <v>6.59180884554448e-17</v>
+        <v>-4.938962471980519e-18</v>
       </c>
       <c r="U17" t="n">
-        <v>3.587819164683455e-17</v>
+        <v>-1.871737483482705e-17</v>
       </c>
       <c r="V17" t="n">
-        <v>1.926564585362861e-18</v>
+        <v>-6.832742040320197e-17</v>
       </c>
       <c r="W17" t="n">
-        <v>-2.069618656032028e-16</v>
+        <v>-3.243067700017342e-22</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.747214646178274e-18</v>
+        <v>-7.186190306794865e-18</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.23418230576849e-18</v>
+        <v>2.93437906771641e-22</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.014714370293217e-18</v>
+        <v>-3.03527893224726e-22</v>
       </c>
       <c r="AA17" t="n">
-        <v>-8.968457326162839e-28</v>
+        <v>1.601655626152388e-33</v>
       </c>
       <c r="AB17" t="n">
-        <v>5.616600756962772e-31</v>
+        <v>2.778692658310584e-35</v>
       </c>
       <c r="AC17" t="n">
-        <v>-7.98641797588714e-28</v>
+        <v>1.395704797863369e-33</v>
       </c>
       <c r="AD17" t="n">
-        <v>-7.532147231047242e-28</v>
+        <v>1.374260812893186e-33</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.074633166374317e-28</v>
+        <v>-1.263896635807493e-33</v>
       </c>
       <c r="AF17" t="n">
-        <v>-1.748056916110761e-37</v>
+        <v>-3.809282770116118e-45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.54923941585299e-22</v>
+        <v>-8.514328769702723e-18</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.249669429707227e-20</v>
+        <v>4.118368977299578e-18</v>
       </c>
       <c r="C18" t="n">
-        <v>2.09792100335411e-18</v>
+        <v>1.583198036680906e-29</v>
       </c>
       <c r="D18" t="n">
-        <v>4.575016565015094e-26</v>
+        <v>3.805692811039431e-21</v>
       </c>
       <c r="E18" t="n">
-        <v>1.697707314394898e-18</v>
+        <v>-1.392655721967186e-22</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.368063410316116e-20</v>
+        <v>2.58621757737561e-21</v>
       </c>
       <c r="G18" t="n">
-        <v>1.331360852700347e-18</v>
+        <v>-2.238972566644152e-21</v>
       </c>
       <c r="H18" t="n">
-        <v>-9.891586716331907e-19</v>
+        <v>-8.217939321729865e-32</v>
       </c>
       <c r="I18" t="n">
-        <v>-3.424504973883001e-24</v>
+        <v>1.147599187133554e-22</v>
       </c>
       <c r="J18" t="n">
-        <v>-9.608395657497716e-19</v>
+        <v>1.47091919542629e-22</v>
       </c>
       <c r="K18" t="n">
-        <v>-1.109828906699977e-18</v>
+        <v>-1.317574053023166e-21</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.006805462506691e-18</v>
+        <v>-8.27367949458325e-22</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03584337129091e-18</v>
+        <v>-6.592426777039759e-23</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.390123128710393e-18</v>
+        <v>3.940225026047958e-22</v>
       </c>
       <c r="O18" t="n">
-        <v>2.681871056086288e-20</v>
+        <v>1.099785104306432e-22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.207561879375329e-21</v>
+        <v>1.125340010495979e-25</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.358107287602614e-10</v>
+        <v>-7.725727171463226e-12</v>
       </c>
       <c r="R18" t="n">
-        <v>1.117574805796469e-17</v>
+        <v>-4.285507413085029e-18</v>
       </c>
       <c r="S18" t="n">
-        <v>-4.87792858969974e-10</v>
+        <v>-5.927130255457018e-12</v>
       </c>
       <c r="T18" t="n">
-        <v>-3.814177660896404e-10</v>
+        <v>6.254262130012176e-12</v>
       </c>
       <c r="U18" t="n">
-        <v>-3.091767351096162e-10</v>
+        <v>-7.60619123556253e-12</v>
       </c>
       <c r="V18" t="n">
-        <v>5.094356548144213e-10</v>
+        <v>-4.171287556062074e-12</v>
       </c>
       <c r="W18" t="n">
-        <v>4.198375216073029e-10</v>
+        <v>-6.516356508965889e-12</v>
       </c>
       <c r="X18" t="n">
-        <v>-5.36280335229447e-10</v>
+        <v>4.921606237860466e-12</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.227444829287771e-18</v>
+        <v>-3.166104569398718e-17</v>
       </c>
       <c r="Z18" t="n">
-        <v>-1.690450230512226e-17</v>
+        <v>-7.50017104856441e-18</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.083361182061988e-14</v>
+        <v>-5.408572285523834e-15</v>
       </c>
       <c r="AB18" t="n">
         <v>-1</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.903277925322532e-14</v>
+        <v>1.310482133824094e-14</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.24563901526281e-15</v>
+        <v>1.053981697034129e-14</v>
       </c>
       <c r="AE18" t="n">
-        <v>-4.54719938388702e-15</v>
+        <v>-6.318611053026026e-15</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.675074891591326e-10</v>
+        <v>5.680019017070716e-12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.408877459921126e-17</v>
+        <v>-5.358556515662466e-18</v>
       </c>
       <c r="B19" t="n">
-        <v>2.357651391142719e-17</v>
+        <v>4.584704036558932e-18</v>
       </c>
       <c r="C19" t="n">
-        <v>1.222713012773715e-09</v>
+        <v>-2.702737059371377e-20</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.024039037480114e-18</v>
+        <v>1.485718881898678e-11</v>
       </c>
       <c r="E19" t="n">
-        <v>1.324605775717149e-09</v>
+        <v>-8.57851296437797e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.316286026871383e-11</v>
+        <v>1.609527350707517e-11</v>
       </c>
       <c r="G19" t="n">
-        <v>1.02769273219288e-09</v>
+        <v>-1.248752047243278e-11</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.174615800392831e-09</v>
+        <v>4.462836335786021e-21</v>
       </c>
       <c r="I19" t="n">
-        <v>-4.155618159468353e-15</v>
+        <v>1.241963361534635e-11</v>
       </c>
       <c r="J19" t="n">
-        <v>-5.681538656460842e-17</v>
+        <v>-2.288100367381171e-17</v>
       </c>
       <c r="K19" t="n">
-        <v>3.425886042472066e-17</v>
+        <v>-1.118773244146454e-17</v>
       </c>
       <c r="L19" t="n">
-        <v>-8.115846110609158e-17</v>
+        <v>2.287024573461181e-16</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.014660128250539e-16</v>
+        <v>-2.159554945084654e-16</v>
       </c>
       <c r="N19" t="n">
-        <v>1.928061922073557e-17</v>
+        <v>7.306323020554249e-18</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.42461637680885e-17</v>
+        <v>2.565208636985983e-17</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.154769250733277e-17</v>
+        <v>-5.124257717057516e-19</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R19" t="n">
-        <v>3.02613471494365e-17</v>
+        <v>2.989511230137039e-16</v>
       </c>
       <c r="S19" t="n">
-        <v>3.676494380315655e-16</v>
+        <v>1.258085724667177e-16</v>
       </c>
       <c r="T19" t="n">
-        <v>6.801610500931589e-17</v>
+        <v>-3.227931910350987e-17</v>
       </c>
       <c r="U19" t="n">
-        <v>-2.180793867566651e-16</v>
+        <v>-1.567754866340005e-16</v>
       </c>
       <c r="V19" t="n">
-        <v>-2.20768729912113e-16</v>
+        <v>-6.530859836609528e-17</v>
       </c>
       <c r="W19" t="n">
-        <v>-6.015165684730288e-17</v>
+        <v>5.358413881617996e-17</v>
       </c>
       <c r="X19" t="n">
-        <v>-3.719959399652479e-16</v>
+        <v>-1.37172085167503e-17</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.611925945110821e-16</v>
+        <v>-2.330355245071372e-16</v>
       </c>
       <c r="Z19" t="n">
-        <v>-4.770504030803325e-16</v>
+        <v>-2.151509074395908e-16</v>
       </c>
       <c r="AA19" t="n">
-        <v>-6.623028820342516e-10</v>
+        <v>8.04764268913121e-12</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.358107669340791e-10</v>
+        <v>7.725737064051296e-12</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.223548597152885e-19</v>
+        <v>-2.06407991995797e-20</v>
       </c>
       <c r="AD19" t="n">
-        <v>-6.177512365321321e-20</v>
+        <v>1.325282059390787e-21</v>
       </c>
       <c r="AE19" t="n">
-        <v>-1.305603941160174e-20</v>
+        <v>-5.969863508563939e-22</v>
       </c>
       <c r="AF19" t="n">
-        <v>-2.483047747451594e-19</v>
+        <v>-3.665165752023069e-23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-3.403871961750086e-16</v>
+        <v>3.184845731599077e-17</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.045312331781379e-16</v>
+        <v>1.265409430473218e-17</v>
       </c>
       <c r="C20" t="n">
-        <v>1.242455733226351e-16</v>
+        <v>-3.328947528857213e-18</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.036266807267186e-18</v>
+        <v>-8.260692300656012e-17</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.318035138152429e-16</v>
+        <v>7.241965521334062e-17</v>
       </c>
       <c r="F20" t="n">
-        <v>7.177554242593211e-17</v>
+        <v>-9.060573035333154e-18</v>
       </c>
       <c r="G20" t="n">
-        <v>7.536414832790866e-10</v>
+        <v>-9.157600302028439e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.613848580967488e-10</v>
+        <v>1.200249564545116e-21</v>
       </c>
       <c r="I20" t="n">
-        <v>-3.061489703007134e-15</v>
+        <v>9.107511267233878e-12</v>
       </c>
       <c r="J20" t="n">
-        <v>1.029876981933831e-16</v>
+        <v>1.029219748520806e-16</v>
       </c>
       <c r="K20" t="n">
-        <v>3.113739067399328e-18</v>
+        <v>2.04952271129892e-17</v>
       </c>
       <c r="L20" t="n">
-        <v>-9.67062371794668e-10</v>
+        <v>-1.045673699341076e-11</v>
       </c>
       <c r="M20" t="n">
-        <v>8.605481682323802e-10</v>
+        <v>-9.825846198787514e-12</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.324605754417069e-09</v>
+        <v>1.609545141088755e-11</v>
       </c>
       <c r="O20" t="n">
-        <v>-2.455281568146069e-16</v>
+        <v>4.097104187066222e-17</v>
       </c>
       <c r="P20" t="n">
-        <v>1.789853318963777e-17</v>
+        <v>3.670487573096461e-18</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.822983694419362e-16</v>
+        <v>4.872931486645887e-16</v>
       </c>
       <c r="R20" t="n">
-        <v>3.809961341558641e-17</v>
+        <v>2.656760051880545e-16</v>
       </c>
       <c r="S20" t="n">
-        <v>-2.924044893211132e-16</v>
+        <v>-2.502909090311568e-16</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.066681194392237e-16</v>
+        <v>1.425235186079024e-16</v>
       </c>
       <c r="U20" t="n">
-        <v>-5.216822451453684e-16</v>
+        <v>1.224567068404644e-16</v>
       </c>
       <c r="V20" t="n">
-        <v>3.608224829192447e-16</v>
+        <v>-5.6889769389592e-16</v>
       </c>
       <c r="W20" t="n">
-        <v>0.5546674184107035</v>
+        <v>-0.7085056035453101</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.708505603545314</v>
+        <v>0.5351155254086818</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.247165803352059e-16</v>
+        <v>5.127394385029152e-15</v>
       </c>
       <c r="Z20" t="n">
-        <v>-4.487403037284561e-16</v>
+        <v>1.459110156715913e-15</v>
       </c>
       <c r="AA20" t="n">
-        <v>9.156260205495408e-18</v>
+        <v>-8.162901392591548e-17</v>
       </c>
       <c r="AB20" t="n">
-        <v>7.569175948470382e-10</v>
+        <v>9.197435880956226e-12</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.886597044490725e-18</v>
+        <v>-7.387691210585373e-17</v>
       </c>
       <c r="AD20" t="n">
-        <v>-2.923541986278428e-18</v>
+        <v>1.673571095744574e-17</v>
       </c>
       <c r="AE20" t="n">
-        <v>6.623028817564771e-10</v>
+        <v>-8.04764168781675e-12</v>
       </c>
       <c r="AF20" t="n">
-        <v>-2.832994455358744e-19</v>
+        <v>-4.182746236252502e-23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.918377493363325e-16</v>
+        <v>7.019842542885117e-16</v>
       </c>
       <c r="B21" t="n">
-        <v>5.298423386353552e-09</v>
+        <v>6.438128968783902e-11</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.823715653503361e-16</v>
+        <v>-9.657021235075445e-11</v>
       </c>
       <c r="D21" t="n">
-        <v>7.947635435182887e-09</v>
+        <v>1.279002440046603e-15</v>
       </c>
       <c r="E21" t="n">
-        <v>4.497339013609398e-15</v>
+        <v>1.996017780973648e-15</v>
       </c>
       <c r="F21" t="n">
-        <v>4.328266860541211e-15</v>
+        <v>1.92201871310575e-16</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7111940114126662</v>
+        <v>-0.7111940139845744</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.8128691195916207</v>
+        <v>2.541705576056948e-10</v>
       </c>
       <c r="I21" t="n">
-        <v>-2.875811530261696e-06</v>
+        <v>0.7073271721243716</v>
       </c>
       <c r="J21" t="n">
-        <v>6.290362455827037e-16</v>
+        <v>6.238358810697738e-16</v>
       </c>
       <c r="K21" t="n">
-        <v>1.805180884171536e-15</v>
+        <v>-2.260256748361702e-15</v>
       </c>
       <c r="L21" t="n">
-        <v>9.978639953113688e-16</v>
+        <v>-1.282865554826218e-15</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.024384034406387e-16</v>
+        <v>-4.859084250838419e-16</v>
       </c>
       <c r="N21" t="n">
-        <v>8.456907042040284e-16</v>
+        <v>9.733229326603179e-16</v>
       </c>
       <c r="O21" t="n">
-        <v>2.8592086960635e-16</v>
+        <v>1.968867248478643e-16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.855578236309685e-16</v>
+        <v>9.844446540749885e-18</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.445024469979936e-09</v>
+        <v>1.75584932165872e-11</v>
       </c>
       <c r="R21" t="n">
-        <v>3.192022571504019e-19</v>
+        <v>-7.265485288255056e-23</v>
       </c>
       <c r="S21" t="n">
-        <v>-7.159537301942574e-19</v>
+        <v>-3.517129556226158e-22</v>
       </c>
       <c r="T21" t="n">
-        <v>6.334725965536898e-17</v>
+        <v>-2.653572341427514e-16</v>
       </c>
       <c r="U21" t="n">
-        <v>-1.026172492649866e-09</v>
+        <v>6.889597240704699e-12</v>
       </c>
       <c r="V21" t="n">
-        <v>-8.051163348655024e-10</v>
+        <v>-1.213908975530842e-11</v>
       </c>
       <c r="W21" t="n">
-        <v>-5.877723272787534e-10</v>
+        <v>9.122879944053237e-12</v>
       </c>
       <c r="X21" t="n">
-        <v>7.507924840860287e-10</v>
+        <v>-6.890307510498648e-12</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.991471297621449e-19</v>
+        <v>-4.934572373775107e-22</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.375213788560128e-19</v>
+        <v>-1.027477667094473e-22</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.445396496536699e-19</v>
+        <v>-9.516331344162347e-23</v>
       </c>
       <c r="AB21" t="n">
-        <v>-6.149387572172189e-19</v>
+        <v>-9.079503662501475e-23</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.970677926250275e-26</v>
+        <v>6.212745805227031e-28</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.140665327798525e-26</v>
+        <v>-1.056282389163728e-28</v>
       </c>
       <c r="AE21" t="n">
-        <v>-5.290734384565057e-19</v>
+        <v>7.811601019659711e-23</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.830346685799718e-28</v>
+        <v>3.283111984919822e-34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.03415961051603e-16</v>
+        <v>3.976070136958277e-16</v>
       </c>
       <c r="B22" t="n">
-        <v>1.26554346260051e-16</v>
+        <v>-1.608055746243687e-17</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.589577126072569e-16</v>
+        <v>-4.058735984866998e-18</v>
       </c>
       <c r="D22" t="n">
-        <v>1.490285684696216e-16</v>
+        <v>-1.870878679832503e-16</v>
       </c>
       <c r="E22" t="n">
-        <v>1.059684977387203e-09</v>
+        <v>-6.862920846491575e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.453028915134948e-11</v>
+        <v>1.287618146400002e-11</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.737524817499529e-16</v>
+        <v>-1.061198038561287e-16</v>
       </c>
       <c r="H22" t="n">
-        <v>5.393764868935834e-17</v>
+        <v>-3.552821720086788e-21</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.40626479935545e-17</v>
+        <v>-1.545101673552699e-16</v>
       </c>
       <c r="J22" t="n">
-        <v>-9.761113406322826e-10</v>
+        <v>1.07871932499781e-11</v>
       </c>
       <c r="K22" t="n">
-        <v>-8.577455284881282e-10</v>
+        <v>-1.042223308924015e-11</v>
       </c>
       <c r="L22" t="n">
-        <v>6.525381130374152e-17</v>
+        <v>9.889200226344805e-17</v>
       </c>
       <c r="M22" t="n">
-        <v>-2.517237395286196e-16</v>
+        <v>5.8942319242429e-17</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.445024441194838e-09</v>
+        <v>1.755824415189476e-11</v>
       </c>
       <c r="O22" t="n">
-        <v>-8.555717122252008e-17</v>
+        <v>-4.095778326215616e-16</v>
       </c>
       <c r="P22" t="n">
-        <v>4.586830950202563e-17</v>
+        <v>5.113509598695357e-18</v>
       </c>
       <c r="Q22" t="n">
-        <v>-2.803091084271019e-17</v>
+        <v>1.522176305472954e-16</v>
       </c>
       <c r="R22" t="n">
-        <v>-7.195700024694582e-16</v>
+        <v>-2.849117873793781e-16</v>
       </c>
       <c r="S22" t="n">
-        <v>1.695204909952115e-15</v>
+        <v>-4.283075554213911e-16</v>
       </c>
       <c r="T22" t="n">
-        <v>1.575098095533841e-15</v>
+        <v>3.0651432256425e-16</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.4279189906208415</v>
+        <v>-0.8663771492747803</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7050893707172591</v>
+        <v>-0.4751409563045954</v>
       </c>
       <c r="W22" t="n">
-        <v>-2.065074835948518e-15</v>
+        <v>5.400350096300004e-17</v>
       </c>
       <c r="X22" t="n">
-        <v>4.245653464163837e-16</v>
+        <v>-7.443715413755453e-16</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.113700517836429e-16</v>
+        <v>9.560315718542146e-16</v>
       </c>
       <c r="Z22" t="n">
-        <v>-2.906637247929813e-16</v>
+        <v>2.212364442484088e-16</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.321611390439895e-20</v>
+        <v>-1.539106234562988e-17</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.225122350601988e-10</v>
+        <v>8.779270494441582e-12</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.353388246221192e-20</v>
+        <v>-1.297024201992785e-17</v>
       </c>
       <c r="AD22" t="n">
-        <v>-6.623028821392118e-10</v>
+        <v>8.047645367362024e-12</v>
       </c>
       <c r="AE22" t="n">
-        <v>-1.144113325635809e-20</v>
+        <v>1.027448485405164e-19</v>
       </c>
       <c r="AF22" t="n">
-        <v>-2.736918560317797e-19</v>
+        <v>-4.040143417731284e-23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.298421691014332e-09</v>
+        <v>-6.438151319381303e-11</v>
       </c>
       <c r="B23" t="n">
-        <v>3.162369398833881e-17</v>
+        <v>6.38216650726405e-16</v>
       </c>
       <c r="C23" t="n">
-        <v>3.048712533616336e-15</v>
+        <v>-1.931434253820391e-10</v>
       </c>
       <c r="D23" t="n">
-        <v>1.589526917020455e-08</v>
+        <v>3.095448239366099e-15</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999999999996</v>
+        <v>-0.05329954848262446</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.03258545705983294</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>-9.273392538946388e-16</v>
+        <v>3.995606054508534e-15</v>
       </c>
       <c r="H23" t="n">
-        <v>1.017568548752021e-16</v>
+        <v>-2.087485749246175e-25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.08589305096889e-22</v>
+        <v>-3.391032041971428e-16</v>
       </c>
       <c r="J23" t="n">
-        <v>1.705314242193734e-15</v>
+        <v>2.438332223802205e-16</v>
       </c>
       <c r="K23" t="n">
-        <v>2.893459783531071e-15</v>
+        <v>-1.810120042876638e-15</v>
       </c>
       <c r="L23" t="n">
-        <v>7.281997344368519e-16</v>
+        <v>-2.377672200791176e-16</v>
       </c>
       <c r="M23" t="n">
-        <v>4.097699077877923e-16</v>
+        <v>-2.718165831303883e-16</v>
       </c>
       <c r="N23" t="n">
-        <v>-5.689871042571283e-16</v>
+        <v>-9.968487516694007e-16</v>
       </c>
       <c r="O23" t="n">
-        <v>8.659150292587318e-17</v>
+        <v>-7.134772208458685e-16</v>
       </c>
       <c r="P23" t="n">
-        <v>1.684139355461312e-16</v>
+        <v>-4.881025947709385e-19</v>
       </c>
       <c r="Q23" t="n">
-        <v>-1.324605764154088e-09</v>
+        <v>1.609528544727614e-11</v>
       </c>
       <c r="R23" t="n">
-        <v>2.955898664341388e-19</v>
+        <v>-8.035572677026786e-21</v>
       </c>
       <c r="S23" t="n">
-        <v>8.04288050613107e-10</v>
+        <v>9.77290457758808e-12</v>
       </c>
       <c r="T23" t="n">
-        <v>-9.468018358168639e-10</v>
+        <v>9.206211213540803e-12</v>
       </c>
       <c r="U23" t="n">
-        <v>4.534590762448575e-10</v>
+        <v>1.115561278316278e-11</v>
       </c>
       <c r="V23" t="n">
-        <v>-7.471723569490729e-10</v>
+        <v>6.117814431032568e-12</v>
       </c>
       <c r="W23" t="n">
-        <v>-2.031859440523792e-16</v>
+        <v>-1.836106007651523e-20</v>
       </c>
       <c r="X23" t="n">
-        <v>-1.057518672947006e-18</v>
+        <v>1.331670061080568e-16</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.014955794824975e-19</v>
+        <v>-1.1572011205099e-20</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.360785073691866e-19</v>
+        <v>-2.186560853895081e-21</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.114446748290709e-19</v>
+        <v>-9.027721135761385e-23</v>
       </c>
       <c r="AB23" t="n">
-        <v>-5.835381775454546e-19</v>
+        <v>-8.615944337124053e-23</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.075303794829131e-25</v>
+        <v>2.329495507301737e-27</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.290735510584375e-19</v>
+        <v>-7.811737257235263e-23</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.589407040608549e-26</v>
+        <v>-3.073225302830034e-28</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.762272032470623e-28</v>
+        <v>3.160286263148838e-34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-3.631291690040582e-16</v>
+        <v>1.369207815953375e-15</v>
       </c>
       <c r="B24" t="n">
-        <v>-3.226605082568292e-19</v>
+        <v>-8.741168750540305e-17</v>
       </c>
       <c r="C24" t="n">
-        <v>3.46616516914982e-16</v>
+        <v>-3.862868507637165e-11</v>
       </c>
       <c r="D24" t="n">
-        <v>3.179053834040649e-09</v>
+        <v>2.608871679570179e-16</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.649156856723096e-17</v>
+        <v>-1.293565600655702e-16</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.069973504070449e-17</v>
+        <v>4.172829396667415e-16</v>
       </c>
       <c r="G24" t="n">
-        <v>8.462270751360799e-16</v>
+        <v>2.483116709568638e-15</v>
       </c>
       <c r="H24" t="n">
-        <v>-7.770330741165883e-16</v>
+        <v>-6.438114179409798e-11</v>
       </c>
       <c r="I24" t="n">
-        <v>-5.298423056698687e-09</v>
+        <v>-6.982920285131305e-17</v>
       </c>
       <c r="J24" t="n">
-        <v>-1.747705495654833e-16</v>
+        <v>-5.77934493484734e-18</v>
       </c>
       <c r="K24" t="n">
-        <v>-6.37173645774257e-16</v>
+        <v>-3.895050298055452e-15</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.024640364951947e-16</v>
+        <v>1.757134788109664e-15</v>
       </c>
       <c r="M24" t="n">
-        <v>2.950592714690016e-15</v>
+        <v>-2.988220712399329e-16</v>
       </c>
       <c r="N24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>-7.157938440751186e-16</v>
+        <v>-2.100810249513916e-16</v>
       </c>
       <c r="P24" t="n">
-        <v>-1.102628427343051e-17</v>
+        <v>-7.792751785152352e-19</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.765811222719847e-20</v>
+        <v>9.962232227474773e-23</v>
       </c>
       <c r="R24" t="n">
-        <v>2.815897958663259e-20</v>
+        <v>5.734591165930082e-22</v>
       </c>
       <c r="S24" t="n">
-        <v>-3.278059267517767e-20</v>
+        <v>9.974745824493123e-22</v>
       </c>
       <c r="T24" t="n">
-        <v>2.562210482238596e-16</v>
+        <v>4.130050548285943e-16</v>
       </c>
       <c r="U24" t="n">
-        <v>6.183531865578302e-10</v>
+        <v>1.521230485527997e-11</v>
       </c>
       <c r="V24" t="n">
-        <v>-1.018871394269645e-09</v>
+        <v>8.342859859868795e-12</v>
       </c>
       <c r="W24" t="n">
-        <v>-7.347156990575405e-10</v>
+        <v>1.14035999320755e-11</v>
       </c>
       <c r="X24" t="n">
-        <v>9.38490606398987e-10</v>
+        <v>-8.612805292131269e-12</v>
       </c>
       <c r="Y24" t="n">
-        <v>-2.751376477035688e-21</v>
+        <v>7.514521058460334e-22</v>
       </c>
       <c r="Z24" t="n">
-        <v>-1.135376369303696e-09</v>
+        <v>1.379595895603382e-11</v>
       </c>
       <c r="AA24" t="n">
-        <v>-1.138601061339942e-25</v>
+        <v>6.946261457040397e-27</v>
       </c>
       <c r="AB24" t="n">
-        <v>-7.126041317465027e-19</v>
+        <v>-1.052179994663127e-22</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.352227691888733e-26</v>
+        <v>-4.038432273999872e-27</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.445397000682374e-19</v>
+        <v>-9.516031952146328e-23</v>
       </c>
       <c r="AE24" t="n">
-        <v>-6.114447042824379e-19</v>
+        <v>9.027871444839243e-23</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.039680443221584e-28</v>
+        <v>3.658908046882643e-34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.61313810173282e-17</v>
+        <v>-2.543618068673498e-16</v>
       </c>
       <c r="B25" t="n">
-        <v>1.160878859470306e-16</v>
+        <v>-5.126110537197177e-15</v>
       </c>
       <c r="C25" t="n">
-        <v>2.807089807118234e-08</v>
+        <v>-1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999999999999996</v>
+        <v>3.410894979689433e-10</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.589526917020568e-08</v>
+        <v>1.029799991164243e-11</v>
       </c>
       <c r="F25" t="n">
-        <v>5.179537652449487e-10</v>
+        <v>-1.931434253822527e-10</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.652310121821275e-09</v>
+        <v>6.868122398621891e-11</v>
       </c>
       <c r="H25" t="n">
-        <v>6.460388205684133e-09</v>
+        <v>2.491202727206501e-17</v>
       </c>
       <c r="I25" t="n">
-        <v>2.496354070650718e-14</v>
+        <v>-6.830598375593226e-11</v>
       </c>
       <c r="J25" t="n">
-        <v>-9.59502326954393e-17</v>
+        <v>2.520447207737764e-17</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.005417339480967e-22</v>
+        <v>-4.296527542922236e-23</v>
       </c>
       <c r="L25" t="n">
-        <v>-2.431680321973471e-09</v>
+        <v>3.43020800077724e-11</v>
       </c>
       <c r="M25" t="n">
-        <v>-2.822984186990963e-09</v>
+        <v>-3.621837550515173e-11</v>
       </c>
       <c r="N25" t="n">
-        <v>3.179053834041057e-09</v>
+        <v>-3.862868507642939e-11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.115715452138012e-23</v>
+        <v>-7.958736687806829e-24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2707527539721e-09</v>
+        <v>2.759236383136416e-11</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.386462786882018e-18</v>
+        <v>-4.999984844651243e-22</v>
       </c>
       <c r="R25" t="n">
-        <v>3.532079263727017e-26</v>
+        <v>8.603013818052376e-28</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.937026585557774e-18</v>
+        <v>-2.859852266940827e-22</v>
       </c>
       <c r="T25" t="n">
-        <v>-4.49518211579974e-17</v>
+        <v>-1.424953425285012e-17</v>
       </c>
       <c r="U25" t="n">
-        <v>-5.765280995872361e-17</v>
+        <v>5.413006053201128e-18</v>
       </c>
       <c r="V25" t="n">
-        <v>3.487484092347897e-18</v>
+        <v>1.976224869244745e-17</v>
       </c>
       <c r="W25" t="n">
-        <v>-4.253347255199362e-18</v>
+        <v>-2.33209748505626e-22</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.579506483716559e-18</v>
+        <v>-1.523529806816586e-17</v>
       </c>
       <c r="Y25" t="n">
-        <v>-9.947547758004266e-26</v>
+        <v>7.951610073474605e-28</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.836372905087163e-18</v>
+        <v>-2.711346795208423e-22</v>
       </c>
       <c r="AA25" t="n">
-        <v>-8.458272365845959e-28</v>
+        <v>1.532653220166887e-33</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.989855751793355e-28</v>
+        <v>1.379691185851196e-33</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.44605356553055e-31</v>
+        <v>7.228615479585555e-35</v>
       </c>
       <c r="AD25" t="n">
-        <v>-7.104172289272578e-28</v>
+        <v>1.232348229873844e-33</v>
       </c>
       <c r="AE25" t="n">
-        <v>6.684695893535169e-28</v>
+        <v>-1.208663849342864e-33</v>
       </c>
       <c r="AF25" t="n">
-        <v>-1.678132570294556e-37</v>
+        <v>-3.656838627191826e-45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1.005840345185497e-16</v>
+        <v>7.654300227807331e-17</v>
       </c>
       <c r="B26" t="n">
-        <v>-3.077474396815563e-17</v>
+        <v>-2.948296903199971e-16</v>
       </c>
       <c r="C26" t="n">
-        <v>1.059684751494876e-09</v>
+        <v>1.036530545777099e-17</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.351734551688882e-17</v>
+        <v>1.287638360197513e-11</v>
       </c>
       <c r="E26" t="n">
-        <v>1.364359042443336e-16</v>
+        <v>2.608273566505261e-17</v>
       </c>
       <c r="F26" t="n">
-        <v>4.23904591146215e-18</v>
+        <v>1.3637313130855e-16</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.944922178842763e-16</v>
+        <v>-7.979404296620199e-17</v>
       </c>
       <c r="H26" t="n">
-        <v>1.429617825147337e-17</v>
+        <v>-4.304368116353333e-21</v>
       </c>
       <c r="I26" t="n">
-        <v>-2.9153043131928e-17</v>
+        <v>-6.600356047816171e-17</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.057454159591688e-09</v>
+        <v>1.168596828229479e-11</v>
       </c>
       <c r="K26" t="n">
-        <v>-9.292244777423369e-10</v>
+        <v>-1.129078913898356e-11</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.142892011744517e-09</v>
+        <v>-1.235749472571253e-11</v>
       </c>
       <c r="M26" t="n">
-        <v>1.017010875295406e-09</v>
+        <v>-1.161246641792682e-11</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.911456729761316e-16</v>
+        <v>-1.044166965188797e-16</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.786610846918101e-16</v>
+        <v>-3.545807764598952e-16</v>
       </c>
       <c r="P26" t="n">
-        <v>9.063148997478354e-18</v>
+        <v>1.370158432354618e-18</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.657309832137343e-16</v>
+        <v>1.39219813371627e-16</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.866460173149305e-16</v>
+        <v>-3.133526569110879e-16</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.7058223033782087</v>
+        <v>-0.7058223040506982</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.5519005314242503</v>
+        <v>0.7447708603561951</v>
       </c>
       <c r="U26" t="n">
-        <v>5.980589222168326e-17</v>
+        <v>9.045294005444738e-16</v>
       </c>
       <c r="V26" t="n">
-        <v>1.51611760213026e-15</v>
+        <v>4.583006598728654e-16</v>
       </c>
       <c r="W26" t="n">
-        <v>5.197895819780778e-16</v>
+        <v>2.070349169006094e-16</v>
       </c>
       <c r="X26" t="n">
-        <v>7.619654775882108e-16</v>
+        <v>-2.187351720207739e-16</v>
       </c>
       <c r="Y26" t="n">
-        <v>-2.011166665129502e-16</v>
+        <v>1.123285161867417e-16</v>
       </c>
       <c r="Z26" t="n">
-        <v>5.101297593124231e-17</v>
+        <v>6.297772778708159e-17</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.029214225387115e-19</v>
+        <v>-2.476191981487008e-18</v>
       </c>
       <c r="AB26" t="n">
-        <v>6.910986601010855e-10</v>
+        <v>8.397543960409865e-12</v>
       </c>
       <c r="AC26" t="n">
-        <v>-6.62302881725071e-10</v>
+        <v>8.047640820741351e-12</v>
       </c>
       <c r="AD26" t="n">
-        <v>-1.246165213205793e-19</v>
+        <v>3.27629553622998e-19</v>
       </c>
       <c r="AE26" t="n">
-        <v>-1.8016987510279e-20</v>
+        <v>-1.077557036530475e-21</v>
       </c>
       <c r="AF26" t="n">
-        <v>-2.646926074284151e-19</v>
+        <v>-3.907032971930983e-23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7.947635231301941e-09</v>
+        <v>-9.657275376049427e-11</v>
       </c>
       <c r="B27" t="n">
-        <v>1.58952677589675e-08</v>
+        <v>1.931448134156839e-10</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9999999999999996</v>
+        <v>-1.532328213458258e-09</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.795183876962082e-08</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-8.293908113770457e-15</v>
+        <v>-2.748677759563194e-16</v>
       </c>
       <c r="F27" t="n">
-        <v>5.412053935352388e-16</v>
+        <v>1.261212591644083e-15</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.973221434801846e-15</v>
+        <v>2.752478982784629e-15</v>
       </c>
       <c r="H27" t="n">
-        <v>2.352099570322209e-16</v>
+        <v>2.231109449157424e-28</v>
       </c>
       <c r="I27" t="n">
-        <v>3.647280671836821e-22</v>
+        <v>6.551933393861583e-16</v>
       </c>
       <c r="J27" t="n">
-        <v>5.802984670311603e-17</v>
+        <v>7.333849373048153e-17</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.751347325496325e-16</v>
+        <v>-1.500764655710846e-15</v>
       </c>
       <c r="L27" t="n">
-        <v>4.236675059909138e-16</v>
+        <v>-4.472945669126809e-16</v>
       </c>
       <c r="M27" t="n">
-        <v>-8.104019457105407e-16</v>
+        <v>1.568189122208512e-16</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.428571299612407e-16</v>
+        <v>-5.236966439592809e-16</v>
       </c>
       <c r="O27" t="n">
-        <v>-1.958518579557836e-16</v>
+        <v>6.034638361918262e-17</v>
       </c>
       <c r="P27" t="n">
-        <v>-8.537813307520623e-16</v>
+        <v>7.974921773391406e-19</v>
       </c>
       <c r="Q27" t="n">
-        <v>-1.222713013036763e-09</v>
+        <v>1.485718656961375e-11</v>
       </c>
       <c r="R27" t="n">
-        <v>1.135376369914795e-09</v>
+        <v>-1.379595894472684e-11</v>
       </c>
       <c r="S27" t="n">
-        <v>7.479490316475234e-10</v>
+        <v>9.088329189250905e-12</v>
       </c>
       <c r="T27" t="n">
-        <v>5.848404918564845e-10</v>
+        <v>-9.589719375416563e-12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.2450369448443e-17</v>
+        <v>-9.654527332868136e-19</v>
       </c>
       <c r="V27" t="n">
-        <v>-2.827436372258496e-18</v>
+        <v>-3.402181232370913e-18</v>
       </c>
       <c r="W27" t="n">
-        <v>-1.405070450278233e-16</v>
+        <v>2.753908179583623e-20</v>
       </c>
       <c r="X27" t="n">
-        <v>-2.725662963264098e-18</v>
+        <v>1.319291895427377e-16</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.934005338841873e-18</v>
+        <v>1.816020666787715e-20</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.999624785197474e-19</v>
+        <v>3.603109444895723e-21</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.814238319380692e-19</v>
+        <v>-8.584534055110993e-23</v>
       </c>
       <c r="AB27" t="n">
-        <v>-5.550416453860037e-19</v>
+        <v>-8.19501867446091e-23</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.290734833218275e-19</v>
+        <v>-7.811598734222024e-23</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.252074993389259e-29</v>
+        <v>-4.592102572171213e-30</v>
       </c>
       <c r="AE27" t="n">
-        <v>-1.436896587818146e-29</v>
+        <v>7.074731526526881e-32</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.698728042184279e-28</v>
+        <v>3.046081128445057e-34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-1.848388669486362e-16</v>
+        <v>3.107907385409888e-17</v>
       </c>
       <c r="B28" t="n">
-        <v>3.179053709462332e-09</v>
+        <v>3.862929690097095e-11</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.098449080894675e-16</v>
+        <v>4.323165444692641e-16</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.651089943332778e-16</v>
+        <v>-6.663204967857599e-16</v>
       </c>
       <c r="E28" t="n">
-        <v>-4.302256331975396e-18</v>
+        <v>-1.968754428190492e-15</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.356487968884399e-16</v>
+        <v>-7.811809907543436e-17</v>
       </c>
       <c r="G28" t="n">
-        <v>8.631811928438503e-16</v>
+        <v>2.332876675325622e-15</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.286282978683092e-15</v>
+        <v>-9.657171269114236e-11</v>
       </c>
       <c r="I28" t="n">
-        <v>-7.947634585053915e-09</v>
+        <v>5.757569785576735e-16</v>
       </c>
       <c r="J28" t="n">
-        <v>-2.493279555283552e-15</v>
+        <v>-3.877868514142798e-16</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.596852936306027e-15</v>
+        <v>7.738193209439668e-16</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.790915353514044</v>
+        <v>-0.7038021735887333</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7038021198604347</v>
+        <v>-0.6613581045475426</v>
       </c>
       <c r="N28" t="n">
-        <v>1.134964805781905e-15</v>
+        <v>-1.291226405394404e-15</v>
       </c>
       <c r="O28" t="n">
-        <v>4.961954324728188e-16</v>
+        <v>-9.693765834043644e-16</v>
       </c>
       <c r="P28" t="n">
-        <v>1.239374278498025e-16</v>
+        <v>6.530330261305997e-18</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.390625472115882e-20</v>
+        <v>3.769022354410981e-22</v>
       </c>
       <c r="R28" t="n">
-        <v>2.210258184782541e-19</v>
+        <v>2.055194481267716e-21</v>
       </c>
       <c r="S28" t="n">
-        <v>1.019930499440638e-09</v>
+        <v>1.23931761411227e-11</v>
       </c>
       <c r="T28" t="n">
-        <v>7.975095702463025e-10</v>
+        <v>-1.307709242147447e-11</v>
       </c>
       <c r="U28" t="n">
-        <v>-9.053899625054182e-17</v>
+        <v>4.525521166047075e-18</v>
       </c>
       <c r="V28" t="n">
-        <v>-6.215920867317677e-19</v>
+        <v>1.653619336942481e-17</v>
       </c>
       <c r="W28" t="n">
-        <v>-6.781989875458705e-10</v>
+        <v>1.052639993910658e-11</v>
       </c>
       <c r="X28" t="n">
-        <v>8.662990207864512e-10</v>
+        <v>-7.95037696590037e-12</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.135376369628047e-09</v>
+        <v>-1.379595895441388e-11</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.178079698767133e-20</v>
+        <v>2.133345799909777e-22</v>
       </c>
       <c r="AA28" t="n">
-        <v>-2.007020859519428e-25</v>
+        <v>6.434017320789371e-27</v>
       </c>
       <c r="AB28" t="n">
-        <v>-6.769593892673166e-19</v>
+        <v>-9.996125564127592e-23</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.445395362727934e-19</v>
+        <v>-9.515815419397226e-23</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.22160438133563e-26</v>
+        <v>-1.460920969535942e-27</v>
       </c>
       <c r="AE28" t="n">
-        <v>-5.814238255110056e-19</v>
+        <v>8.584527008928187e-23</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.965185825446625e-28</v>
+        <v>3.524953024514632e-34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.606688164617203e-15</v>
+        <v>-1.214221107409671e-15</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.589526637543465e-08</v>
+        <v>-2.628281122543138e-15</v>
       </c>
       <c r="D29" t="n">
-        <v>2.81348125110423e-16</v>
+        <v>-1.931440048515908e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.238486266653426e-15</v>
+        <v>6.025396181933356e-18</v>
       </c>
       <c r="F29" t="n">
-        <v>1.144787380188957e-15</v>
+        <v>-1.354130496627366e-15</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.768207478802887e-09</v>
+        <v>4.578778927858527e-11</v>
       </c>
       <c r="H29" t="n">
-        <v>4.306924073067525e-09</v>
+        <v>-7.659434286830611e-21</v>
       </c>
       <c r="I29" t="n">
-        <v>1.529621829927048e-14</v>
+        <v>-4.553845069206648e-11</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.393186959761079e-09</v>
+        <v>3.32032079026982e-11</v>
       </c>
       <c r="K29" t="n">
-        <v>2.83197779616248e-09</v>
+        <v>3.441034348556628e-11</v>
       </c>
       <c r="L29" t="n">
-        <v>2.514362259271445e-09</v>
+        <v>2.718792259763794e-11</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.237424767212898e-09</v>
+        <v>2.554730969604176e-11</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.844429030471915e-19</v>
+        <v>-2.485056480265208e-16</v>
       </c>
       <c r="O29" t="n">
-        <v>1.582389072004184e-21</v>
+        <v>8.943289561089159e-19</v>
       </c>
       <c r="P29" t="n">
-        <v>1.986908637998274e-09</v>
+        <v>2.414292859233286e-11</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.0288861118915e-18</v>
+        <v>-4.47205312510586e-22</v>
       </c>
       <c r="R29" t="n">
-        <v>-2.734411013313317e-18</v>
+        <v>4.037273138112501e-22</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.756307624342216e-18</v>
+        <v>-2.596364954868359e-22</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.651615023586165e-16</v>
+        <v>4.252902696418299e-16</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.565268774313524e-17</v>
+        <v>-1.240077871682292e-17</v>
       </c>
       <c r="V29" t="n">
-        <v>1.563500403582729e-18</v>
+        <v>-4.526840882603466e-17</v>
       </c>
       <c r="W29" t="n">
-        <v>-7.540326962138151e-17</v>
+        <v>-2.10841661475358e-22</v>
       </c>
       <c r="X29" t="n">
-        <v>-1.428005859637085e-18</v>
+        <v>2.276729425403376e-17</v>
       </c>
       <c r="Y29" t="n">
-        <v>-1.836372878620766e-18</v>
+        <v>2.7113352630533e-22</v>
       </c>
       <c r="Z29" t="n">
-        <v>4.971954852897479e-27</v>
+        <v>-2.749787796086362e-28</v>
       </c>
       <c r="AA29" t="n">
-        <v>-7.959856150504202e-28</v>
+        <v>1.427914266205024e-33</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.527595074338687e-28</v>
+        <v>1.350698713975846e-33</v>
       </c>
       <c r="AC29" t="n">
-        <v>-7.107375263506345e-28</v>
+        <v>1.274985833637319e-33</v>
       </c>
       <c r="AD29" t="n">
-        <v>-1.107694666907586e-34</v>
+        <v>2.798329498615697e-38</v>
       </c>
       <c r="AE29" t="n">
-        <v>6.303378237996849e-28</v>
+        <v>-1.130859222646716e-33</v>
       </c>
       <c r="AF29" t="n">
-        <v>-1.609475905102495e-37</v>
+        <v>-3.506810987368344e-45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.179054355766228e-09</v>
+        <v>-3.862872813060573e-11</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.856348544990749e-16</v>
+        <v>1.487658746235958e-16</v>
       </c>
       <c r="C30" t="n">
-        <v>2.402662988644155e-16</v>
+        <v>1.308498554013805e-17</v>
       </c>
       <c r="D30" t="n">
-        <v>-5.887150290080276e-16</v>
+        <v>-1.298836493980962e-15</v>
       </c>
       <c r="E30" t="n">
-        <v>3.875131656563946e-16</v>
+        <v>3.229032195148777e-17</v>
       </c>
       <c r="F30" t="n">
-        <v>2.821232790754116e-15</v>
+        <v>-6.243684832078159e-16</v>
       </c>
       <c r="G30" t="n">
-        <v>8.558237008216454e-16</v>
+        <v>4.783756040538189e-15</v>
       </c>
       <c r="H30" t="n">
-        <v>2.949125643956883e-16</v>
+        <v>-1.931434253821508e-10</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.589526917009962e-08</v>
+        <v>-2.548442359212949e-15</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.7983160305775362</v>
+        <v>0.7260539312058304</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.7015101087246874</v>
+        <v>-0.7015101052591064</v>
       </c>
       <c r="L30" t="n">
-        <v>4.657765407592275e-15</v>
+        <v>-1.420642688686208e-15</v>
       </c>
       <c r="M30" t="n">
-        <v>-2.535174268078627e-15</v>
+        <v>1.13657234818616e-15</v>
       </c>
       <c r="N30" t="n">
-        <v>3.863615455900346e-16</v>
+        <v>-3.073109921579532e-15</v>
       </c>
       <c r="O30" t="n">
-        <v>8.023226980118059e-16</v>
+        <v>9.401624204301479e-16</v>
       </c>
       <c r="P30" t="n">
-        <v>-4.931419018001571e-16</v>
+        <v>4.295795813835529e-17</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.862488778068712e-20</v>
+        <v>4.695502497621338e-22</v>
       </c>
       <c r="R30" t="n">
-        <v>1.567821926598216e-19</v>
+        <v>2.903563622680367e-21</v>
       </c>
       <c r="S30" t="n">
-        <v>9.34936291196571e-10</v>
+        <v>1.136041146501221e-11</v>
       </c>
       <c r="T30" t="n">
-        <v>7.3105075931563e-10</v>
+        <v>-1.198733397768974e-11</v>
       </c>
       <c r="U30" t="n">
-        <v>5.232220659691368e-10</v>
+        <v>1.287193184871864e-11</v>
       </c>
       <c r="V30" t="n">
-        <v>-8.621219495201e-10</v>
+        <v>7.059275764269444e-12</v>
       </c>
       <c r="W30" t="n">
-        <v>9.44714859060076e-10</v>
+        <v>9.735879789070949e-12</v>
       </c>
       <c r="X30" t="n">
-        <v>8.012409915557051e-10</v>
+        <v>1.165458424837865e-11</v>
       </c>
       <c r="Y30" t="n">
-        <v>3.118329594257061e-19</v>
+        <v>3.75348423578532e-21</v>
       </c>
       <c r="Z30" t="n">
-        <v>5.960960272481791e-20</v>
+        <v>6.810086316430483e-22</v>
       </c>
       <c r="AA30" t="n">
-        <v>-1.068684594773242e-26</v>
+        <v>1.390219297139382e-27</v>
       </c>
       <c r="AB30" t="n">
-        <v>-6.419921797787746e-19</v>
+        <v>-9.47902985068353e-23</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.11444684223341e-19</v>
+        <v>-9.027662384972853e-23</v>
       </c>
       <c r="AD30" t="n">
-        <v>5.814238356377722e-19</v>
+        <v>-8.584565200009885e-23</v>
       </c>
       <c r="AE30" t="n">
-        <v>3.365194921047323e-28</v>
+        <v>-1.574664618226707e-29</v>
       </c>
       <c r="AF30" t="n">
-        <v>1.891640818907252e-28</v>
+        <v>3.392244941584839e-34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B31" t="n">
-        <v>-4.968069410686772e-16</v>
+        <v>-7.712745181729469e-16</v>
       </c>
       <c r="C31" t="n">
-        <v>-7.947633852818583e-09</v>
+        <v>1.331555527755083e-16</v>
       </c>
       <c r="D31" t="n">
-        <v>7.780004282528156e-17</v>
+        <v>-9.657299909139188e-11</v>
       </c>
       <c r="E31" t="n">
-        <v>-5.298421592205522e-09</v>
+        <v>3.430381776757096e-12</v>
       </c>
       <c r="F31" t="n">
-        <v>1.726514675253329e-10</v>
+        <v>-6.438017162200621e-11</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.793577227984814e-09</v>
+        <v>3.394463509719579e-11</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.314535116302087e-09</v>
+        <v>8.689798796430738e-21</v>
       </c>
       <c r="I31" t="n">
-        <v>-9.310583024662379e-15</v>
+        <v>3.413322401572071e-11</v>
       </c>
       <c r="J31" t="n">
-        <v>2.537889280053945e-09</v>
+        <v>-2.80465659280333e-11</v>
       </c>
       <c r="K31" t="n">
-        <v>2.230138359498287e-09</v>
+        <v>2.709789139931206e-11</v>
       </c>
       <c r="L31" t="n">
-        <v>6.592007930954459e-17</v>
+        <v>-5.529170519464753e-16</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.982835381282357e-16</v>
+        <v>-1.773989776097541e-16</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.997833309700977e-16</v>
+        <v>7.059621934410753e-16</v>
       </c>
       <c r="O31" t="n">
-        <v>5.145304329762109e-21</v>
+        <v>-1.110223024613427e-15</v>
       </c>
       <c r="P31" t="n">
-        <v>1.766141016496508e-09</v>
+        <v>2.146037781328441e-11</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.699375687550562e-18</v>
+        <v>-3.985510978921083e-22</v>
       </c>
       <c r="R31" t="n">
-        <v>-2.443865259951539e-18</v>
+        <v>3.608310834262667e-22</v>
       </c>
       <c r="S31" t="n">
-        <v>-3.13542006056842e-18</v>
+        <v>-4.633422618872318e-22</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.929771439818049e-16</v>
+        <v>5.368218833531711e-16</v>
       </c>
       <c r="U31" t="n">
-        <v>-6.423682915969306e-17</v>
+        <v>1.17431046730784e-17</v>
       </c>
       <c r="V31" t="n">
-        <v>1.421119471756135e-18</v>
+        <v>4.286923637733526e-17</v>
       </c>
       <c r="W31" t="n">
-        <v>9.39599194251217e-17</v>
+        <v>-1.913411064965892e-22</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.295938060013437e-18</v>
+        <v>-1.587784187243157e-16</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.718428547628126e-26</v>
+        <v>-3.562436149972793e-30</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.080000245124948e-27</v>
+        <v>-8.648985718640565e-31</v>
       </c>
       <c r="AA31" t="n">
-        <v>-7.47835982653249e-28</v>
+        <v>1.341627028772059e-33</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.07566822328241e-28</v>
+        <v>1.269476521892213e-33</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.683984181647998e-28</v>
+        <v>1.199096525241462e-33</v>
       </c>
       <c r="AD31" t="n">
-        <v>-6.30337905009662e-28</v>
+        <v>1.130881261225128e-33</v>
       </c>
       <c r="AE31" t="n">
-        <v>-9.770540172578653e-36</v>
+        <v>3.491687953817414e-39</v>
       </c>
       <c r="AF31" t="n">
-        <v>-1.542098543278508e-37</v>
+        <v>-3.358990050557561e-45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.965130603188921e-17</v>
+        <v>-2.901325835064928e-21</v>
       </c>
       <c r="B32" t="n">
-        <v>2.737146799066392e-17</v>
+        <v>4.04129546115227e-21</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.029437641733467e-23</v>
+        <v>-2.493301987936694e-17</v>
       </c>
       <c r="D32" t="n">
-        <v>8.383698007595824e-17</v>
+        <v>7.22870069851293e-25</v>
       </c>
       <c r="E32" t="n">
-        <v>1.128671466284069e-22</v>
+        <v>1.365225760493857e-20</v>
       </c>
       <c r="F32" t="n">
-        <v>-9.259217428806256e-17</v>
+        <v>1.480723882084551e-25</v>
       </c>
       <c r="G32" t="n">
-        <v>2.083339453618062e-08</v>
+        <v>-2.531465889139642e-10</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.236664919923197e-07</v>
+        <v>-1</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.9999999999930751</v>
+        <v>5.763729294210241e-10</v>
       </c>
       <c r="J32" t="n">
-        <v>1.26894481889196e-08</v>
+        <v>-1.402325432851742e-10</v>
       </c>
       <c r="K32" t="n">
-        <v>1.1150692003799e-08</v>
+        <v>1.354920646700379e-10</v>
       </c>
       <c r="L32" t="n">
-        <v>6.285906217476927e-09</v>
+        <v>6.796738129921532e-11</v>
       </c>
       <c r="M32" t="n">
-        <v>-5.593562068871368e-09</v>
+        <v>6.386848485832015e-11</v>
       </c>
       <c r="N32" t="n">
-        <v>5.29842305673509e-09</v>
+        <v>-6.438114179409674e-11</v>
       </c>
       <c r="O32" t="n">
-        <v>-3.973817292551348e-09</v>
+        <v>-4.828585634557375e-11</v>
       </c>
       <c r="P32" t="n">
-        <v>3.179053834041073e-09</v>
+        <v>3.862868507537852e-11</v>
       </c>
       <c r="Q32" t="n">
-        <v>-1.222125638306481e-25</v>
+        <v>5.41501851691345e-32</v>
       </c>
       <c r="R32" t="n">
-        <v>-7.668086558172887e-26</v>
+        <v>2.660928536771404e-31</v>
       </c>
       <c r="S32" t="n">
-        <v>-2.390241051409988e-18</v>
+        <v>-3.52911482195329e-22</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.868992733926777e-18</v>
+        <v>3.723240972841814e-22</v>
       </c>
       <c r="U32" t="n">
-        <v>-1.296117912712045e-18</v>
+        <v>-3.874630003697868e-22</v>
       </c>
       <c r="V32" t="n">
-        <v>2.135635388212292e-18</v>
+        <v>-2.125384217898404e-22</v>
       </c>
       <c r="W32" t="n">
-        <v>-7.779828591419847e-19</v>
+        <v>-5.672879844757411e-22</v>
       </c>
       <c r="X32" t="n">
-        <v>-3.842195868400047e-18</v>
+        <v>-1.278921316560353e-22</v>
       </c>
       <c r="Y32" t="n">
-        <v>-2.443879880843626e-18</v>
+        <v>3.608310834283884e-22</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.204850910258152e-18</v>
+        <v>-3.255392161376623e-22</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.555588288796816e-34</v>
+        <v>-3.354341201868264e-37</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.970040877874507e-28</v>
+        <v>1.609652804107673e-33</v>
       </c>
       <c r="AC32" t="n">
-        <v>-8.457089958023746e-28</v>
+        <v>1.517183517755415e-33</v>
       </c>
       <c r="AD32" t="n">
-        <v>-7.959860265572903e-28</v>
+        <v>1.427990177061757e-33</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.478360161351283e-28</v>
+        <v>-1.341677359024754e-33</v>
       </c>
       <c r="AF32" t="n">
-        <v>-1.819235461200591e-37</v>
+        <v>-3.964274377193976e-45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.766141018911725e-09</v>
+        <v>-2.146038059803279e-11</v>
       </c>
       <c r="B33" t="n">
-        <v>1.986908646316122e-09</v>
+        <v>2.414292817278645e-11</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.032906554009099e-16</v>
+        <v>-2.759236057160663e-11</v>
       </c>
       <c r="D33" t="n">
-        <v>2.270752624536577e-09</v>
+        <v>-1.054084421708095e-21</v>
       </c>
       <c r="E33" t="n">
-        <v>4.964180983316252e-16</v>
+        <v>3.214485592077874e-11</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.647804211308775e-09</v>
+        <v>3.090645829509124e-21</v>
       </c>
       <c r="G33" t="n">
-        <v>5.706723454766083e-16</v>
+        <v>1.199397861480085e-21</v>
       </c>
       <c r="H33" t="n">
-        <v>-8.267174167441259e-16</v>
+        <v>-3.862868507537839e-11</v>
       </c>
       <c r="I33" t="n">
-        <v>-3.179053834020602e-09</v>
+        <v>2.370476649773176e-17</v>
       </c>
       <c r="J33" t="n">
-        <v>-1.279751713294662e-16</v>
+        <v>-2.720592151571474e-16</v>
       </c>
       <c r="K33" t="n">
-        <v>4.076648856620204e-16</v>
+        <v>1.283564062971503e-20</v>
       </c>
       <c r="L33" t="n">
-        <v>5.553029185580396e-16</v>
+        <v>1.127903890593191e-20</v>
       </c>
       <c r="M33" t="n">
-        <v>1.065727686507689e-15</v>
+        <v>1.282405855940294e-17</v>
       </c>
       <c r="N33" t="n">
-        <v>6.737588500326655e-17</v>
+        <v>-9.947821908208798e-21</v>
       </c>
       <c r="O33" t="n">
-        <v>-1.13696816270113e-16</v>
+        <v>-1.67870683074411e-20</v>
       </c>
       <c r="P33" t="n">
         <v>-1</v>
       </c>
       <c r="Q33" t="n">
-        <v>-2.414502392089022e-26</v>
+        <v>4.368410026020534e-32</v>
       </c>
       <c r="R33" t="n">
-        <v>1.944601502872716e-26</v>
+        <v>-3.328366719055526e-32</v>
       </c>
       <c r="S33" t="n">
-        <v>2.258703703305802e-26</v>
+        <v>4.27212593442614e-32</v>
       </c>
       <c r="T33" t="n">
-        <v>2.004730054774996e-24</v>
+        <v>1.48394440846727e-26</v>
       </c>
       <c r="U33" t="n">
-        <v>2.091056278868302e-22</v>
+        <v>1.351639012212709e-27</v>
       </c>
       <c r="V33" t="n">
-        <v>-1.857412544011061e-26</v>
+        <v>4.934067199416498e-27</v>
       </c>
       <c r="W33" t="n">
-        <v>1.456990037744391e-23</v>
+        <v>2.979840205994453e-32</v>
       </c>
       <c r="X33" t="n">
-        <v>1.574576734943777e-26</v>
+        <v>-5.497901365190389e-27</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.402645665708151e-27</v>
+        <v>-1.608982258502564e-32</v>
       </c>
       <c r="Z33" t="n">
-        <v>-8.023460105837521e-27</v>
+        <v>1.45141656147904e-32</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.741328277633716e-36</v>
+        <v>-3.799850917212641e-44</v>
       </c>
       <c r="AB33" t="n">
-        <v>-1.618676744024765e-36</v>
+        <v>-3.513214508250902e-44</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.502133503683738e-36</v>
+        <v>-3.29505065608134e-44</v>
       </c>
       <c r="AD33" t="n">
-        <v>1.392012156676302e-36</v>
+        <v>-3.023033060778813e-44</v>
       </c>
       <c r="AE33" t="n">
-        <v>-1.287567884201524e-36</v>
+        <v>2.809222801471871e-44</v>
       </c>
       <c r="AF33" t="n">
-        <v>2.053413318689756e-46</v>
+        <v>5.433546500919073e-56</v>
       </c>
     </row>
   </sheetData>
